--- a/_R.xlsx
+++ b/_R.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leandro Luz\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\RProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4996015-F2AC-4950-9F39-096F1CDC5DED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1934191-983F-4AB1-91F0-B512E662434B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{88B916E1-658B-4CD8-9C7E-BE8A8C7A43A4}"/>
   </bookViews>
@@ -405,7 +405,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
     <col min="2" max="2" width="5.7109375" customWidth="1"/>
     <col min="3" max="3" width="2.5703125" customWidth="1"/>
   </cols>

--- a/_R.xlsx
+++ b/_R.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\RProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1934191-983F-4AB1-91F0-B512E662434B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB3C0228-FB0D-4203-93C5-A7464217E511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{88B916E1-658B-4CD8-9C7E-BE8A8C7A43A4}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{88B916E1-658B-4CD8-9C7E-BE8A8C7A43A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="17">
   <si>
     <t>Apresentação</t>
   </si>
@@ -37,6 +37,45 @@
   </si>
   <si>
     <t>Boas práticas de Programação</t>
+  </si>
+  <si>
+    <t>Vetores</t>
+  </si>
+  <si>
+    <t>Criação</t>
+  </si>
+  <si>
+    <t>Nomeação</t>
+  </si>
+  <si>
+    <t>Indexação</t>
+  </si>
+  <si>
+    <t>Coerção</t>
+  </si>
+  <si>
+    <t>Ordenação</t>
+  </si>
+  <si>
+    <t>Operações</t>
+  </si>
+  <si>
+    <t>Matrizes</t>
+  </si>
+  <si>
+    <t>Arrays</t>
+  </si>
+  <si>
+    <t>Dataframes</t>
+  </si>
+  <si>
+    <t>Adicionais</t>
+  </si>
+  <si>
+    <t>Listas</t>
+  </si>
+  <si>
+    <t>Desfazendo</t>
   </si>
 </sst>
 </file>
@@ -397,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1402FBDA-3F51-44B3-94AC-3B36C2535FE0}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -408,26 +447,169 @@
     <col min="1" max="1" width="2.85546875" customWidth="1"/>
     <col min="2" max="2" width="5.7109375" customWidth="1"/>
     <col min="3" max="3" width="2.5703125" customWidth="1"/>
+    <col min="8" max="8" width="3.42578125" customWidth="1"/>
+    <col min="9" max="9" width="3.7109375" customWidth="1"/>
+    <col min="10" max="11" width="3" customWidth="1"/>
+    <col min="12" max="12" width="3.140625" customWidth="1"/>
+    <col min="13" max="13" width="3.42578125" customWidth="1"/>
+    <col min="14" max="15" width="3.28515625" customWidth="1"/>
+    <col min="16" max="16" width="2.5703125" customWidth="1"/>
+    <col min="17" max="17" width="2.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H7" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J14" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="K17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="K18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="K19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="L20" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="M21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="M22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="M23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="N24" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="O25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="O26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="O27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="O28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="P29" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="Q30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="Q31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="Q32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q33" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/_R.xlsx
+++ b/_R.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\RProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB3C0228-FB0D-4203-93C5-A7464217E511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65739C3C-9615-42C7-B5EB-FABF7A678F62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{88B916E1-658B-4CD8-9C7E-BE8A8C7A43A4}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
   <si>
     <t>Apresentação</t>
   </si>
@@ -76,6 +76,18 @@
   </si>
   <si>
     <t>Desfazendo</t>
+  </si>
+  <si>
+    <t>Variáveis</t>
+  </si>
+  <si>
+    <t>Constantes</t>
+  </si>
+  <si>
+    <t>Usuais</t>
+  </si>
+  <si>
+    <t>Especiais</t>
   </si>
 </sst>
 </file>
@@ -436,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1402FBDA-3F51-44B3-94AC-3B36C2535FE0}">
-  <dimension ref="A1:Q33"/>
+  <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+      <selection activeCell="O40" sqref="O40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -447,168 +459,181 @@
     <col min="1" max="1" width="2.85546875" customWidth="1"/>
     <col min="2" max="2" width="5.7109375" customWidth="1"/>
     <col min="3" max="3" width="2.5703125" customWidth="1"/>
-    <col min="8" max="8" width="3.42578125" customWidth="1"/>
-    <col min="9" max="9" width="3.7109375" customWidth="1"/>
-    <col min="10" max="11" width="3" customWidth="1"/>
-    <col min="12" max="12" width="3.140625" customWidth="1"/>
-    <col min="13" max="13" width="3.42578125" customWidth="1"/>
-    <col min="14" max="15" width="3.28515625" customWidth="1"/>
-    <col min="16" max="16" width="2.5703125" customWidth="1"/>
-    <col min="17" max="17" width="2.85546875" customWidth="1"/>
+    <col min="8" max="17" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H7" s="1" t="s">
+    <row r="19" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H19" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H20" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="I21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="I22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H32" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I8" t="s">
+    <row r="33" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I33" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I9" t="s">
+    <row r="34" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I34" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I10" t="s">
+    <row r="35" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I35" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I11" t="s">
+    <row r="36" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I36" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I12" t="s">
+    <row r="37" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I37" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I13" t="s">
+    <row r="38" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I38" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J14" s="1" t="s">
+    <row r="39" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="J39" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K15" t="s">
+    <row r="40" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="K40" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K16" t="s">
+    <row r="41" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="K41" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="11:17" x14ac:dyDescent="0.25">
-      <c r="K17" t="s">
+    <row r="42" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="K42" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="11:17" x14ac:dyDescent="0.25">
-      <c r="K18" t="s">
+    <row r="43" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="K43" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="11:17" x14ac:dyDescent="0.25">
-      <c r="K19" t="s">
+    <row r="44" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="K44" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="11:17" x14ac:dyDescent="0.25">
-      <c r="L20" s="1" t="s">
+    <row r="45" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="L45" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="11:17" x14ac:dyDescent="0.25">
-      <c r="M21" t="s">
+    <row r="46" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="M46" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="11:17" x14ac:dyDescent="0.25">
-      <c r="M22" t="s">
+    <row r="47" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="M47" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="11:17" x14ac:dyDescent="0.25">
-      <c r="M23" t="s">
+    <row r="48" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="M48" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="11:17" x14ac:dyDescent="0.25">
-      <c r="N24" s="1" t="s">
+    <row r="49" spans="14:17" x14ac:dyDescent="0.25">
+      <c r="N49" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="11:17" x14ac:dyDescent="0.25">
-      <c r="O25" t="s">
+    <row r="50" spans="14:17" x14ac:dyDescent="0.25">
+      <c r="O50" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="11:17" x14ac:dyDescent="0.25">
-      <c r="O26" t="s">
+    <row r="51" spans="14:17" x14ac:dyDescent="0.25">
+      <c r="O51" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="11:17" x14ac:dyDescent="0.25">
-      <c r="O27" t="s">
+    <row r="52" spans="14:17" x14ac:dyDescent="0.25">
+      <c r="O52" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="11:17" x14ac:dyDescent="0.25">
-      <c r="O28" t="s">
+    <row r="53" spans="14:17" x14ac:dyDescent="0.25">
+      <c r="O53" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="11:17" x14ac:dyDescent="0.25">
-      <c r="P29" s="1" t="s">
+    <row r="54" spans="14:17" x14ac:dyDescent="0.25">
+      <c r="P54" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="11:17" x14ac:dyDescent="0.25">
-      <c r="Q30" t="s">
+    <row r="55" spans="14:17" x14ac:dyDescent="0.25">
+      <c r="Q55" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="11:17" x14ac:dyDescent="0.25">
-      <c r="Q31" t="s">
+    <row r="56" spans="14:17" x14ac:dyDescent="0.25">
+      <c r="Q56" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="11:17" x14ac:dyDescent="0.25">
-      <c r="Q32" t="s">
+    <row r="57" spans="14:17" x14ac:dyDescent="0.25">
+      <c r="Q57" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q33" t="s">
+    <row r="58" spans="14:17" x14ac:dyDescent="0.25">
+      <c r="Q58" t="s">
         <v>16</v>
       </c>
     </row>

--- a/_R.xlsx
+++ b/_R.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\RProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65739C3C-9615-42C7-B5EB-FABF7A678F62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22D25E6C-E6B3-4EF4-9935-616406F0ED3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{88B916E1-658B-4CD8-9C7E-BE8A8C7A43A4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{88B916E1-658B-4CD8-9C7E-BE8A8C7A43A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>

--- a/_R.xlsx
+++ b/_R.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\RProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22D25E6C-E6B3-4EF4-9935-616406F0ED3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D438FC0B-45BD-4297-BC73-B9177DD926F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{88B916E1-658B-4CD8-9C7E-BE8A8C7A43A4}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="0" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,85 +25,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
-  <si>
-    <t>Apresentação</t>
-  </si>
-  <si>
-    <t>História do R</t>
-  </si>
-  <si>
-    <t>Vantagens do R</t>
-  </si>
-  <si>
-    <t>Boas práticas de Programação</t>
-  </si>
-  <si>
-    <t>Vetores</t>
-  </si>
-  <si>
-    <t>Criação</t>
-  </si>
-  <si>
-    <t>Nomeação</t>
-  </si>
-  <si>
-    <t>Indexação</t>
-  </si>
-  <si>
-    <t>Coerção</t>
-  </si>
-  <si>
-    <t>Ordenação</t>
-  </si>
-  <si>
-    <t>Operações</t>
-  </si>
-  <si>
-    <t>Matrizes</t>
-  </si>
-  <si>
-    <t>Arrays</t>
-  </si>
-  <si>
-    <t>Dataframes</t>
-  </si>
-  <si>
-    <t>Adicionais</t>
-  </si>
-  <si>
-    <t>Listas</t>
-  </si>
-  <si>
-    <t>Desfazendo</t>
-  </si>
-  <si>
-    <t>Variáveis</t>
-  </si>
-  <si>
-    <t>Constantes</t>
-  </si>
-  <si>
-    <t>Usuais</t>
-  </si>
-  <si>
-    <t>Especiais</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -131,9 +59,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -448,196 +375,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1402FBDA-3F51-44B3-94AC-3B36C2535FE0}">
-  <dimension ref="A1:Q58"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O40" sqref="O40"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" customWidth="1"/>
-    <col min="3" max="3" width="2.5703125" customWidth="1"/>
-    <col min="8" max="17" width="2.7109375" customWidth="1"/>
+    <col min="1" max="100" width="2.7109375" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H19" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H20" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="I21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="I22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H32" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I33" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I34" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I35" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I36" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I37" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I38" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="J39" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="40" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="K40" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="K41" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="K42" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="K43" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="K44" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="L45" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="M46" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="M47" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="M48" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="N49" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="50" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="O50" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="51" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="O51" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="O52" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="O53" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="54" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="P54" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="55" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="Q55" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="56" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="Q56" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="57" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="Q57" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="58" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="Q58" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/_R.xlsx
+++ b/_R.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\RProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D438FC0B-45BD-4297-BC73-B9177DD926F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A08865F-7AB5-419D-A686-45034CD7D6ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{88B916E1-658B-4CD8-9C7E-BE8A8C7A43A4}"/>
   </bookViews>
@@ -25,15 +25,123 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+  <si>
+    <t>Funções_matemáticas</t>
+  </si>
+  <si>
+    <t>Operadores lógicos</t>
+  </si>
+  <si>
+    <t>Tipos_de_dados_tipos_básicos</t>
+  </si>
+  <si>
+    <t>Ajuda_exemplos</t>
+  </si>
+  <si>
+    <t>Ajuda_find_e_apropos</t>
+  </si>
+  <si>
+    <t>Ajuda_help_search</t>
+  </si>
+  <si>
+    <t>Diretório_caminhos</t>
+  </si>
+  <si>
+    <t>Ajuda_help</t>
+  </si>
+  <si>
+    <t>Pacotes_carregamento_library</t>
+  </si>
+  <si>
+    <t>Ajuda_site</t>
+  </si>
+  <si>
+    <t>Ajuda_operadores</t>
+  </si>
+  <si>
+    <t>Apresentação_história_do_R</t>
+  </si>
+  <si>
+    <t>Apresentação_vantagens do R</t>
+  </si>
+  <si>
+    <t>Arrays_criação</t>
+  </si>
+  <si>
+    <t>Arrays_nomeação</t>
+  </si>
+  <si>
+    <t>Arrays_indexação</t>
+  </si>
+  <si>
+    <t>Matrizes</t>
+  </si>
+  <si>
+    <t>Vetores</t>
+  </si>
+  <si>
+    <t>Listas</t>
+  </si>
+  <si>
+    <t>Avisos</t>
+  </si>
+  <si>
+    <t>Boas_práticas_de_programação</t>
+  </si>
+  <si>
+    <t>Constantes_usuais</t>
+  </si>
+  <si>
+    <t>Constantes_especiais</t>
+  </si>
+  <si>
+    <t>Sequências</t>
+  </si>
+  <si>
+    <t>Variáveis</t>
+  </si>
+  <si>
+    <t>Tipos_de_dados</t>
+  </si>
+  <si>
+    <t>Operadores aritméticos</t>
+  </si>
+  <si>
+    <t>Dataframes_criação</t>
+  </si>
+  <si>
+    <t>Dataframes_nomeação</t>
+  </si>
+  <si>
+    <t>Dataframes_indexação</t>
+  </si>
+  <si>
+    <t>Dataframes_informações_adicionais</t>
+  </si>
+  <si>
+    <t>Diretório_subdiretórios</t>
+  </si>
+  <si>
+    <t>Diretório_arquivos</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -59,8 +167,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -375,15 +484,214 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1402FBDA-3F51-44B3-94AC-3B36C2535FE0}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AD61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="100" width="2.7109375" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C12" s="1"/>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C14" s="1"/>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C16" s="1"/>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C18" s="1"/>
+      <c r="D18" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="F19" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="F21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="H22" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="H23" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="J25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="J27" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="10:28" x14ac:dyDescent="0.25">
+      <c r="J33" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="10:28" x14ac:dyDescent="0.25">
+      <c r="Q34" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="10:28" x14ac:dyDescent="0.25">
+      <c r="Q35" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="10:28" x14ac:dyDescent="0.25">
+      <c r="Q36" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="10:28" x14ac:dyDescent="0.25">
+      <c r="Q37" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="10:28" x14ac:dyDescent="0.25">
+      <c r="Q38" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="10:28" x14ac:dyDescent="0.25">
+      <c r="Q39" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="10:28" x14ac:dyDescent="0.25">
+      <c r="Z42" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="10:28" x14ac:dyDescent="0.25">
+      <c r="Z43" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="10:28" x14ac:dyDescent="0.25">
+      <c r="AB45" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="10:28" x14ac:dyDescent="0.25">
+      <c r="AB46" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="10:28" x14ac:dyDescent="0.25">
+      <c r="AB47" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD49" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD50" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="51" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD51" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="52" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD52" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD61" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/_R.xlsx
+++ b/_R.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\RProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A08865F-7AB5-419D-A686-45034CD7D6ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3670D06C-92C5-43EB-8D20-270787D44AB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{88B916E1-658B-4CD8-9C7E-BE8A8C7A43A4}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>Funções_matemáticas</t>
   </si>
@@ -124,6 +124,63 @@
   </si>
   <si>
     <t>Diretório_arquivos</t>
+  </si>
+  <si>
+    <t>Entrada_de_dados_readline()</t>
+  </si>
+  <si>
+    <t>Entrada_de_dados_scan()</t>
+  </si>
+  <si>
+    <t>Estruturas_condicionais_armazenamento_valores</t>
+  </si>
+  <si>
+    <t>Estruturas_condicionais_if_else</t>
+  </si>
+  <si>
+    <t>Estruturas_condicionais_else_if</t>
+  </si>
+  <si>
+    <t>Estruturas_condicionais_ifelse</t>
+  </si>
+  <si>
+    <t>Estruturas_condicionais_switch</t>
+  </si>
+  <si>
+    <t>Estrutura_de_repetição_for</t>
+  </si>
+  <si>
+    <t>Estrutura_de_repetição_while</t>
+  </si>
+  <si>
+    <t>Estrutura_de_repetição_repeat</t>
+  </si>
+  <si>
+    <t>Exportação_de_arquivos</t>
+  </si>
+  <si>
+    <t>Exportação_de_arquivos_script</t>
+  </si>
+  <si>
+    <t>Família_Apply_apply</t>
+  </si>
+  <si>
+    <t>Família_Apply_lapply</t>
+  </si>
+  <si>
+    <t>Família_Apply_sapply</t>
+  </si>
+  <si>
+    <t>Família_Apply_mapply</t>
+  </si>
+  <si>
+    <t>Família_Apply_tapply</t>
+  </si>
+  <si>
+    <t>Família_Apply_vapply</t>
+  </si>
+  <si>
+    <t>Família_Apply_rapply</t>
   </si>
 </sst>
 </file>
@@ -484,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1402FBDA-3F51-44B3-94AC-3B36C2535FE0}">
-  <dimension ref="A1:AD61"/>
+  <dimension ref="A1:AS52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="AU53" sqref="AU53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -495,200 +552,287 @@
     <col min="1" max="100" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C4" s="1"/>
       <c r="E4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C5" s="1"/>
       <c r="E5" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C6" s="1"/>
       <c r="E6" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="K9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="M10" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="M11" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C12" s="1"/>
-      <c r="D12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="O12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="Q13" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C14" s="1"/>
-      <c r="D14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="S14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="U15" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C16" s="1"/>
-      <c r="D16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="U16" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="W17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C18" s="1"/>
-      <c r="D18" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="F19" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="F21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="H22" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="H23" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="J25" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="J27" t="s">
+      <c r="Y18" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="10:28" x14ac:dyDescent="0.25">
-      <c r="J33" t="s">
+    <row r="19" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C19" s="1"/>
+      <c r="AA19" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="10:28" x14ac:dyDescent="0.25">
-      <c r="Q34" s="1" t="s">
+    <row r="20" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C20" s="1"/>
+      <c r="AC20" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="10:28" x14ac:dyDescent="0.25">
-      <c r="Q35" s="1" t="s">
+    <row r="21" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C21" s="1"/>
+      <c r="AC21" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="10:28" x14ac:dyDescent="0.25">
-      <c r="Q36" s="1" t="s">
+    <row r="22" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C22" s="1"/>
+      <c r="AC22" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="10:28" x14ac:dyDescent="0.25">
-      <c r="Q37" s="1" t="s">
+    <row r="23" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C23" s="1"/>
+      <c r="AC23" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="10:28" x14ac:dyDescent="0.25">
-      <c r="Q38" s="1" t="s">
+    <row r="24" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C24" s="1"/>
+      <c r="AC24" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="10:28" x14ac:dyDescent="0.25">
-      <c r="Q39" s="1" t="s">
+    <row r="25" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C25" s="1"/>
+      <c r="AC25" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="10:28" x14ac:dyDescent="0.25">
-      <c r="Z42" t="s">
+    <row r="26" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C26" s="1"/>
+      <c r="AE26" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="10:28" x14ac:dyDescent="0.25">
-      <c r="Z43" t="s">
+    <row r="27" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="AE27" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="10:28" x14ac:dyDescent="0.25">
-      <c r="AB45" s="1" t="s">
+    <row r="28" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="AG28" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="10:28" x14ac:dyDescent="0.25">
-      <c r="AB46" s="1" t="s">
+    <row r="29" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="AG29" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="10:28" x14ac:dyDescent="0.25">
-      <c r="AB47" s="1" t="s">
+    <row r="30" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="AG30" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="30:30" x14ac:dyDescent="0.25">
-      <c r="AD49" s="1" t="s">
+    <row r="31" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="AI31" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="50" spans="30:30" x14ac:dyDescent="0.25">
-      <c r="AD50" s="1" t="s">
+    <row r="32" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="AI32" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="30:30" x14ac:dyDescent="0.25">
-      <c r="AD51" s="1" t="s">
+    <row r="33" spans="35:45" x14ac:dyDescent="0.25">
+      <c r="AI33" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="52" spans="30:30" x14ac:dyDescent="0.25">
-      <c r="AD52" s="1" t="s">
+    <row r="34" spans="35:45" x14ac:dyDescent="0.25">
+      <c r="AI34" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="61" spans="30:30" x14ac:dyDescent="0.25">
-      <c r="AD61" t="s">
+    <row r="35" spans="35:45" x14ac:dyDescent="0.25">
+      <c r="AK35" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="35:45" x14ac:dyDescent="0.25">
+      <c r="AM36" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="35:45" x14ac:dyDescent="0.25">
+      <c r="AM37" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="35:45" x14ac:dyDescent="0.25">
+      <c r="AM38" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="35:45" x14ac:dyDescent="0.25">
+      <c r="AM39" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="35:45" x14ac:dyDescent="0.25">
+      <c r="AM40" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="35:45" x14ac:dyDescent="0.25">
+      <c r="AO41" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="35:45" x14ac:dyDescent="0.25">
+      <c r="AO42" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="35:45" x14ac:dyDescent="0.25">
+      <c r="AO43" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="35:45" x14ac:dyDescent="0.25">
+      <c r="AQ44" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="35:45" x14ac:dyDescent="0.25">
+      <c r="AQ45" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="35:45" x14ac:dyDescent="0.25">
+      <c r="AS46" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="35:45" x14ac:dyDescent="0.25">
+      <c r="AS47" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="35:45" x14ac:dyDescent="0.25">
+      <c r="AS48" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS49" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS50" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS51" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="45:45" x14ac:dyDescent="0.25">
+      <c r="AS52" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/_R.xlsx
+++ b/_R.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\RProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3670D06C-92C5-43EB-8D20-270787D44AB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E67B6D-AA4A-46C4-86E8-11574854EEF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{88B916E1-658B-4CD8-9C7E-BE8A8C7A43A4}"/>
   </bookViews>
@@ -543,7 +543,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1402FBDA-3F51-44B3-94AC-3B36C2535FE0}">
   <dimension ref="A1:AS52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
       <selection activeCell="AU53" sqref="AU53"/>
     </sheetView>
   </sheetViews>

--- a/_R.xlsx
+++ b/_R.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\RProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E67B6D-AA4A-46C4-86E8-11574854EEF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{690922C1-2B4E-4841-83A7-7D29DE8DC2F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{88B916E1-658B-4CD8-9C7E-BE8A8C7A43A4}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
   <si>
     <t>Funções_matemáticas</t>
   </si>
@@ -181,6 +181,30 @@
   </si>
   <si>
     <t>Família_Apply_rapply</t>
+  </si>
+  <si>
+    <t>Fatores_criação</t>
+  </si>
+  <si>
+    <t>Fatores_exibição</t>
+  </si>
+  <si>
+    <t>Fatores_indexação</t>
+  </si>
+  <si>
+    <t>Fatores_verificação_e_conversão</t>
+  </si>
+  <si>
+    <t>Funções_attach_e_detach</t>
+  </si>
+  <si>
+    <t>Funções_criação</t>
+  </si>
+  <si>
+    <t>Funções_parâmetros</t>
+  </si>
+  <si>
+    <t>Funções_escopo</t>
   </si>
 </sst>
 </file>
@@ -541,10 +565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1402FBDA-3F51-44B3-94AC-3B36C2535FE0}">
-  <dimension ref="A1:AS52"/>
+  <dimension ref="A1:BA61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="AU53" sqref="AU53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AR37" sqref="AR37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -645,193 +669,258 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C17" s="1"/>
       <c r="W17" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C18" s="1"/>
-      <c r="Y18" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="Y18" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C19" s="1"/>
       <c r="AA19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="C20" s="1"/>
+      <c r="AC20" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="3:35" x14ac:dyDescent="0.25">
-      <c r="C20" s="1"/>
-      <c r="AC20" s="1" t="s">
+    <row r="21" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="C21" s="1"/>
+      <c r="AE21" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="3:35" x14ac:dyDescent="0.25">
-      <c r="C21" s="1"/>
-      <c r="AC21" s="1" t="s">
+    <row r="22" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="C22" s="1"/>
+      <c r="AE22" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="3:35" x14ac:dyDescent="0.25">
-      <c r="C22" s="1"/>
-      <c r="AC22" s="1" t="s">
+    <row r="23" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="C23" s="1"/>
+      <c r="AE23" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="3:35" x14ac:dyDescent="0.25">
-      <c r="C23" s="1"/>
-      <c r="AC23" s="1" t="s">
+    <row r="24" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="C24" s="1"/>
+      <c r="AE24" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="3:35" x14ac:dyDescent="0.25">
-      <c r="C24" s="1"/>
-      <c r="AC24" s="1" t="s">
+    <row r="25" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="C25" s="1"/>
+      <c r="AE25" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="3:35" x14ac:dyDescent="0.25">
-      <c r="C25" s="1"/>
-      <c r="AC25" s="1" t="s">
+    <row r="26" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="C26" s="1"/>
+      <c r="AE26" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="3:35" x14ac:dyDescent="0.25">
-      <c r="C26" s="1"/>
-      <c r="AE26" t="s">
+    <row r="27" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="C27" s="1"/>
+      <c r="AG27" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="3:35" x14ac:dyDescent="0.25">
-      <c r="AE27" t="s">
+    <row r="28" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="AG28" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="3:35" x14ac:dyDescent="0.25">
-      <c r="AG28" s="1" t="s">
+    <row r="29" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="AI29" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="3:35" x14ac:dyDescent="0.25">
-      <c r="AG29" s="1" t="s">
+    <row r="30" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="AI30" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="3:35" x14ac:dyDescent="0.25">
-      <c r="AG30" s="1" t="s">
+    <row r="31" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="AI31" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="3:35" x14ac:dyDescent="0.25">
-      <c r="AI31" s="1" t="s">
+    <row r="32" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="AI32" s="1"/>
+      <c r="AK32" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="35:47" x14ac:dyDescent="0.25">
+      <c r="AI33" s="1"/>
+      <c r="AM33" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="35:47" x14ac:dyDescent="0.25">
+      <c r="AI34" s="1"/>
+      <c r="AM34" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="35:47" x14ac:dyDescent="0.25">
+      <c r="AI35" s="1"/>
+      <c r="AM35" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="35:47" x14ac:dyDescent="0.25">
+      <c r="AI36" s="1"/>
+      <c r="AM36" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="35:47" x14ac:dyDescent="0.25">
+      <c r="AI37" s="1"/>
+      <c r="AO37" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="3:35" x14ac:dyDescent="0.25">
-      <c r="AI32" s="1" t="s">
+    <row r="38" spans="35:47" x14ac:dyDescent="0.25">
+      <c r="AI38" s="1"/>
+      <c r="AO38" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="35:45" x14ac:dyDescent="0.25">
-      <c r="AI33" s="1" t="s">
+    <row r="39" spans="35:47" x14ac:dyDescent="0.25">
+      <c r="AI39" s="1"/>
+      <c r="AO39" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="35:45" x14ac:dyDescent="0.25">
-      <c r="AI34" s="1" t="s">
+    <row r="40" spans="35:47" x14ac:dyDescent="0.25">
+      <c r="AI40" s="1"/>
+      <c r="AO40" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="35:45" x14ac:dyDescent="0.25">
-      <c r="AK35" t="s">
+    <row r="41" spans="35:47" x14ac:dyDescent="0.25">
+      <c r="AI41" s="1"/>
+      <c r="AQ41" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="35:45" x14ac:dyDescent="0.25">
-      <c r="AM36" s="1" t="s">
+    <row r="42" spans="35:47" x14ac:dyDescent="0.25">
+      <c r="AS42" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="35:45" x14ac:dyDescent="0.25">
-      <c r="AM37" s="1" t="s">
+    <row r="43" spans="35:47" x14ac:dyDescent="0.25">
+      <c r="AS43" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="35:45" x14ac:dyDescent="0.25">
-      <c r="AM38" s="1" t="s">
+    <row r="44" spans="35:47" x14ac:dyDescent="0.25">
+      <c r="AS44" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="35:45" x14ac:dyDescent="0.25">
-      <c r="AM39" s="1" t="s">
+    <row r="45" spans="35:47" x14ac:dyDescent="0.25">
+      <c r="AS45" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="35:45" x14ac:dyDescent="0.25">
-      <c r="AM40" s="1" t="s">
+    <row r="46" spans="35:47" x14ac:dyDescent="0.25">
+      <c r="AS46" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="35:45" x14ac:dyDescent="0.25">
-      <c r="AO41" s="1" t="s">
+    <row r="47" spans="35:47" x14ac:dyDescent="0.25">
+      <c r="AU47" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="35:45" x14ac:dyDescent="0.25">
-      <c r="AO42" s="1" t="s">
+    <row r="48" spans="35:47" x14ac:dyDescent="0.25">
+      <c r="AU48" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="35:45" x14ac:dyDescent="0.25">
-      <c r="AO43" s="1" t="s">
+    <row r="49" spans="47:53" x14ac:dyDescent="0.25">
+      <c r="AU49" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="35:45" x14ac:dyDescent="0.25">
-      <c r="AQ44" s="1" t="s">
+    <row r="50" spans="47:53" x14ac:dyDescent="0.25">
+      <c r="AU50" s="1"/>
+      <c r="AW50" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="51" spans="47:53" x14ac:dyDescent="0.25">
+      <c r="AU51" s="1"/>
+      <c r="AW51" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" spans="47:53" x14ac:dyDescent="0.25">
+      <c r="AU52" s="1"/>
+      <c r="AW52" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="53" spans="47:53" x14ac:dyDescent="0.25">
+      <c r="AU53" s="1"/>
+      <c r="AY53" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="35:45" x14ac:dyDescent="0.25">
-      <c r="AQ45" s="1" t="s">
+    <row r="54" spans="47:53" x14ac:dyDescent="0.25">
+      <c r="AU54" s="1"/>
+      <c r="AY54" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="35:45" x14ac:dyDescent="0.25">
-      <c r="AS46" s="1" t="s">
+    <row r="55" spans="47:53" x14ac:dyDescent="0.25">
+      <c r="AU55" s="1"/>
+      <c r="BA55" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="35:45" x14ac:dyDescent="0.25">
-      <c r="AS47" s="1" t="s">
+    <row r="56" spans="47:53" x14ac:dyDescent="0.25">
+      <c r="AU56" s="1"/>
+      <c r="BA56" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="35:45" x14ac:dyDescent="0.25">
-      <c r="AS48" s="1" t="s">
+    <row r="57" spans="47:53" x14ac:dyDescent="0.25">
+      <c r="AU57" s="1"/>
+      <c r="BA57" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="45:45" x14ac:dyDescent="0.25">
-      <c r="AS49" s="1" t="s">
+    <row r="58" spans="47:53" x14ac:dyDescent="0.25">
+      <c r="AU58" s="1"/>
+      <c r="BA58" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="45:45" x14ac:dyDescent="0.25">
-      <c r="AS50" s="1" t="s">
+    <row r="59" spans="47:53" x14ac:dyDescent="0.25">
+      <c r="BA59" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="45:45" x14ac:dyDescent="0.25">
-      <c r="AS51" s="1" t="s">
+    <row r="60" spans="47:53" x14ac:dyDescent="0.25">
+      <c r="BA60" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="45:45" x14ac:dyDescent="0.25">
-      <c r="AS52" s="1" t="s">
+    <row r="61" spans="47:53" x14ac:dyDescent="0.25">
+      <c r="BA61" s="1" t="s">
         <v>51</v>
       </c>
     </row>

--- a/_R.xlsx
+++ b/_R.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\RProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{690922C1-2B4E-4841-83A7-7D29DE8DC2F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41158C9B-5C5D-447F-B70D-87617F93AC25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{88B916E1-658B-4CD8-9C7E-BE8A8C7A43A4}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="72">
   <si>
     <t>Funções_matemáticas</t>
   </si>
@@ -75,15 +75,6 @@
     <t>Arrays_indexação</t>
   </si>
   <si>
-    <t>Matrizes</t>
-  </si>
-  <si>
-    <t>Vetores</t>
-  </si>
-  <si>
-    <t>Listas</t>
-  </si>
-  <si>
     <t>Avisos</t>
   </si>
   <si>
@@ -205,6 +196,51 @@
   </si>
   <si>
     <t>Funções_escopo</t>
+  </si>
+  <si>
+    <t>Listas_criação</t>
+  </si>
+  <si>
+    <t>Listas_nomeando</t>
+  </si>
+  <si>
+    <t>Listas_indexação</t>
+  </si>
+  <si>
+    <t>Listas_desfazendo</t>
+  </si>
+  <si>
+    <t>Vetores_criação</t>
+  </si>
+  <si>
+    <t>Vetores_nomeando</t>
+  </si>
+  <si>
+    <t>Vetores_indexação</t>
+  </si>
+  <si>
+    <t>Vetores_operações</t>
+  </si>
+  <si>
+    <t>Vetores_ordenação</t>
+  </si>
+  <si>
+    <t>Vetores_coerção</t>
+  </si>
+  <si>
+    <t>Matrizes_criação</t>
+  </si>
+  <si>
+    <t>Matrizes_nomeação</t>
+  </si>
+  <si>
+    <t>Matrizes_indexação</t>
+  </si>
+  <si>
+    <t>Matrizes_operações</t>
+  </si>
+  <si>
+    <t>Matrizes_coerção</t>
   </si>
 </sst>
 </file>
@@ -565,10 +601,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1402FBDA-3F51-44B3-94AC-3B36C2535FE0}">
-  <dimension ref="A1:BA61"/>
+  <dimension ref="A1:BC73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AR37" sqref="AR37"/>
+      <selection activeCell="AK38" sqref="AK38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -588,7 +624,7 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
@@ -600,43 +636,43 @@
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C7" s="1"/>
       <c r="G7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C8" s="1"/>
       <c r="I8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C9" s="1"/>
       <c r="K9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C10" s="1"/>
       <c r="M10" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C11" s="1"/>
       <c r="M11" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
@@ -648,280 +684,380 @@
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C13" s="1"/>
       <c r="Q13" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C14" s="1"/>
       <c r="S14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C15" s="1"/>
       <c r="U15" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C16" s="1"/>
       <c r="U16" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="3:37" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C17" s="1"/>
       <c r="W17" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C18" s="1"/>
       <c r="Y18" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="3:37" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C19" s="1"/>
       <c r="AA19" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C20" s="1"/>
       <c r="AC20" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C21" s="1"/>
       <c r="AE21" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C22" s="1"/>
       <c r="AE22" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C23" s="1"/>
       <c r="AE23" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C24" s="1"/>
       <c r="AE24" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C25" s="1"/>
       <c r="AE25" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C26" s="1"/>
       <c r="AE26" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C27" s="1"/>
-      <c r="AG27" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="AG28" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="AI29" s="1" t="s">
+      <c r="AE27" s="1"/>
+      <c r="AG27" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C28" s="1"/>
+      <c r="AE28" s="1"/>
+      <c r="AG28" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C29" s="1"/>
+      <c r="AE29" s="1"/>
+      <c r="AG29" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C30" s="1"/>
+      <c r="AE30" s="1"/>
+      <c r="AG30" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C31" s="1"/>
+      <c r="AE31" s="1"/>
+      <c r="AG31" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C32" s="1"/>
+      <c r="AE32" s="1"/>
+      <c r="AG32" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="3:43" x14ac:dyDescent="0.25">
+      <c r="C33" s="1"/>
+      <c r="AE33" s="1"/>
+      <c r="AG33" s="1"/>
+      <c r="AI33" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="3:43" x14ac:dyDescent="0.25">
+      <c r="C34" s="1"/>
+      <c r="AE34" s="1"/>
+      <c r="AG34" s="1"/>
+      <c r="AI34" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="3:43" x14ac:dyDescent="0.25">
+      <c r="C35" s="1"/>
+      <c r="AE35" s="1"/>
+      <c r="AG35" s="1"/>
+      <c r="AI35" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="3:43" x14ac:dyDescent="0.25">
+      <c r="C36" s="1"/>
+      <c r="AE36" s="1"/>
+      <c r="AG36" s="1"/>
+      <c r="AI36" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="3:43" x14ac:dyDescent="0.25">
+      <c r="C37" s="1"/>
+      <c r="AE37" s="1"/>
+      <c r="AG37" s="1"/>
+      <c r="AI37" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="3:43" x14ac:dyDescent="0.25">
+      <c r="C38" s="1"/>
+      <c r="AE38" s="1"/>
+      <c r="AK38" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="AI30" s="1" t="s">
+    <row r="39" spans="3:43" x14ac:dyDescent="0.25">
+      <c r="C39" s="1"/>
+      <c r="AE39" s="1"/>
+      <c r="AK39" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="AI31" s="1" t="s">
+    <row r="40" spans="3:43" x14ac:dyDescent="0.25">
+      <c r="C40" s="1"/>
+      <c r="AE40" s="1"/>
+      <c r="AK40" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="AI32" s="1"/>
-      <c r="AK32" s="1" t="s">
+    <row r="41" spans="3:43" x14ac:dyDescent="0.25">
+      <c r="C41" s="1"/>
+      <c r="AK41" s="1"/>
+      <c r="AM41" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="35:47" x14ac:dyDescent="0.25">
-      <c r="AI33" s="1"/>
-      <c r="AM33" s="1" t="s">
+    <row r="42" spans="3:43" x14ac:dyDescent="0.25">
+      <c r="AK42" s="1"/>
+      <c r="AO42" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="3:43" x14ac:dyDescent="0.25">
+      <c r="AK43" s="1"/>
+      <c r="AO43" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="3:43" x14ac:dyDescent="0.25">
+      <c r="AK44" s="1"/>
+      <c r="AO44" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" spans="3:43" x14ac:dyDescent="0.25">
+      <c r="AK45" s="1"/>
+      <c r="AO45" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="35:47" x14ac:dyDescent="0.25">
-      <c r="AI34" s="1"/>
-      <c r="AM34" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="35" spans="35:47" x14ac:dyDescent="0.25">
-      <c r="AI35" s="1"/>
-      <c r="AM35" s="1" t="s">
+    <row r="46" spans="3:43" x14ac:dyDescent="0.25">
+      <c r="AK46" s="1"/>
+      <c r="AQ46" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="3:43" x14ac:dyDescent="0.25">
+      <c r="AK47" s="1"/>
+      <c r="AQ47" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="3:43" x14ac:dyDescent="0.25">
+      <c r="AK48" s="1"/>
+      <c r="AQ48" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="49" spans="37:51" x14ac:dyDescent="0.25">
+      <c r="AK49" s="1"/>
+      <c r="AQ49" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" spans="37:51" x14ac:dyDescent="0.25">
+      <c r="AK50" s="1"/>
+      <c r="AQ50" s="1"/>
+      <c r="AS50" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="51" spans="37:51" x14ac:dyDescent="0.25">
+      <c r="AK51" s="1"/>
+      <c r="AQ51" s="1"/>
+      <c r="AS51" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" spans="37:51" x14ac:dyDescent="0.25">
+      <c r="AK52" s="1"/>
+      <c r="AQ52" s="1"/>
+      <c r="AS52" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="53" spans="37:51" x14ac:dyDescent="0.25">
+      <c r="AK53" s="1"/>
+      <c r="AQ53" s="1"/>
+      <c r="AS53" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" spans="37:51" x14ac:dyDescent="0.25">
+      <c r="AU54" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="55" spans="37:51" x14ac:dyDescent="0.25">
+      <c r="AU55" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="56" spans="37:51" x14ac:dyDescent="0.25">
+      <c r="AU56" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="57" spans="37:51" x14ac:dyDescent="0.25">
+      <c r="AU57" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="58" spans="37:51" x14ac:dyDescent="0.25">
+      <c r="AU58" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="59" spans="37:51" x14ac:dyDescent="0.25">
+      <c r="AW59" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="60" spans="37:51" x14ac:dyDescent="0.25">
+      <c r="AW60" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="61" spans="37:51" x14ac:dyDescent="0.25">
+      <c r="AW61" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="62" spans="37:51" x14ac:dyDescent="0.25">
+      <c r="AW62" s="1"/>
+      <c r="AY62" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="35:47" x14ac:dyDescent="0.25">
-      <c r="AI36" s="1"/>
-      <c r="AM36" s="1" t="s">
+    <row r="63" spans="37:51" x14ac:dyDescent="0.25">
+      <c r="AW63" s="1"/>
+      <c r="AY63" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="35:47" x14ac:dyDescent="0.25">
-      <c r="AI37" s="1"/>
-      <c r="AO37" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="38" spans="35:47" x14ac:dyDescent="0.25">
-      <c r="AI38" s="1"/>
-      <c r="AO38" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="39" spans="35:47" x14ac:dyDescent="0.25">
-      <c r="AI39" s="1"/>
-      <c r="AO39" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="40" spans="35:47" x14ac:dyDescent="0.25">
-      <c r="AI40" s="1"/>
-      <c r="AO40" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="41" spans="35:47" x14ac:dyDescent="0.25">
-      <c r="AI41" s="1"/>
-      <c r="AQ41" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="42" spans="35:47" x14ac:dyDescent="0.25">
-      <c r="AS42" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="43" spans="35:47" x14ac:dyDescent="0.25">
-      <c r="AS43" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="44" spans="35:47" x14ac:dyDescent="0.25">
-      <c r="AS44" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="45" spans="35:47" x14ac:dyDescent="0.25">
-      <c r="AS45" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="46" spans="35:47" x14ac:dyDescent="0.25">
-      <c r="AS46" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="47" spans="35:47" x14ac:dyDescent="0.25">
-      <c r="AU47" s="1" t="s">
+    <row r="64" spans="37:51" x14ac:dyDescent="0.25">
+      <c r="AW64" s="1"/>
+      <c r="AY64" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="65" spans="49:55" x14ac:dyDescent="0.25">
+      <c r="AW65" s="1"/>
+      <c r="BA65" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="48" spans="35:47" x14ac:dyDescent="0.25">
-      <c r="AU48" s="1" t="s">
+    <row r="66" spans="49:55" x14ac:dyDescent="0.25">
+      <c r="AW66" s="1"/>
+      <c r="BA66" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="49" spans="47:53" x14ac:dyDescent="0.25">
-      <c r="AU49" s="1" t="s">
+    <row r="67" spans="49:55" x14ac:dyDescent="0.25">
+      <c r="AW67" s="1"/>
+      <c r="BC67" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="50" spans="47:53" x14ac:dyDescent="0.25">
-      <c r="AU50" s="1"/>
-      <c r="AW50" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="51" spans="47:53" x14ac:dyDescent="0.25">
-      <c r="AU51" s="1"/>
-      <c r="AW51" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="52" spans="47:53" x14ac:dyDescent="0.25">
-      <c r="AU52" s="1"/>
-      <c r="AW52" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="53" spans="47:53" x14ac:dyDescent="0.25">
-      <c r="AU53" s="1"/>
-      <c r="AY53" s="1" t="s">
+    <row r="68" spans="49:55" x14ac:dyDescent="0.25">
+      <c r="AW68" s="1"/>
+      <c r="BC68" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="54" spans="47:53" x14ac:dyDescent="0.25">
-      <c r="AU54" s="1"/>
-      <c r="AY54" s="1" t="s">
+    <row r="69" spans="49:55" x14ac:dyDescent="0.25">
+      <c r="AW69" s="1"/>
+      <c r="BC69" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="55" spans="47:53" x14ac:dyDescent="0.25">
-      <c r="AU55" s="1"/>
-      <c r="BA55" s="1" t="s">
+    <row r="70" spans="49:55" x14ac:dyDescent="0.25">
+      <c r="AW70" s="1"/>
+      <c r="BC70" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="56" spans="47:53" x14ac:dyDescent="0.25">
-      <c r="AU56" s="1"/>
-      <c r="BA56" s="1" t="s">
+    <row r="71" spans="49:55" x14ac:dyDescent="0.25">
+      <c r="BC71" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="57" spans="47:53" x14ac:dyDescent="0.25">
-      <c r="AU57" s="1"/>
-      <c r="BA57" s="1" t="s">
+    <row r="72" spans="49:55" x14ac:dyDescent="0.25">
+      <c r="BC72" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="58" spans="47:53" x14ac:dyDescent="0.25">
-      <c r="AU58" s="1"/>
-      <c r="BA58" s="1" t="s">
+    <row r="73" spans="49:55" x14ac:dyDescent="0.25">
+      <c r="BC73" s="1" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="59" spans="47:53" x14ac:dyDescent="0.25">
-      <c r="BA59" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="60" spans="47:53" x14ac:dyDescent="0.25">
-      <c r="BA60" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="61" spans="47:53" x14ac:dyDescent="0.25">
-      <c r="BA61" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/_R.xlsx
+++ b/_R.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\RProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41158C9B-5C5D-447F-B70D-87617F93AC25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F73FEC8-47D5-42CE-95AD-C6DA2E1BC0AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{88B916E1-658B-4CD8-9C7E-BE8A8C7A43A4}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="79">
   <si>
     <t>Funções_matemáticas</t>
   </si>
@@ -93,9 +93,6 @@
     <t>Variáveis</t>
   </si>
   <si>
-    <t>Tipos_de_dados</t>
-  </si>
-  <si>
     <t>Operadores aritméticos</t>
   </si>
   <si>
@@ -241,6 +238,30 @@
   </si>
   <si>
     <t>Matrizes_coerção</t>
+  </si>
+  <si>
+    <t>Operadores relacionais</t>
+  </si>
+  <si>
+    <t>Estrutura_dos_dados</t>
+  </si>
+  <si>
+    <t>Tipos_de_dados_básicos</t>
+  </si>
+  <si>
+    <t>Tipos_de_dados_verificação</t>
+  </si>
+  <si>
+    <t>Tipos_de_dados_conversão</t>
+  </si>
+  <si>
+    <t>Saída_de_dados</t>
+  </si>
+  <si>
+    <t>Saída_de_dados_formatação</t>
+  </si>
+  <si>
+    <t>Expressões</t>
   </si>
 </sst>
 </file>
@@ -601,463 +622,516 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1402FBDA-3F51-44B3-94AC-3B36C2535FE0}">
-  <dimension ref="A1:BC73"/>
+  <dimension ref="A1:BI81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AK38" sqref="AK38"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="100" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C4" s="1"/>
       <c r="E4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C6" s="1"/>
       <c r="E6" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C9" s="1"/>
+      <c r="G9" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C10" s="1"/>
+      <c r="I10" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C11" s="1"/>
+      <c r="K11" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C12" s="1"/>
+      <c r="K12" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C13" s="1"/>
+      <c r="K13" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="M14" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="O15" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="O16" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="Q17" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="C7" s="1"/>
-      <c r="G7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="C8" s="1"/>
-      <c r="I8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="C9" s="1"/>
-      <c r="K9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="C10" s="1"/>
-      <c r="M10" s="1" t="s">
+    <row r="18" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="Q18" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="C11" s="1"/>
-      <c r="M11" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="C12" s="1"/>
-      <c r="O12" t="s">
+    <row r="19" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="S19" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="C13" s="1"/>
-      <c r="Q13" s="1" t="s">
+    <row r="20" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C20" s="1"/>
+      <c r="U20" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="C14" s="1"/>
-      <c r="S14" t="s">
+    <row r="21" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C21" s="1"/>
+      <c r="W21" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="C15" s="1"/>
-      <c r="U15" s="1" t="s">
+    <row r="22" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C22" s="1"/>
+      <c r="Y22" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="C16" s="1"/>
-      <c r="U16" s="1" t="s">
+    <row r="23" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C23" s="1"/>
+      <c r="Y23" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="3:33" x14ac:dyDescent="0.25">
-      <c r="C17" s="1"/>
-      <c r="W17" t="s">
+    <row r="24" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C24" s="1"/>
+      <c r="AA24" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="3:33" x14ac:dyDescent="0.25">
-      <c r="C18" s="1"/>
-      <c r="Y18" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="3:33" x14ac:dyDescent="0.25">
-      <c r="C19" s="1"/>
-      <c r="AA19" t="s">
+    <row r="25" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C25" s="1"/>
+      <c r="AC25" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C26" s="1"/>
+      <c r="AE26" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="3:33" x14ac:dyDescent="0.25">
-      <c r="C20" s="1"/>
-      <c r="AC20" t="s">
+    <row r="27" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C27" s="1"/>
+      <c r="AG27" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="3:33" x14ac:dyDescent="0.25">
-      <c r="C21" s="1"/>
-      <c r="AE21" s="1" t="s">
+    <row r="28" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C28" s="1"/>
+      <c r="AI28" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="3:33" x14ac:dyDescent="0.25">
-      <c r="C22" s="1"/>
-      <c r="AE22" s="1" t="s">
+    <row r="29" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C29" s="1"/>
+      <c r="AI29" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="3:33" x14ac:dyDescent="0.25">
-      <c r="C23" s="1"/>
-      <c r="AE23" s="1" t="s">
+    <row r="30" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C30" s="1"/>
+      <c r="AI30" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="3:33" x14ac:dyDescent="0.25">
-      <c r="C24" s="1"/>
-      <c r="AE24" s="1" t="s">
+    <row r="31" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C31" s="1"/>
+      <c r="AI31" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="3:33" x14ac:dyDescent="0.25">
-      <c r="C25" s="1"/>
-      <c r="AE25" s="1" t="s">
+    <row r="32" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="C32" s="1"/>
+      <c r="AI32" s="1" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="3:33" x14ac:dyDescent="0.25">
-      <c r="C26" s="1"/>
-      <c r="AE26" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:33" x14ac:dyDescent="0.25">
-      <c r="C27" s="1"/>
-      <c r="AE27" s="1"/>
-      <c r="AG27" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="28" spans="3:33" x14ac:dyDescent="0.25">
-      <c r="C28" s="1"/>
-      <c r="AE28" s="1"/>
-      <c r="AG28" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="29" spans="3:33" x14ac:dyDescent="0.25">
-      <c r="C29" s="1"/>
-      <c r="AE29" s="1"/>
-      <c r="AG29" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="30" spans="3:33" x14ac:dyDescent="0.25">
-      <c r="C30" s="1"/>
-      <c r="AE30" s="1"/>
-      <c r="AG30" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="31" spans="3:33" x14ac:dyDescent="0.25">
-      <c r="C31" s="1"/>
-      <c r="AE31" s="1"/>
-      <c r="AG31" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="32" spans="3:33" x14ac:dyDescent="0.25">
-      <c r="C32" s="1"/>
-      <c r="AE32" s="1"/>
-      <c r="AG32" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="33" spans="3:43" x14ac:dyDescent="0.25">
       <c r="C33" s="1"/>
-      <c r="AE33" s="1"/>
-      <c r="AG33" s="1"/>
       <c r="AI33" s="1" t="s">
-        <v>67</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="3:43" x14ac:dyDescent="0.25">
       <c r="C34" s="1"/>
-      <c r="AE34" s="1"/>
-      <c r="AG34" s="1"/>
-      <c r="AI34" s="1" t="s">
-        <v>68</v>
+      <c r="AI34" s="1"/>
+      <c r="AK34" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="3:43" x14ac:dyDescent="0.25">
       <c r="C35" s="1"/>
-      <c r="AE35" s="1"/>
-      <c r="AG35" s="1"/>
-      <c r="AI35" s="1" t="s">
-        <v>69</v>
+      <c r="AI35" s="1"/>
+      <c r="AK35" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="3:43" x14ac:dyDescent="0.25">
       <c r="C36" s="1"/>
-      <c r="AE36" s="1"/>
-      <c r="AG36" s="1"/>
-      <c r="AI36" s="1" t="s">
-        <v>70</v>
+      <c r="AI36" s="1"/>
+      <c r="AK36" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="3:43" x14ac:dyDescent="0.25">
       <c r="C37" s="1"/>
-      <c r="AE37" s="1"/>
-      <c r="AG37" s="1"/>
-      <c r="AI37" s="1" t="s">
-        <v>71</v>
+      <c r="AI37" s="1"/>
+      <c r="AK37" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="3:43" x14ac:dyDescent="0.25">
       <c r="C38" s="1"/>
-      <c r="AE38" s="1"/>
+      <c r="AI38" s="1"/>
       <c r="AK38" s="1" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="3:43" x14ac:dyDescent="0.25">
       <c r="C39" s="1"/>
-      <c r="AE39" s="1"/>
+      <c r="AI39" s="1"/>
       <c r="AK39" s="1" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="3:43" x14ac:dyDescent="0.25">
       <c r="C40" s="1"/>
-      <c r="AE40" s="1"/>
-      <c r="AK40" s="1" t="s">
-        <v>15</v>
+      <c r="AI40" s="1"/>
+      <c r="AK40" s="1"/>
+      <c r="AM40" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="41" spans="3:43" x14ac:dyDescent="0.25">
       <c r="C41" s="1"/>
+      <c r="AI41" s="1"/>
       <c r="AK41" s="1"/>
       <c r="AM41" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="3:43" x14ac:dyDescent="0.25">
+      <c r="C42" s="1"/>
+      <c r="AI42" s="1"/>
+      <c r="AK42" s="1"/>
+      <c r="AM42" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="3:43" x14ac:dyDescent="0.25">
+      <c r="C43" s="1"/>
+      <c r="AI43" s="1"/>
+      <c r="AK43" s="1"/>
+      <c r="AM43" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="3:43" x14ac:dyDescent="0.25">
+      <c r="C44" s="1"/>
+      <c r="AI44" s="1"/>
+      <c r="AK44" s="1"/>
+      <c r="AM44" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="3:43" x14ac:dyDescent="0.25">
+      <c r="C45" s="1"/>
+      <c r="AI45" s="1"/>
+      <c r="AO45" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="3:43" x14ac:dyDescent="0.25">
+      <c r="C46" s="1"/>
+      <c r="AI46" s="1"/>
+      <c r="AO46" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="3:43" x14ac:dyDescent="0.25">
+      <c r="C47" s="1"/>
+      <c r="AI47" s="1"/>
+      <c r="AO47" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="3:43" x14ac:dyDescent="0.25">
+      <c r="AO48" s="1"/>
+      <c r="AQ48" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="3:43" x14ac:dyDescent="0.25">
-      <c r="AK42" s="1"/>
-      <c r="AO42" s="1" t="s">
+    <row r="49" spans="41:53" x14ac:dyDescent="0.25">
+      <c r="AO49" s="1"/>
+      <c r="AS49" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="41:53" x14ac:dyDescent="0.25">
+      <c r="AO50" s="1"/>
+      <c r="AS50" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="43" spans="3:43" x14ac:dyDescent="0.25">
-      <c r="AK43" s="1"/>
-      <c r="AO43" s="1" t="s">
+    <row r="51" spans="41:53" x14ac:dyDescent="0.25">
+      <c r="AO51" s="1"/>
+      <c r="AS51" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="3:43" x14ac:dyDescent="0.25">
-      <c r="AK44" s="1"/>
-      <c r="AO44" s="1" t="s">
+    <row r="52" spans="41:53" x14ac:dyDescent="0.25">
+      <c r="AO52" s="1"/>
+      <c r="AS52" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="45" spans="3:43" x14ac:dyDescent="0.25">
-      <c r="AK45" s="1"/>
-      <c r="AO45" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="46" spans="3:43" x14ac:dyDescent="0.25">
-      <c r="AK46" s="1"/>
-      <c r="AQ46" s="1" t="s">
+    <row r="53" spans="41:53" x14ac:dyDescent="0.25">
+      <c r="AO53" s="1"/>
+      <c r="AU53" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" spans="41:53" x14ac:dyDescent="0.25">
+      <c r="AO54" s="1"/>
+      <c r="AU54" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="47" spans="3:43" x14ac:dyDescent="0.25">
-      <c r="AK47" s="1"/>
-      <c r="AQ47" s="1" t="s">
+    <row r="55" spans="41:53" x14ac:dyDescent="0.25">
+      <c r="AO55" s="1"/>
+      <c r="AU55" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="3:43" x14ac:dyDescent="0.25">
-      <c r="AK48" s="1"/>
-      <c r="AQ48" s="1" t="s">
+    <row r="56" spans="41:53" x14ac:dyDescent="0.25">
+      <c r="AO56" s="1"/>
+      <c r="AU56" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="49" spans="37:51" x14ac:dyDescent="0.25">
-      <c r="AK49" s="1"/>
-      <c r="AQ49" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="50" spans="37:51" x14ac:dyDescent="0.25">
-      <c r="AK50" s="1"/>
-      <c r="AQ50" s="1"/>
-      <c r="AS50" s="1" t="s">
+    <row r="57" spans="41:53" x14ac:dyDescent="0.25">
+      <c r="AO57" s="1"/>
+      <c r="AU57" s="1"/>
+      <c r="AW57" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="41:53" x14ac:dyDescent="0.25">
+      <c r="AO58" s="1"/>
+      <c r="AU58" s="1"/>
+      <c r="AW58" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="51" spans="37:51" x14ac:dyDescent="0.25">
-      <c r="AK51" s="1"/>
-      <c r="AQ51" s="1"/>
-      <c r="AS51" s="1" t="s">
+    <row r="59" spans="41:53" x14ac:dyDescent="0.25">
+      <c r="AO59" s="1"/>
+      <c r="AU59" s="1"/>
+      <c r="AW59" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="52" spans="37:51" x14ac:dyDescent="0.25">
-      <c r="AK52" s="1"/>
-      <c r="AQ52" s="1"/>
-      <c r="AS52" s="1" t="s">
+    <row r="60" spans="41:53" x14ac:dyDescent="0.25">
+      <c r="AO60" s="1"/>
+      <c r="AU60" s="1"/>
+      <c r="AW60" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="53" spans="37:51" x14ac:dyDescent="0.25">
-      <c r="AK53" s="1"/>
-      <c r="AQ53" s="1"/>
-      <c r="AS53" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="54" spans="37:51" x14ac:dyDescent="0.25">
-      <c r="AU54" s="1" t="s">
+    <row r="61" spans="41:53" x14ac:dyDescent="0.25">
+      <c r="AO61" s="1"/>
+      <c r="AU61" s="1"/>
+      <c r="AW61" s="1"/>
+      <c r="AY61" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="62" spans="41:53" x14ac:dyDescent="0.25">
+      <c r="BA62" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="63" spans="41:53" x14ac:dyDescent="0.25">
+      <c r="BA63" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="55" spans="37:51" x14ac:dyDescent="0.25">
-      <c r="AU55" s="1" t="s">
+    <row r="64" spans="41:53" x14ac:dyDescent="0.25">
+      <c r="BA64" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="56" spans="37:51" x14ac:dyDescent="0.25">
-      <c r="AU56" s="1" t="s">
+    <row r="65" spans="53:61" x14ac:dyDescent="0.25">
+      <c r="BA65" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="57" spans="37:51" x14ac:dyDescent="0.25">
-      <c r="AU57" s="1" t="s">
+    <row r="66" spans="53:61" x14ac:dyDescent="0.25">
+      <c r="BA66" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="67" spans="53:61" x14ac:dyDescent="0.25">
+      <c r="BC67" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="58" spans="37:51" x14ac:dyDescent="0.25">
-      <c r="AU58" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="59" spans="37:51" x14ac:dyDescent="0.25">
-      <c r="AW59" s="1" t="s">
+    <row r="68" spans="53:61" x14ac:dyDescent="0.25">
+      <c r="BC68" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="60" spans="37:51" x14ac:dyDescent="0.25">
-      <c r="AW60" s="1" t="s">
+    <row r="69" spans="53:61" x14ac:dyDescent="0.25">
+      <c r="BC69" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="61" spans="37:51" x14ac:dyDescent="0.25">
-      <c r="AW61" s="1" t="s">
+    <row r="70" spans="53:61" x14ac:dyDescent="0.25">
+      <c r="BC70" s="1"/>
+      <c r="BE70" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="71" spans="53:61" x14ac:dyDescent="0.25">
+      <c r="BC71" s="1"/>
+      <c r="BE71" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="72" spans="53:61" x14ac:dyDescent="0.25">
+      <c r="BC72" s="1"/>
+      <c r="BE72" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="73" spans="53:61" x14ac:dyDescent="0.25">
+      <c r="BC73" s="1"/>
+      <c r="BG73" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="62" spans="37:51" x14ac:dyDescent="0.25">
-      <c r="AW62" s="1"/>
-      <c r="AY62" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="63" spans="37:51" x14ac:dyDescent="0.25">
-      <c r="AW63" s="1"/>
-      <c r="AY63" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="64" spans="37:51" x14ac:dyDescent="0.25">
-      <c r="AW64" s="1"/>
-      <c r="AY64" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="65" spans="49:55" x14ac:dyDescent="0.25">
-      <c r="AW65" s="1"/>
-      <c r="BA65" s="1" t="s">
+    <row r="74" spans="53:61" x14ac:dyDescent="0.25">
+      <c r="BC74" s="1"/>
+      <c r="BG74" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="66" spans="49:55" x14ac:dyDescent="0.25">
-      <c r="AW66" s="1"/>
-      <c r="BA66" s="1" t="s">
+    <row r="75" spans="53:61" x14ac:dyDescent="0.25">
+      <c r="BC75" s="1"/>
+      <c r="BI75" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="67" spans="49:55" x14ac:dyDescent="0.25">
-      <c r="AW67" s="1"/>
-      <c r="BC67" s="1" t="s">
+    <row r="76" spans="53:61" x14ac:dyDescent="0.25">
+      <c r="BC76" s="1"/>
+      <c r="BI76" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="68" spans="49:55" x14ac:dyDescent="0.25">
-      <c r="AW68" s="1"/>
-      <c r="BC68" s="1" t="s">
+    <row r="77" spans="53:61" x14ac:dyDescent="0.25">
+      <c r="BC77" s="1"/>
+      <c r="BI77" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="69" spans="49:55" x14ac:dyDescent="0.25">
-      <c r="AW69" s="1"/>
-      <c r="BC69" s="1" t="s">
+    <row r="78" spans="53:61" x14ac:dyDescent="0.25">
+      <c r="BC78" s="1"/>
+      <c r="BI78" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="70" spans="49:55" x14ac:dyDescent="0.25">
-      <c r="AW70" s="1"/>
-      <c r="BC70" s="1" t="s">
+    <row r="79" spans="53:61" x14ac:dyDescent="0.25">
+      <c r="BI79" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="71" spans="49:55" x14ac:dyDescent="0.25">
-      <c r="BC71" s="1" t="s">
+    <row r="80" spans="53:61" x14ac:dyDescent="0.25">
+      <c r="BI80" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="72" spans="49:55" x14ac:dyDescent="0.25">
-      <c r="BC72" s="1" t="s">
+    <row r="81" spans="61:61" x14ac:dyDescent="0.25">
+      <c r="BI81" s="1" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="73" spans="49:55" x14ac:dyDescent="0.25">
-      <c r="BC73" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/_R.xlsx
+++ b/_R.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\RProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F73FEC8-47D5-42CE-95AD-C6DA2E1BC0AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C4654FD-1024-4FCB-8A6D-13D57F7F3EAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{88B916E1-658B-4CD8-9C7E-BE8A8C7A43A4}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="97">
   <si>
     <t>Funções_matemáticas</t>
   </si>
@@ -262,6 +262,60 @@
   </si>
   <si>
     <t>Expressões</t>
+  </si>
+  <si>
+    <t>Importaçãp_de_arquivo_busca</t>
+  </si>
+  <si>
+    <t>Importação_de_arquivos_pacotes</t>
+  </si>
+  <si>
+    <t>Importação_de_arquivos_cripts</t>
+  </si>
+  <si>
+    <t>Pacotes_instalação</t>
+  </si>
+  <si>
+    <t>Pacotes_carregamento_require</t>
+  </si>
+  <si>
+    <t>Pacotes_carregamento direto</t>
+  </si>
+  <si>
+    <t>Pacotes_demonstrações</t>
+  </si>
+  <si>
+    <t>Pacotes_atualização</t>
+  </si>
+  <si>
+    <t>Pacotes_remoção</t>
+  </si>
+  <si>
+    <t>Workspace_verificando_e_apagando</t>
+  </si>
+  <si>
+    <t>Workspace_documentando</t>
+  </si>
+  <si>
+    <t>Workspace_opções</t>
+  </si>
+  <si>
+    <t>Workspace_saindo_e_salvando</t>
+  </si>
+  <si>
+    <t>Strings</t>
+  </si>
+  <si>
+    <t>Strings_grep_e_grepl</t>
+  </si>
+  <si>
+    <t>Strings_sub_e_gsub</t>
+  </si>
+  <si>
+    <t>Sequências de escape</t>
+  </si>
+  <si>
+    <t>Tratamento_de_NA's</t>
   </si>
 </sst>
 </file>
@@ -622,205 +676,254 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1402FBDA-3F51-44B3-94AC-3B36C2535FE0}">
-  <dimension ref="A1:BI81"/>
+  <dimension ref="A1:BO91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AB69" sqref="AB69"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="100" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
       <c r="C4" s="1"/>
       <c r="E4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
       <c r="C5" s="1"/>
       <c r="E5" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
       <c r="C6" s="1"/>
       <c r="E6" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
       <c r="C7" s="1"/>
       <c r="G7" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
       <c r="C8" s="1"/>
       <c r="G8" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:52" x14ac:dyDescent="0.25">
       <c r="C9" s="1"/>
       <c r="G9" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="AZ9" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
       <c r="C10" s="1"/>
       <c r="I10" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="AZ10" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
       <c r="C11" s="1"/>
       <c r="K11" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="AZ11" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:52" x14ac:dyDescent="0.25">
       <c r="C12" s="1"/>
       <c r="K12" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="AZ12" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:52" x14ac:dyDescent="0.25">
       <c r="C13" s="1"/>
       <c r="K13" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="AZ13" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:52" x14ac:dyDescent="0.25">
       <c r="C14" s="1"/>
       <c r="K14" s="1"/>
       <c r="M14" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="AZ14" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:52" x14ac:dyDescent="0.25">
       <c r="C15" s="1"/>
       <c r="K15" s="1"/>
       <c r="O15" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="AZ15" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:52" x14ac:dyDescent="0.25">
       <c r="C16" s="1"/>
       <c r="K16" s="1"/>
       <c r="O16" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:55" x14ac:dyDescent="0.25">
       <c r="C17" s="1"/>
       <c r="K17" s="1"/>
       <c r="Q17" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:55" x14ac:dyDescent="0.25">
       <c r="C18" s="1"/>
       <c r="K18" s="1"/>
       <c r="Q18" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:55" x14ac:dyDescent="0.25">
       <c r="C19" s="1"/>
       <c r="K19" s="1"/>
+      <c r="Q19" s="1"/>
       <c r="S19" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:55" x14ac:dyDescent="0.25">
       <c r="C20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="Q20" s="1"/>
       <c r="U20" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="21" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="BC20" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="3:55" x14ac:dyDescent="0.25">
       <c r="C21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="Q21" s="1"/>
       <c r="W21" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="BC21" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="3:55" x14ac:dyDescent="0.25">
       <c r="C22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="Q22" s="1"/>
       <c r="Y22" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="23" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="BC22" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="3:55" x14ac:dyDescent="0.25">
       <c r="C23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="Q23" s="1"/>
       <c r="Y23" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="24" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="BC23" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="3:55" x14ac:dyDescent="0.25">
       <c r="C24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="Q24" s="1"/>
       <c r="AA24" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:55" x14ac:dyDescent="0.25">
       <c r="C25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="Q25" s="1"/>
       <c r="AC25" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:55" x14ac:dyDescent="0.25">
       <c r="C26" s="1"/>
+      <c r="K26" s="1"/>
       <c r="AE26" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:55" x14ac:dyDescent="0.25">
       <c r="C27" s="1"/>
       <c r="AG27" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:55" x14ac:dyDescent="0.25">
       <c r="C28" s="1"/>
       <c r="AI28" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:55" x14ac:dyDescent="0.25">
       <c r="C29" s="1"/>
       <c r="AI29" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:55" x14ac:dyDescent="0.25">
       <c r="C30" s="1"/>
       <c r="AI30" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:55" x14ac:dyDescent="0.25">
       <c r="C31" s="1"/>
       <c r="AI31" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:55" x14ac:dyDescent="0.25">
       <c r="C32" s="1"/>
       <c r="AI32" s="1" t="s">
         <v>9</v>
@@ -936,203 +1039,300 @@
       </c>
     </row>
     <row r="48" spans="3:43" x14ac:dyDescent="0.25">
+      <c r="C48" s="1"/>
       <c r="AO48" s="1"/>
       <c r="AQ48" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="41:53" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:51" x14ac:dyDescent="0.25">
+      <c r="C49" s="1"/>
       <c r="AO49" s="1"/>
+      <c r="AQ49" s="1"/>
       <c r="AS49" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="50" spans="3:51" x14ac:dyDescent="0.25">
+      <c r="C50" s="1"/>
+      <c r="AO50" s="1"/>
+      <c r="AQ50" s="1"/>
+      <c r="AS50" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="51" spans="3:51" x14ac:dyDescent="0.25">
+      <c r="C51" s="1"/>
+      <c r="AO51" s="1"/>
+      <c r="AQ51" s="1"/>
+      <c r="AS51" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="52" spans="3:51" x14ac:dyDescent="0.25">
+      <c r="C52" s="1"/>
+      <c r="AO52" s="1"/>
+      <c r="AQ52" s="1"/>
+      <c r="AS52" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="53" spans="3:51" x14ac:dyDescent="0.25">
+      <c r="C53" s="1"/>
+      <c r="AO53" s="1"/>
+      <c r="AQ53" s="1"/>
+      <c r="AU53" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="41:53" x14ac:dyDescent="0.25">
-      <c r="AO50" s="1"/>
-      <c r="AS50" s="1" t="s">
+    <row r="54" spans="3:51" x14ac:dyDescent="0.25">
+      <c r="C54" s="1"/>
+      <c r="AO54" s="1"/>
+      <c r="AQ54" s="1"/>
+      <c r="AU54" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="41:53" x14ac:dyDescent="0.25">
-      <c r="AO51" s="1"/>
-      <c r="AS51" s="1" t="s">
+    <row r="55" spans="3:51" x14ac:dyDescent="0.25">
+      <c r="C55" s="1"/>
+      <c r="AO55" s="1"/>
+      <c r="AQ55" s="1"/>
+      <c r="AU55" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="41:53" x14ac:dyDescent="0.25">
-      <c r="AO52" s="1"/>
-      <c r="AS52" s="1" t="s">
+    <row r="56" spans="3:51" x14ac:dyDescent="0.25">
+      <c r="C56" s="1"/>
+      <c r="AO56" s="1"/>
+      <c r="AQ56" s="1"/>
+      <c r="AU56" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="41:53" x14ac:dyDescent="0.25">
-      <c r="AO53" s="1"/>
-      <c r="AU53" s="1" t="s">
+    <row r="57" spans="3:51" x14ac:dyDescent="0.25">
+      <c r="C57" s="1"/>
+      <c r="AO57" s="1"/>
+      <c r="AQ57" s="1"/>
+      <c r="AW57" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="41:53" x14ac:dyDescent="0.25">
-      <c r="AO54" s="1"/>
-      <c r="AU54" s="1" t="s">
+    <row r="58" spans="3:51" x14ac:dyDescent="0.25">
+      <c r="C58" s="1"/>
+      <c r="AO58" s="1"/>
+      <c r="AW58" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="41:53" x14ac:dyDescent="0.25">
-      <c r="AO55" s="1"/>
-      <c r="AU55" s="1" t="s">
+    <row r="59" spans="3:51" x14ac:dyDescent="0.25">
+      <c r="C59" s="1"/>
+      <c r="AO59" s="1"/>
+      <c r="AW59" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="56" spans="41:53" x14ac:dyDescent="0.25">
-      <c r="AO56" s="1"/>
-      <c r="AU56" s="1" t="s">
+    <row r="60" spans="3:51" x14ac:dyDescent="0.25">
+      <c r="C60" s="1"/>
+      <c r="AO60" s="1"/>
+      <c r="AW60" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="57" spans="41:53" x14ac:dyDescent="0.25">
-      <c r="AO57" s="1"/>
-      <c r="AU57" s="1"/>
-      <c r="AW57" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58" spans="41:53" x14ac:dyDescent="0.25">
-      <c r="AO58" s="1"/>
-      <c r="AU58" s="1"/>
-      <c r="AW58" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="41:53" x14ac:dyDescent="0.25">
-      <c r="AO59" s="1"/>
-      <c r="AU59" s="1"/>
-      <c r="AW59" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="41:53" x14ac:dyDescent="0.25">
-      <c r="AO60" s="1"/>
-      <c r="AU60" s="1"/>
-      <c r="AW60" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="61" spans="41:53" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:51" x14ac:dyDescent="0.25">
+      <c r="C61" s="1"/>
       <c r="AO61" s="1"/>
-      <c r="AU61" s="1"/>
       <c r="AW61" s="1"/>
       <c r="AY61" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="62" spans="3:51" x14ac:dyDescent="0.25">
+      <c r="C62" s="1"/>
+      <c r="AO62" s="1"/>
+      <c r="AW62" s="1"/>
+      <c r="AY62" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="63" spans="3:51" x14ac:dyDescent="0.25">
+      <c r="C63" s="1"/>
+      <c r="AO63" s="1"/>
+      <c r="AW63" s="1"/>
+      <c r="AY63" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="64" spans="3:51" x14ac:dyDescent="0.25">
+      <c r="AO64" s="1"/>
+      <c r="AW64" s="1"/>
+      <c r="AY64" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="65" spans="41:63" x14ac:dyDescent="0.25">
+      <c r="AO65" s="1"/>
+      <c r="AW65" s="1"/>
+      <c r="AY65" s="1"/>
+      <c r="BA65" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="66" spans="41:63" x14ac:dyDescent="0.25">
+      <c r="AO66" s="1"/>
+      <c r="AW66" s="1"/>
+      <c r="AY66" s="1"/>
+      <c r="BC66" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="62" spans="41:53" x14ac:dyDescent="0.25">
-      <c r="BA62" s="1" t="s">
+    <row r="67" spans="41:63" x14ac:dyDescent="0.25">
+      <c r="AO67" s="1"/>
+      <c r="BE67" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="63" spans="41:53" x14ac:dyDescent="0.25">
-      <c r="BA63" s="1" t="s">
+    <row r="68" spans="41:63" x14ac:dyDescent="0.25">
+      <c r="AO68" s="1"/>
+      <c r="BE68" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="64" spans="41:53" x14ac:dyDescent="0.25">
-      <c r="BA64" s="1" t="s">
+    <row r="69" spans="41:63" x14ac:dyDescent="0.25">
+      <c r="AO69" s="1"/>
+      <c r="BE69" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="65" spans="53:61" x14ac:dyDescent="0.25">
-      <c r="BA65" s="1" t="s">
+    <row r="70" spans="41:63" x14ac:dyDescent="0.25">
+      <c r="AO70" s="1"/>
+      <c r="BE70" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="66" spans="53:61" x14ac:dyDescent="0.25">
-      <c r="BA66" s="1" t="s">
+    <row r="71" spans="41:63" x14ac:dyDescent="0.25">
+      <c r="AO71" s="1"/>
+      <c r="BE71" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="67" spans="53:61" x14ac:dyDescent="0.25">
-      <c r="BC67" s="1" t="s">
+    <row r="72" spans="41:63" x14ac:dyDescent="0.25">
+      <c r="BG72" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="68" spans="53:61" x14ac:dyDescent="0.25">
-      <c r="BC68" s="1" t="s">
+    <row r="73" spans="41:63" x14ac:dyDescent="0.25">
+      <c r="BG73" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="69" spans="53:61" x14ac:dyDescent="0.25">
-      <c r="BC69" s="1" t="s">
+    <row r="74" spans="41:63" x14ac:dyDescent="0.25">
+      <c r="BG74" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="70" spans="53:61" x14ac:dyDescent="0.25">
-      <c r="BC70" s="1"/>
-      <c r="BE70" s="1" t="s">
+    <row r="75" spans="41:63" x14ac:dyDescent="0.25">
+      <c r="BG75" s="1"/>
+      <c r="BI75" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="71" spans="53:61" x14ac:dyDescent="0.25">
-      <c r="BC71" s="1"/>
-      <c r="BE71" s="1" t="s">
+    <row r="76" spans="41:63" x14ac:dyDescent="0.25">
+      <c r="BG76" s="1"/>
+      <c r="BI76" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="72" spans="53:61" x14ac:dyDescent="0.25">
-      <c r="BC72" s="1"/>
-      <c r="BE72" s="1" t="s">
+    <row r="77" spans="41:63" x14ac:dyDescent="0.25">
+      <c r="BG77" s="1"/>
+      <c r="BI77" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="73" spans="53:61" x14ac:dyDescent="0.25">
-      <c r="BC73" s="1"/>
-      <c r="BG73" s="1" t="s">
+    <row r="78" spans="41:63" x14ac:dyDescent="0.25">
+      <c r="BG78" s="1"/>
+      <c r="BI78" s="1"/>
+      <c r="BK78" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="79" spans="41:63" x14ac:dyDescent="0.25">
+      <c r="BG79" s="1"/>
+      <c r="BI79" s="1"/>
+      <c r="BK79" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="80" spans="41:63" x14ac:dyDescent="0.25">
+      <c r="BG80" s="1"/>
+      <c r="BI80" s="1"/>
+      <c r="BK80" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="81" spans="59:67" x14ac:dyDescent="0.25">
+      <c r="BG81" s="1"/>
+      <c r="BI81" s="1"/>
+      <c r="BK81" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="82" spans="59:67" x14ac:dyDescent="0.25">
+      <c r="BG82" s="1"/>
+      <c r="BI82" s="1"/>
+      <c r="BK82" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="83" spans="59:67" x14ac:dyDescent="0.25">
+      <c r="BG83" s="1"/>
+      <c r="BI83" s="1"/>
+      <c r="BK83" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="84" spans="59:67" x14ac:dyDescent="0.25">
+      <c r="BG84" s="1"/>
+      <c r="BI84" s="1"/>
+      <c r="BK84" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="85" spans="59:67" x14ac:dyDescent="0.25">
+      <c r="BG85" s="1"/>
+      <c r="BI85" s="1"/>
+      <c r="BM85" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="86" spans="59:67" x14ac:dyDescent="0.25">
+      <c r="BG86" s="1"/>
+      <c r="BM86" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="87" spans="59:67" x14ac:dyDescent="0.25">
+      <c r="BG87" s="1"/>
+      <c r="BM87" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="88" spans="59:67" x14ac:dyDescent="0.25">
+      <c r="BG88" s="1"/>
+      <c r="BO88" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="74" spans="53:61" x14ac:dyDescent="0.25">
-      <c r="BC74" s="1"/>
-      <c r="BG74" s="1" t="s">
+    <row r="89" spans="59:67" x14ac:dyDescent="0.25">
+      <c r="BG89" s="1"/>
+      <c r="BO89" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="75" spans="53:61" x14ac:dyDescent="0.25">
-      <c r="BC75" s="1"/>
-      <c r="BI75" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="76" spans="53:61" x14ac:dyDescent="0.25">
-      <c r="BC76" s="1"/>
-      <c r="BI76" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="77" spans="53:61" x14ac:dyDescent="0.25">
-      <c r="BC77" s="1"/>
-      <c r="BI77" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="78" spans="53:61" x14ac:dyDescent="0.25">
-      <c r="BC78" s="1"/>
-      <c r="BI78" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="79" spans="53:61" x14ac:dyDescent="0.25">
-      <c r="BI79" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="80" spans="53:61" x14ac:dyDescent="0.25">
-      <c r="BI80" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="81" spans="61:61" x14ac:dyDescent="0.25">
-      <c r="BI81" s="1" t="s">
-        <v>47</v>
-      </c>
+    <row r="90" spans="59:67" x14ac:dyDescent="0.25">
+      <c r="BG90" s="1"/>
+    </row>
+    <row r="91" spans="59:67" x14ac:dyDescent="0.25">
+      <c r="BG91" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/_R.xlsx
+++ b/_R.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\RProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C4654FD-1024-4FCB-8A6D-13D57F7F3EAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4109A132-4377-49D9-A0F1-097D265959C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{88B916E1-658B-4CD8-9C7E-BE8A8C7A43A4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{88B916E1-658B-4CD8-9C7E-BE8A8C7A43A4}"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="1" r:id="rId1"/>
+    <sheet name="1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="97">
   <si>
     <t>Funções_matemáticas</t>
   </si>
@@ -676,10 +677,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1402FBDA-3F51-44B3-94AC-3B36C2535FE0}">
-  <dimension ref="A1:BO91"/>
+  <dimension ref="A1:BO97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB69" sqref="AB69"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -687,117 +688,96 @@
     <col min="1" max="100" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C4" s="1"/>
       <c r="E4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C5" s="1"/>
       <c r="E5" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C6" s="1"/>
       <c r="E6" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C7" s="1"/>
       <c r="G7" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C8" s="1"/>
       <c r="G8" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C9" s="1"/>
       <c r="G9" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="AZ9" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C10" s="1"/>
       <c r="I10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AZ10" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C11" s="1"/>
       <c r="K11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AZ11" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="12" spans="1:52" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C12" s="1"/>
       <c r="K12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AZ12" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="13" spans="1:52" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C13" s="1"/>
       <c r="K13" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AZ13" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="14" spans="1:52" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C14" s="1"/>
       <c r="K14" s="1"/>
       <c r="M14" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="AZ14" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="15" spans="1:52" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C15" s="1"/>
       <c r="K15" s="1"/>
       <c r="O15" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="AZ15" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="16" spans="1:52" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C16" s="1"/>
       <c r="K16" s="1"/>
       <c r="O16" s="1" t="s">
@@ -874,465 +854,1147 @@
       <c r="C24" s="1"/>
       <c r="K24" s="1"/>
       <c r="Q24" s="1"/>
-      <c r="AA24" t="s">
-        <v>8</v>
-      </c>
+      <c r="Y24" s="1"/>
+      <c r="AA24" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="BC24" s="1"/>
     </row>
     <row r="25" spans="3:55" x14ac:dyDescent="0.25">
       <c r="C25" s="1"/>
       <c r="K25" s="1"/>
       <c r="Q25" s="1"/>
-      <c r="AC25" s="1" t="s">
-        <v>52</v>
-      </c>
+      <c r="Y25" s="1"/>
+      <c r="AA25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BC25" s="1"/>
     </row>
     <row r="26" spans="3:55" x14ac:dyDescent="0.25">
       <c r="C26" s="1"/>
       <c r="K26" s="1"/>
-      <c r="AE26" t="s">
-        <v>2</v>
-      </c>
+      <c r="Q26" s="1"/>
+      <c r="Y26" s="1"/>
+      <c r="AA26" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BC26" s="1"/>
     </row>
     <row r="27" spans="3:55" x14ac:dyDescent="0.25">
       <c r="C27" s="1"/>
-      <c r="AG27" t="s">
-        <v>1</v>
-      </c>
+      <c r="K27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="Y27" s="1"/>
+      <c r="AA27" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC27" s="1"/>
     </row>
     <row r="28" spans="3:55" x14ac:dyDescent="0.25">
       <c r="C28" s="1"/>
-      <c r="AI28" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="K28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="Y28" s="1"/>
+      <c r="AA28" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC28" s="1"/>
     </row>
     <row r="29" spans="3:55" x14ac:dyDescent="0.25">
       <c r="C29" s="1"/>
-      <c r="AI29" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="K29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="Y29" s="1"/>
+      <c r="AA29" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BC29" s="1"/>
     </row>
     <row r="30" spans="3:55" x14ac:dyDescent="0.25">
       <c r="C30" s="1"/>
-      <c r="AI30" s="1" t="s">
-        <v>5</v>
+      <c r="K30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="AA30" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="3:55" x14ac:dyDescent="0.25">
       <c r="C31" s="1"/>
-      <c r="AI31" s="1" t="s">
-        <v>4</v>
+      <c r="K31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="AC31" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="3:55" x14ac:dyDescent="0.25">
       <c r="C32" s="1"/>
-      <c r="AI32" s="1" t="s">
+      <c r="K32" s="1"/>
+      <c r="AE32" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="3:39" x14ac:dyDescent="0.25">
+      <c r="C33" s="1"/>
+      <c r="AG33" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="3:39" x14ac:dyDescent="0.25">
+      <c r="C34" s="1"/>
+      <c r="AI34" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="3:39" x14ac:dyDescent="0.25">
+      <c r="C35" s="1"/>
+      <c r="AI35" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="3:39" x14ac:dyDescent="0.25">
+      <c r="C36" s="1"/>
+      <c r="AI36" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="3:39" x14ac:dyDescent="0.25">
+      <c r="C37" s="1"/>
+      <c r="AI37" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="3:39" x14ac:dyDescent="0.25">
+      <c r="C38" s="1"/>
+      <c r="AI38" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="3:43" x14ac:dyDescent="0.25">
-      <c r="C33" s="1"/>
-      <c r="AI33" s="1" t="s">
+    <row r="39" spans="3:39" x14ac:dyDescent="0.25">
+      <c r="C39" s="1"/>
+      <c r="AI39" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="3:43" x14ac:dyDescent="0.25">
-      <c r="C34" s="1"/>
-      <c r="AI34" s="1"/>
-      <c r="AK34" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="35" spans="3:43" x14ac:dyDescent="0.25">
-      <c r="C35" s="1"/>
-      <c r="AI35" s="1"/>
-      <c r="AK35" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="36" spans="3:43" x14ac:dyDescent="0.25">
-      <c r="C36" s="1"/>
-      <c r="AI36" s="1"/>
-      <c r="AK36" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="37" spans="3:43" x14ac:dyDescent="0.25">
-      <c r="C37" s="1"/>
-      <c r="AI37" s="1"/>
-      <c r="AK37" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="38" spans="3:43" x14ac:dyDescent="0.25">
-      <c r="C38" s="1"/>
-      <c r="AI38" s="1"/>
-      <c r="AK38" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="39" spans="3:43" x14ac:dyDescent="0.25">
-      <c r="C39" s="1"/>
-      <c r="AI39" s="1"/>
-      <c r="AK39" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="40" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:39" x14ac:dyDescent="0.25">
       <c r="C40" s="1"/>
       <c r="AI40" s="1"/>
-      <c r="AK40" s="1"/>
-      <c r="AM40" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="41" spans="3:43" x14ac:dyDescent="0.25">
+      <c r="AK40" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="3:39" x14ac:dyDescent="0.25">
       <c r="C41" s="1"/>
       <c r="AI41" s="1"/>
-      <c r="AK41" s="1"/>
-      <c r="AM41" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="42" spans="3:43" x14ac:dyDescent="0.25">
+      <c r="AK41" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" spans="3:39" x14ac:dyDescent="0.25">
       <c r="C42" s="1"/>
       <c r="AI42" s="1"/>
-      <c r="AK42" s="1"/>
-      <c r="AM42" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="43" spans="3:43" x14ac:dyDescent="0.25">
+      <c r="AK42" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="3:39" x14ac:dyDescent="0.25">
       <c r="C43" s="1"/>
       <c r="AI43" s="1"/>
-      <c r="AK43" s="1"/>
-      <c r="AM43" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="44" spans="3:43" x14ac:dyDescent="0.25">
+      <c r="AK43" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="44" spans="3:39" x14ac:dyDescent="0.25">
       <c r="C44" s="1"/>
       <c r="AI44" s="1"/>
-      <c r="AK44" s="1"/>
-      <c r="AM44" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="45" spans="3:43" x14ac:dyDescent="0.25">
+      <c r="AK44" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" spans="3:39" x14ac:dyDescent="0.25">
       <c r="C45" s="1"/>
       <c r="AI45" s="1"/>
-      <c r="AO45" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="46" spans="3:43" x14ac:dyDescent="0.25">
+      <c r="AK45" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="46" spans="3:39" x14ac:dyDescent="0.25">
       <c r="C46" s="1"/>
       <c r="AI46" s="1"/>
-      <c r="AO46" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="47" spans="3:43" x14ac:dyDescent="0.25">
+      <c r="AK46" s="1"/>
+      <c r="AM46" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="47" spans="3:39" x14ac:dyDescent="0.25">
       <c r="C47" s="1"/>
       <c r="AI47" s="1"/>
-      <c r="AO47" s="1" t="s">
+      <c r="AK47" s="1"/>
+      <c r="AM47" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="48" spans="3:39" x14ac:dyDescent="0.25">
+      <c r="C48" s="1"/>
+      <c r="AI48" s="1"/>
+      <c r="AK48" s="1"/>
+      <c r="AM48" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="49" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="C49" s="1"/>
+      <c r="AI49" s="1"/>
+      <c r="AK49" s="1"/>
+      <c r="AM49" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="50" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="C50" s="1"/>
+      <c r="AI50" s="1"/>
+      <c r="AK50" s="1"/>
+      <c r="AM50" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="C51" s="1"/>
+      <c r="AI51" s="1"/>
+      <c r="AO51" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="C52" s="1"/>
+      <c r="AI52" s="1"/>
+      <c r="AO52" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="C53" s="1"/>
+      <c r="AI53" s="1"/>
+      <c r="AO53" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="3:43" x14ac:dyDescent="0.25">
-      <c r="C48" s="1"/>
-      <c r="AO48" s="1"/>
-      <c r="AQ48" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:51" x14ac:dyDescent="0.25">
-      <c r="C49" s="1"/>
-      <c r="AO49" s="1"/>
-      <c r="AQ49" s="1"/>
-      <c r="AS49" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="50" spans="3:51" x14ac:dyDescent="0.25">
-      <c r="C50" s="1"/>
-      <c r="AO50" s="1"/>
-      <c r="AQ50" s="1"/>
-      <c r="AS50" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="51" spans="3:51" x14ac:dyDescent="0.25">
-      <c r="C51" s="1"/>
-      <c r="AO51" s="1"/>
-      <c r="AQ51" s="1"/>
-      <c r="AS51" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="52" spans="3:51" x14ac:dyDescent="0.25">
-      <c r="C52" s="1"/>
-      <c r="AO52" s="1"/>
-      <c r="AQ52" s="1"/>
-      <c r="AS52" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="53" spans="3:51" x14ac:dyDescent="0.25">
-      <c r="C53" s="1"/>
-      <c r="AO53" s="1"/>
-      <c r="AQ53" s="1"/>
-      <c r="AU53" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="54" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:49" x14ac:dyDescent="0.25">
       <c r="C54" s="1"/>
       <c r="AO54" s="1"/>
-      <c r="AQ54" s="1"/>
-      <c r="AU54" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="55" spans="3:51" x14ac:dyDescent="0.25">
+      <c r="AQ54" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:49" x14ac:dyDescent="0.25">
       <c r="C55" s="1"/>
       <c r="AO55" s="1"/>
       <c r="AQ55" s="1"/>
-      <c r="AU55" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="56" spans="3:51" x14ac:dyDescent="0.25">
+      <c r="AS55" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="56" spans="3:49" x14ac:dyDescent="0.25">
       <c r="C56" s="1"/>
       <c r="AO56" s="1"/>
       <c r="AQ56" s="1"/>
-      <c r="AU56" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="57" spans="3:51" x14ac:dyDescent="0.25">
+      <c r="AS56" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="57" spans="3:49" x14ac:dyDescent="0.25">
       <c r="C57" s="1"/>
       <c r="AO57" s="1"/>
       <c r="AQ57" s="1"/>
-      <c r="AW57" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="58" spans="3:51" x14ac:dyDescent="0.25">
+      <c r="AS57" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="58" spans="3:49" x14ac:dyDescent="0.25">
       <c r="C58" s="1"/>
       <c r="AO58" s="1"/>
-      <c r="AW58" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="59" spans="3:51" x14ac:dyDescent="0.25">
+      <c r="AQ58" s="1"/>
+      <c r="AS58" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="59" spans="3:49" x14ac:dyDescent="0.25">
       <c r="C59" s="1"/>
       <c r="AO59" s="1"/>
-      <c r="AW59" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="60" spans="3:51" x14ac:dyDescent="0.25">
+      <c r="AQ59" s="1"/>
+      <c r="AU59" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="60" spans="3:49" x14ac:dyDescent="0.25">
       <c r="C60" s="1"/>
       <c r="AO60" s="1"/>
-      <c r="AW60" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="61" spans="3:51" x14ac:dyDescent="0.25">
+      <c r="AQ60" s="1"/>
+      <c r="AU60" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="61" spans="3:49" x14ac:dyDescent="0.25">
       <c r="C61" s="1"/>
       <c r="AO61" s="1"/>
-      <c r="AW61" s="1"/>
-      <c r="AY61" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="62" spans="3:51" x14ac:dyDescent="0.25">
+      <c r="AQ61" s="1"/>
+      <c r="AU61" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62" spans="3:49" x14ac:dyDescent="0.25">
       <c r="C62" s="1"/>
       <c r="AO62" s="1"/>
-      <c r="AW62" s="1"/>
-      <c r="AY62" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="63" spans="3:51" x14ac:dyDescent="0.25">
+      <c r="AQ62" s="1"/>
+      <c r="AU62" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="63" spans="3:49" x14ac:dyDescent="0.25">
       <c r="C63" s="1"/>
       <c r="AO63" s="1"/>
-      <c r="AW63" s="1"/>
-      <c r="AY63" s="1" t="s">
+      <c r="AQ63" s="1"/>
+      <c r="AW63" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="64" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="C64" s="1"/>
+      <c r="AO64" s="1"/>
+      <c r="AW64" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="65" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="C65" s="1"/>
+      <c r="AO65" s="1"/>
+      <c r="AW65" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="66" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="C66" s="1"/>
+      <c r="AO66" s="1"/>
+      <c r="AW66" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="67" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="C67" s="1"/>
+      <c r="AO67" s="1"/>
+      <c r="AW67" s="1"/>
+      <c r="AY67" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="68" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="C68" s="1"/>
+      <c r="AO68" s="1"/>
+      <c r="AW68" s="1"/>
+      <c r="AY68" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="69" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="C69" s="1"/>
+      <c r="AO69" s="1"/>
+      <c r="AW69" s="1"/>
+      <c r="AY69" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="64" spans="3:51" x14ac:dyDescent="0.25">
-      <c r="AO64" s="1"/>
-      <c r="AW64" s="1"/>
-      <c r="AY64" s="1" t="s">
+    <row r="70" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="AO70" s="1"/>
+      <c r="AW70" s="1"/>
+      <c r="AY70" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="41:63" x14ac:dyDescent="0.25">
-      <c r="AO65" s="1"/>
-      <c r="AW65" s="1"/>
-      <c r="AY65" s="1"/>
-      <c r="BA65" s="1" t="s">
+    <row r="71" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="AO71" s="1"/>
+      <c r="AW71" s="1"/>
+      <c r="AY71" s="1"/>
+      <c r="BA71" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="66" spans="41:63" x14ac:dyDescent="0.25">
-      <c r="AO66" s="1"/>
-      <c r="AW66" s="1"/>
-      <c r="AY66" s="1"/>
-      <c r="BC66" s="1" t="s">
+    <row r="72" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="AO72" s="1"/>
+      <c r="AW72" s="1"/>
+      <c r="AY72" s="1"/>
+      <c r="BC72" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="67" spans="41:63" x14ac:dyDescent="0.25">
-      <c r="AO67" s="1"/>
-      <c r="BE67" s="1" t="s">
+    <row r="73" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="AO73" s="1"/>
+      <c r="BE73" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="68" spans="41:63" x14ac:dyDescent="0.25">
-      <c r="AO68" s="1"/>
-      <c r="BE68" s="1" t="s">
+    <row r="74" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="AO74" s="1"/>
+      <c r="BE74" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="69" spans="41:63" x14ac:dyDescent="0.25">
-      <c r="AO69" s="1"/>
-      <c r="BE69" s="1" t="s">
+    <row r="75" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="AO75" s="1"/>
+      <c r="BE75" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="70" spans="41:63" x14ac:dyDescent="0.25">
-      <c r="AO70" s="1"/>
-      <c r="BE70" s="1" t="s">
+    <row r="76" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="AO76" s="1"/>
+      <c r="BE76" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="71" spans="41:63" x14ac:dyDescent="0.25">
-      <c r="AO71" s="1"/>
-      <c r="BE71" s="1" t="s">
+    <row r="77" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="AO77" s="1"/>
+      <c r="BE77" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="72" spans="41:63" x14ac:dyDescent="0.25">
-      <c r="BG72" s="1" t="s">
+    <row r="78" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BG78" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="73" spans="41:63" x14ac:dyDescent="0.25">
-      <c r="BG73" s="1" t="s">
+    <row r="79" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BG79" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="74" spans="41:63" x14ac:dyDescent="0.25">
-      <c r="BG74" s="1" t="s">
+    <row r="80" spans="3:59" x14ac:dyDescent="0.25">
+      <c r="BG80" s="1" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="75" spans="41:63" x14ac:dyDescent="0.25">
-      <c r="BG75" s="1"/>
-      <c r="BI75" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="76" spans="41:63" x14ac:dyDescent="0.25">
-      <c r="BG76" s="1"/>
-      <c r="BI76" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="77" spans="41:63" x14ac:dyDescent="0.25">
-      <c r="BG77" s="1"/>
-      <c r="BI77" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="78" spans="41:63" x14ac:dyDescent="0.25">
-      <c r="BG78" s="1"/>
-      <c r="BI78" s="1"/>
-      <c r="BK78" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="79" spans="41:63" x14ac:dyDescent="0.25">
-      <c r="BG79" s="1"/>
-      <c r="BI79" s="1"/>
-      <c r="BK79" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="80" spans="41:63" x14ac:dyDescent="0.25">
-      <c r="BG80" s="1"/>
-      <c r="BI80" s="1"/>
-      <c r="BK80" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="81" spans="59:67" x14ac:dyDescent="0.25">
       <c r="BG81" s="1"/>
-      <c r="BI81" s="1"/>
-      <c r="BK81" s="1" t="s">
-        <v>44</v>
+      <c r="BI81" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="82" spans="59:67" x14ac:dyDescent="0.25">
       <c r="BG82" s="1"/>
-      <c r="BI82" s="1"/>
-      <c r="BK82" s="1" t="s">
-        <v>45</v>
+      <c r="BI82" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="83" spans="59:67" x14ac:dyDescent="0.25">
       <c r="BG83" s="1"/>
-      <c r="BI83" s="1"/>
-      <c r="BK83" s="1" t="s">
-        <v>46</v>
+      <c r="BI83" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="84" spans="59:67" x14ac:dyDescent="0.25">
       <c r="BG84" s="1"/>
       <c r="BI84" s="1"/>
       <c r="BK84" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="85" spans="59:67" x14ac:dyDescent="0.25">
       <c r="BG85" s="1"/>
       <c r="BI85" s="1"/>
-      <c r="BM85" s="1" t="s">
-        <v>79</v>
+      <c r="BK85" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="86" spans="59:67" x14ac:dyDescent="0.25">
       <c r="BG86" s="1"/>
-      <c r="BM86" s="1" t="s">
-        <v>80</v>
+      <c r="BI86" s="1"/>
+      <c r="BK86" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="87" spans="59:67" x14ac:dyDescent="0.25">
       <c r="BG87" s="1"/>
-      <c r="BM87" s="1" t="s">
-        <v>81</v>
+      <c r="BI87" s="1"/>
+      <c r="BK87" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="88" spans="59:67" x14ac:dyDescent="0.25">
       <c r="BG88" s="1"/>
-      <c r="BO88" s="1" t="s">
-        <v>39</v>
+      <c r="BI88" s="1"/>
+      <c r="BK88" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="89" spans="59:67" x14ac:dyDescent="0.25">
       <c r="BG89" s="1"/>
-      <c r="BO89" s="1" t="s">
-        <v>40</v>
+      <c r="BI89" s="1"/>
+      <c r="BK89" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="90" spans="59:67" x14ac:dyDescent="0.25">
       <c r="BG90" s="1"/>
+      <c r="BI90" s="1"/>
+      <c r="BK90" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="91" spans="59:67" x14ac:dyDescent="0.25">
       <c r="BG91" s="1"/>
+      <c r="BI91" s="1"/>
+      <c r="BM91" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="92" spans="59:67" x14ac:dyDescent="0.25">
+      <c r="BG92" s="1"/>
+      <c r="BM92" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="93" spans="59:67" x14ac:dyDescent="0.25">
+      <c r="BG93" s="1"/>
+      <c r="BM93" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="94" spans="59:67" x14ac:dyDescent="0.25">
+      <c r="BG94" s="1"/>
+      <c r="BO94" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="95" spans="59:67" x14ac:dyDescent="0.25">
+      <c r="BG95" s="1"/>
+      <c r="BO95" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="96" spans="59:67" x14ac:dyDescent="0.25">
+      <c r="BG96" s="1"/>
+    </row>
+    <row r="97" spans="59:59" x14ac:dyDescent="0.25">
+      <c r="BG97" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{381B06C2-E016-41F1-927E-D485097BBEBD}">
+  <dimension ref="A1:BK94"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="96" width="2.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C4" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C5" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C6" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E7" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G8" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G9" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G10" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G11" s="1"/>
+      <c r="I11" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G12" s="1"/>
+      <c r="K12" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G13" s="1"/>
+      <c r="K13" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G14" s="1"/>
+      <c r="M14" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G15" s="1"/>
+      <c r="M15" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="O16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="7:51" x14ac:dyDescent="0.25">
+      <c r="G17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="Q17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AY17" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="7:51" x14ac:dyDescent="0.25">
+      <c r="G18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="S18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AY18" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="7:51" x14ac:dyDescent="0.25">
+      <c r="G19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="U19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AY19" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="7:51" x14ac:dyDescent="0.25">
+      <c r="G20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="U20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AY20" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="7:51" x14ac:dyDescent="0.25">
+      <c r="G21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="W21" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AY21" s="1"/>
+    </row>
+    <row r="22" spans="7:51" x14ac:dyDescent="0.25">
+      <c r="G22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="W22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AY22" s="1"/>
+    </row>
+    <row r="23" spans="7:51" x14ac:dyDescent="0.25">
+      <c r="G23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="W23" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AY23" s="1"/>
+    </row>
+    <row r="24" spans="7:51" x14ac:dyDescent="0.25">
+      <c r="G24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="W24" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY24" s="1"/>
+    </row>
+    <row r="25" spans="7:51" x14ac:dyDescent="0.25">
+      <c r="G25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="W25" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AY25" s="1"/>
+    </row>
+    <row r="26" spans="7:51" x14ac:dyDescent="0.25">
+      <c r="G26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="W26" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AY26" s="1"/>
+    </row>
+    <row r="27" spans="7:51" x14ac:dyDescent="0.25">
+      <c r="G27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="W27" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="7:51" x14ac:dyDescent="0.25">
+      <c r="G28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="Y28" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="7:51" x14ac:dyDescent="0.25">
+      <c r="G29" s="1"/>
+      <c r="AA29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="7:51" x14ac:dyDescent="0.25">
+      <c r="AC30" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="7:51" x14ac:dyDescent="0.25">
+      <c r="AE31" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="7:51" x14ac:dyDescent="0.25">
+      <c r="AE32" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="31:37" x14ac:dyDescent="0.25">
+      <c r="AE33" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="31:37" x14ac:dyDescent="0.25">
+      <c r="AE34" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="31:37" x14ac:dyDescent="0.25">
+      <c r="AE35" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="31:37" x14ac:dyDescent="0.25">
+      <c r="AE36" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="31:37" x14ac:dyDescent="0.25">
+      <c r="AE37" s="1"/>
+      <c r="AG37" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="31:37" x14ac:dyDescent="0.25">
+      <c r="AE38" s="1"/>
+      <c r="AG38" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="31:37" x14ac:dyDescent="0.25">
+      <c r="AE39" s="1"/>
+      <c r="AG39" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="31:37" x14ac:dyDescent="0.25">
+      <c r="AE40" s="1"/>
+      <c r="AG40" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="31:37" x14ac:dyDescent="0.25">
+      <c r="AE41" s="1"/>
+      <c r="AG41" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="31:37" x14ac:dyDescent="0.25">
+      <c r="AE42" s="1"/>
+      <c r="AG42" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="31:37" x14ac:dyDescent="0.25">
+      <c r="AE43" s="1"/>
+      <c r="AG43" s="1"/>
+      <c r="AI43" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="31:37" x14ac:dyDescent="0.25">
+      <c r="AE44" s="1"/>
+      <c r="AG44" s="1"/>
+      <c r="AI44" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" spans="31:37" x14ac:dyDescent="0.25">
+      <c r="AE45" s="1"/>
+      <c r="AG45" s="1"/>
+      <c r="AI45" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="31:37" x14ac:dyDescent="0.25">
+      <c r="AE46" s="1"/>
+      <c r="AG46" s="1"/>
+      <c r="AI46" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="47" spans="31:37" x14ac:dyDescent="0.25">
+      <c r="AE47" s="1"/>
+      <c r="AG47" s="1"/>
+      <c r="AI47" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="31:37" x14ac:dyDescent="0.25">
+      <c r="AE48" s="1"/>
+      <c r="AK48" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="31:47" x14ac:dyDescent="0.25">
+      <c r="AE49" s="1"/>
+      <c r="AK49" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="31:47" x14ac:dyDescent="0.25">
+      <c r="AE50" s="1"/>
+      <c r="AK50" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="31:47" x14ac:dyDescent="0.25">
+      <c r="AK51" s="1"/>
+      <c r="AM51" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="31:47" x14ac:dyDescent="0.25">
+      <c r="AK52" s="1"/>
+      <c r="AM52" s="1"/>
+      <c r="AO52" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="53" spans="31:47" x14ac:dyDescent="0.25">
+      <c r="AK53" s="1"/>
+      <c r="AM53" s="1"/>
+      <c r="AO53" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="54" spans="31:47" x14ac:dyDescent="0.25">
+      <c r="AK54" s="1"/>
+      <c r="AM54" s="1"/>
+      <c r="AO54" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="55" spans="31:47" x14ac:dyDescent="0.25">
+      <c r="AK55" s="1"/>
+      <c r="AM55" s="1"/>
+      <c r="AO55" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="56" spans="31:47" x14ac:dyDescent="0.25">
+      <c r="AK56" s="1"/>
+      <c r="AM56" s="1"/>
+      <c r="AQ56" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="57" spans="31:47" x14ac:dyDescent="0.25">
+      <c r="AK57" s="1"/>
+      <c r="AM57" s="1"/>
+      <c r="AQ57" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="58" spans="31:47" x14ac:dyDescent="0.25">
+      <c r="AK58" s="1"/>
+      <c r="AM58" s="1"/>
+      <c r="AQ58" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="59" spans="31:47" x14ac:dyDescent="0.25">
+      <c r="AK59" s="1"/>
+      <c r="AM59" s="1"/>
+      <c r="AQ59" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="60" spans="31:47" x14ac:dyDescent="0.25">
+      <c r="AK60" s="1"/>
+      <c r="AM60" s="1"/>
+      <c r="AS60" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="61" spans="31:47" x14ac:dyDescent="0.25">
+      <c r="AK61" s="1"/>
+      <c r="AS61" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="62" spans="31:47" x14ac:dyDescent="0.25">
+      <c r="AK62" s="1"/>
+      <c r="AS62" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="63" spans="31:47" x14ac:dyDescent="0.25">
+      <c r="AK63" s="1"/>
+      <c r="AS63" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="64" spans="31:47" x14ac:dyDescent="0.25">
+      <c r="AK64" s="1"/>
+      <c r="AS64" s="1"/>
+      <c r="AU64" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="65" spans="37:57" x14ac:dyDescent="0.25">
+      <c r="AK65" s="1"/>
+      <c r="AS65" s="1"/>
+      <c r="AU65" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="66" spans="37:57" x14ac:dyDescent="0.25">
+      <c r="AK66" s="1"/>
+      <c r="AS66" s="1"/>
+      <c r="AU66" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="67" spans="37:57" x14ac:dyDescent="0.25">
+      <c r="AK67" s="1"/>
+      <c r="AS67" s="1"/>
+      <c r="AU67" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="68" spans="37:57" x14ac:dyDescent="0.25">
+      <c r="AK68" s="1"/>
+      <c r="AS68" s="1"/>
+      <c r="AU68" s="1"/>
+      <c r="AW68" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="69" spans="37:57" x14ac:dyDescent="0.25">
+      <c r="AK69" s="1"/>
+      <c r="AS69" s="1"/>
+      <c r="AU69" s="1"/>
+      <c r="AY69" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="70" spans="37:57" x14ac:dyDescent="0.25">
+      <c r="AK70" s="1"/>
+      <c r="BA70" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="71" spans="37:57" x14ac:dyDescent="0.25">
+      <c r="AK71" s="1"/>
+      <c r="BA71" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="72" spans="37:57" x14ac:dyDescent="0.25">
+      <c r="AK72" s="1"/>
+      <c r="BA72" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="73" spans="37:57" x14ac:dyDescent="0.25">
+      <c r="AK73" s="1"/>
+      <c r="BA73" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="74" spans="37:57" x14ac:dyDescent="0.25">
+      <c r="AK74" s="1"/>
+      <c r="BA74" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="75" spans="37:57" x14ac:dyDescent="0.25">
+      <c r="BC75" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="76" spans="37:57" x14ac:dyDescent="0.25">
+      <c r="BC76" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="77" spans="37:57" x14ac:dyDescent="0.25">
+      <c r="BC77" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="78" spans="37:57" x14ac:dyDescent="0.25">
+      <c r="BC78" s="1"/>
+      <c r="BE78" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="79" spans="37:57" x14ac:dyDescent="0.25">
+      <c r="BC79" s="1"/>
+      <c r="BE79" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="80" spans="37:57" x14ac:dyDescent="0.25">
+      <c r="BC80" s="1"/>
+      <c r="BE80" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="81" spans="55:63" x14ac:dyDescent="0.25">
+      <c r="BC81" s="1"/>
+      <c r="BE81" s="1"/>
+      <c r="BG81" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="82" spans="55:63" x14ac:dyDescent="0.25">
+      <c r="BC82" s="1"/>
+      <c r="BE82" s="1"/>
+      <c r="BG82" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="83" spans="55:63" x14ac:dyDescent="0.25">
+      <c r="BC83" s="1"/>
+      <c r="BE83" s="1"/>
+      <c r="BG83" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="84" spans="55:63" x14ac:dyDescent="0.25">
+      <c r="BC84" s="1"/>
+      <c r="BE84" s="1"/>
+      <c r="BG84" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="85" spans="55:63" x14ac:dyDescent="0.25">
+      <c r="BC85" s="1"/>
+      <c r="BE85" s="1"/>
+      <c r="BG85" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="86" spans="55:63" x14ac:dyDescent="0.25">
+      <c r="BC86" s="1"/>
+      <c r="BE86" s="1"/>
+      <c r="BG86" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="87" spans="55:63" x14ac:dyDescent="0.25">
+      <c r="BC87" s="1"/>
+      <c r="BE87" s="1"/>
+      <c r="BG87" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="88" spans="55:63" x14ac:dyDescent="0.25">
+      <c r="BC88" s="1"/>
+      <c r="BE88" s="1"/>
+      <c r="BI88" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="89" spans="55:63" x14ac:dyDescent="0.25">
+      <c r="BC89" s="1"/>
+      <c r="BI89" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="90" spans="55:63" x14ac:dyDescent="0.25">
+      <c r="BC90" s="1"/>
+      <c r="BI90" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="91" spans="55:63" x14ac:dyDescent="0.25">
+      <c r="BC91" s="1"/>
+      <c r="BK91" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="92" spans="55:63" x14ac:dyDescent="0.25">
+      <c r="BC92" s="1"/>
+      <c r="BK92" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="93" spans="55:63" x14ac:dyDescent="0.25">
+      <c r="BC93" s="1"/>
+    </row>
+    <row r="94" spans="55:63" x14ac:dyDescent="0.25">
+      <c r="BC94" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/_R.xlsx
+++ b/_R.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\RProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4109A132-4377-49D9-A0F1-097D265959C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B5C83C-F7AC-496E-8AD9-81E92D87AACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{88B916E1-658B-4CD8-9C7E-BE8A8C7A43A4}"/>
   </bookViews>
@@ -1382,619 +1382,615 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{381B06C2-E016-41F1-927E-D485097BBEBD}">
-  <dimension ref="A1:BK94"/>
+  <dimension ref="A1:BI91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AW10" sqref="AW10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="96" width="2.7109375" customWidth="1"/>
+    <col min="1" max="94" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AW1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW2" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW3" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:49" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C5" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C6" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="E5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AW5" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="E6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW6" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="E7" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="AW7" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="E8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="G9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AW8" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="E9" s="1"/>
+      <c r="I9" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="E10" s="1"/>
+      <c r="I10" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="E11" s="1"/>
+      <c r="K11" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="E12" s="1"/>
+      <c r="K12" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="E13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="M13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="E14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="O14" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="E15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="Q15" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="E16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="S16" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="5:49" x14ac:dyDescent="0.25">
+      <c r="E17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="S17" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="5:49" x14ac:dyDescent="0.25">
+      <c r="E18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="U18" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AW18" s="1"/>
+    </row>
+    <row r="19" spans="5:49" x14ac:dyDescent="0.25">
+      <c r="E19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="U19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AW19" s="1"/>
+    </row>
+    <row r="20" spans="5:49" x14ac:dyDescent="0.25">
+      <c r="E20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="U20" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AW20" s="1"/>
+    </row>
+    <row r="21" spans="5:49" x14ac:dyDescent="0.25">
+      <c r="E21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="U21" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AW21" s="1"/>
+    </row>
+    <row r="22" spans="5:49" x14ac:dyDescent="0.25">
+      <c r="E22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="U22" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AW22" s="1"/>
+    </row>
+    <row r="23" spans="5:49" x14ac:dyDescent="0.25">
+      <c r="E23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="U23" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AW23" s="1"/>
+    </row>
+    <row r="24" spans="5:49" x14ac:dyDescent="0.25">
+      <c r="E24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="U24" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="5:49" x14ac:dyDescent="0.25">
+      <c r="E25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="W25" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="5:49" x14ac:dyDescent="0.25">
+      <c r="E26" s="1"/>
+      <c r="Y26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="5:49" x14ac:dyDescent="0.25">
+      <c r="AA27" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="G10" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="G11" s="1"/>
-      <c r="I11" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="G12" s="1"/>
-      <c r="K12" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="G13" s="1"/>
-      <c r="K13" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="G14" s="1"/>
-      <c r="M14" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="G15" s="1"/>
-      <c r="M15" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="G16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="O16" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="7:51" x14ac:dyDescent="0.25">
-      <c r="G17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="Q17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AY17" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" spans="7:51" x14ac:dyDescent="0.25">
-      <c r="G18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="S18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AY18" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="19" spans="7:51" x14ac:dyDescent="0.25">
-      <c r="G19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="U19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AY19" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20" spans="7:51" x14ac:dyDescent="0.25">
-      <c r="G20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="U20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AY20" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="21" spans="7:51" x14ac:dyDescent="0.25">
-      <c r="G21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="U21" s="1"/>
-      <c r="W21" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AY21" s="1"/>
-    </row>
-    <row r="22" spans="7:51" x14ac:dyDescent="0.25">
-      <c r="G22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="U22" s="1"/>
-      <c r="W22" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AY22" s="1"/>
-    </row>
-    <row r="23" spans="7:51" x14ac:dyDescent="0.25">
-      <c r="G23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="U23" s="1"/>
-      <c r="W23" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AY23" s="1"/>
-    </row>
-    <row r="24" spans="7:51" x14ac:dyDescent="0.25">
-      <c r="G24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="U24" s="1"/>
-      <c r="W24" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AY24" s="1"/>
-    </row>
-    <row r="25" spans="7:51" x14ac:dyDescent="0.25">
-      <c r="G25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="U25" s="1"/>
-      <c r="W25" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AY25" s="1"/>
-    </row>
-    <row r="26" spans="7:51" x14ac:dyDescent="0.25">
-      <c r="G26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="U26" s="1"/>
-      <c r="W26" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AY26" s="1"/>
-    </row>
-    <row r="27" spans="7:51" x14ac:dyDescent="0.25">
-      <c r="G27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="W27" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="28" spans="7:51" x14ac:dyDescent="0.25">
-      <c r="G28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="Y28" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="29" spans="7:51" x14ac:dyDescent="0.25">
-      <c r="G29" s="1"/>
-      <c r="AA29" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="7:51" x14ac:dyDescent="0.25">
-      <c r="AC30" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="7:51" x14ac:dyDescent="0.25">
-      <c r="AE31" s="1" t="s">
+    <row r="28" spans="5:49" x14ac:dyDescent="0.25">
+      <c r="AC28" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="7:51" x14ac:dyDescent="0.25">
-      <c r="AE32" s="1" t="s">
+    <row r="29" spans="5:49" x14ac:dyDescent="0.25">
+      <c r="AC29" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="31:37" x14ac:dyDescent="0.25">
-      <c r="AE33" s="1" t="s">
+    <row r="30" spans="5:49" x14ac:dyDescent="0.25">
+      <c r="AC30" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="31:37" x14ac:dyDescent="0.25">
+    <row r="31" spans="5:49" x14ac:dyDescent="0.25">
+      <c r="AC31" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="5:49" x14ac:dyDescent="0.25">
+      <c r="AC32" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="29:37" x14ac:dyDescent="0.25">
+      <c r="AC33" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="29:37" x14ac:dyDescent="0.25">
+      <c r="AC34" s="1"/>
       <c r="AE34" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="31:37" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="29:37" x14ac:dyDescent="0.25">
+      <c r="AC35" s="1"/>
       <c r="AE35" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="31:37" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="29:37" x14ac:dyDescent="0.25">
+      <c r="AC36" s="1"/>
       <c r="AE36" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="31:37" x14ac:dyDescent="0.25">
-      <c r="AE37" s="1"/>
-      <c r="AG37" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="38" spans="31:37" x14ac:dyDescent="0.25">
-      <c r="AE38" s="1"/>
-      <c r="AG38" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="39" spans="31:37" x14ac:dyDescent="0.25">
-      <c r="AE39" s="1"/>
-      <c r="AG39" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="31:37" x14ac:dyDescent="0.25">
+    <row r="37" spans="29:37" x14ac:dyDescent="0.25">
+      <c r="AC37" s="1"/>
+      <c r="AE37" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="29:37" x14ac:dyDescent="0.25">
+      <c r="AC38" s="1"/>
+      <c r="AE38" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="29:37" x14ac:dyDescent="0.25">
+      <c r="AC39" s="1"/>
+      <c r="AE39" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="29:37" x14ac:dyDescent="0.25">
+      <c r="AC40" s="1"/>
       <c r="AE40" s="1"/>
       <c r="AG40" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="41" spans="31:37" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="29:37" x14ac:dyDescent="0.25">
+      <c r="AC41" s="1"/>
       <c r="AE41" s="1"/>
       <c r="AG41" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="42" spans="31:37" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="29:37" x14ac:dyDescent="0.25">
+      <c r="AC42" s="1"/>
       <c r="AE42" s="1"/>
       <c r="AG42" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="43" spans="31:37" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="29:37" x14ac:dyDescent="0.25">
+      <c r="AC43" s="1"/>
       <c r="AE43" s="1"/>
-      <c r="AG43" s="1"/>
-      <c r="AI43" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="44" spans="31:37" x14ac:dyDescent="0.25">
+      <c r="AG43" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="29:37" x14ac:dyDescent="0.25">
+      <c r="AC44" s="1"/>
       <c r="AE44" s="1"/>
-      <c r="AG44" s="1"/>
-      <c r="AI44" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="45" spans="31:37" x14ac:dyDescent="0.25">
-      <c r="AE45" s="1"/>
-      <c r="AG45" s="1"/>
+      <c r="AG44" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="29:37" x14ac:dyDescent="0.25">
+      <c r="AC45" s="1"/>
       <c r="AI45" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="46" spans="31:37" x14ac:dyDescent="0.25">
-      <c r="AE46" s="1"/>
-      <c r="AG46" s="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="29:37" x14ac:dyDescent="0.25">
+      <c r="AC46" s="1"/>
       <c r="AI46" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="47" spans="31:37" x14ac:dyDescent="0.25">
-      <c r="AE47" s="1"/>
-      <c r="AG47" s="1"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="29:37" x14ac:dyDescent="0.25">
+      <c r="AC47" s="1"/>
       <c r="AI47" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="48" spans="31:37" x14ac:dyDescent="0.25">
-      <c r="AE48" s="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="29:37" x14ac:dyDescent="0.25">
+      <c r="AI48" s="1"/>
       <c r="AK48" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="49" spans="31:47" x14ac:dyDescent="0.25">
-      <c r="AE49" s="1"/>
-      <c r="AK49" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="50" spans="31:47" x14ac:dyDescent="0.25">
-      <c r="AE50" s="1"/>
-      <c r="AK50" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="51" spans="31:47" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="35:45" x14ac:dyDescent="0.25">
+      <c r="AI49" s="1"/>
+      <c r="AK49" s="1"/>
+      <c r="AM49" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="50" spans="35:45" x14ac:dyDescent="0.25">
+      <c r="AI50" s="1"/>
+      <c r="AK50" s="1"/>
+      <c r="AM50" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="51" spans="35:45" x14ac:dyDescent="0.25">
+      <c r="AI51" s="1"/>
       <c r="AK51" s="1"/>
       <c r="AM51" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="31:47" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="52" spans="35:45" x14ac:dyDescent="0.25">
+      <c r="AI52" s="1"/>
       <c r="AK52" s="1"/>
-      <c r="AM52" s="1"/>
-      <c r="AO52" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="53" spans="31:47" x14ac:dyDescent="0.25">
+      <c r="AM52" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="53" spans="35:45" x14ac:dyDescent="0.25">
+      <c r="AI53" s="1"/>
       <c r="AK53" s="1"/>
-      <c r="AM53" s="1"/>
       <c r="AO53" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="54" spans="31:47" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="54" spans="35:45" x14ac:dyDescent="0.25">
+      <c r="AI54" s="1"/>
       <c r="AK54" s="1"/>
-      <c r="AM54" s="1"/>
       <c r="AO54" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="55" spans="31:47" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="55" spans="35:45" x14ac:dyDescent="0.25">
+      <c r="AI55" s="1"/>
       <c r="AK55" s="1"/>
-      <c r="AM55" s="1"/>
       <c r="AO55" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="56" spans="31:47" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="56" spans="35:45" x14ac:dyDescent="0.25">
+      <c r="AI56" s="1"/>
       <c r="AK56" s="1"/>
-      <c r="AM56" s="1"/>
-      <c r="AQ56" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="57" spans="31:47" x14ac:dyDescent="0.25">
+      <c r="AO56" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="57" spans="35:45" x14ac:dyDescent="0.25">
+      <c r="AI57" s="1"/>
       <c r="AK57" s="1"/>
-      <c r="AM57" s="1"/>
       <c r="AQ57" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="58" spans="31:47" x14ac:dyDescent="0.25">
-      <c r="AK58" s="1"/>
-      <c r="AM58" s="1"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="58" spans="35:45" x14ac:dyDescent="0.25">
+      <c r="AI58" s="1"/>
       <c r="AQ58" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="59" spans="31:47" x14ac:dyDescent="0.25">
-      <c r="AK59" s="1"/>
-      <c r="AM59" s="1"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" spans="35:45" x14ac:dyDescent="0.25">
+      <c r="AI59" s="1"/>
       <c r="AQ59" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="60" spans="31:47" x14ac:dyDescent="0.25">
-      <c r="AK60" s="1"/>
-      <c r="AM60" s="1"/>
-      <c r="AS60" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="61" spans="31:47" x14ac:dyDescent="0.25">
-      <c r="AK61" s="1"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="60" spans="35:45" x14ac:dyDescent="0.25">
+      <c r="AI60" s="1"/>
+      <c r="AQ60" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="61" spans="35:45" x14ac:dyDescent="0.25">
+      <c r="AI61" s="1"/>
+      <c r="AQ61" s="1"/>
       <c r="AS61" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="62" spans="31:47" x14ac:dyDescent="0.25">
-      <c r="AK62" s="1"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="62" spans="35:45" x14ac:dyDescent="0.25">
+      <c r="AI62" s="1"/>
+      <c r="AQ62" s="1"/>
       <c r="AS62" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="63" spans="31:47" x14ac:dyDescent="0.25">
-      <c r="AK63" s="1"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="63" spans="35:45" x14ac:dyDescent="0.25">
+      <c r="AI63" s="1"/>
+      <c r="AQ63" s="1"/>
       <c r="AS63" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="64" spans="31:47" x14ac:dyDescent="0.25">
-      <c r="AK64" s="1"/>
-      <c r="AS64" s="1"/>
-      <c r="AU64" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="65" spans="37:57" x14ac:dyDescent="0.25">
-      <c r="AK65" s="1"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="64" spans="35:45" x14ac:dyDescent="0.25">
+      <c r="AI64" s="1"/>
+      <c r="AQ64" s="1"/>
+      <c r="AS64" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="65" spans="35:57" x14ac:dyDescent="0.25">
+      <c r="AI65" s="1"/>
+      <c r="AQ65" s="1"/>
       <c r="AS65" s="1"/>
       <c r="AU65" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="66" spans="37:57" x14ac:dyDescent="0.25">
-      <c r="AK66" s="1"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="66" spans="35:57" x14ac:dyDescent="0.25">
+      <c r="AI66" s="1"/>
+      <c r="AQ66" s="1"/>
       <c r="AS66" s="1"/>
-      <c r="AU66" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="67" spans="37:57" x14ac:dyDescent="0.25">
-      <c r="AK67" s="1"/>
-      <c r="AS67" s="1"/>
-      <c r="AU67" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="68" spans="37:57" x14ac:dyDescent="0.25">
-      <c r="AK68" s="1"/>
-      <c r="AS68" s="1"/>
-      <c r="AU68" s="1"/>
-      <c r="AW68" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="69" spans="37:57" x14ac:dyDescent="0.25">
-      <c r="AK69" s="1"/>
-      <c r="AS69" s="1"/>
-      <c r="AU69" s="1"/>
+      <c r="AW66" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="67" spans="35:57" x14ac:dyDescent="0.25">
+      <c r="AI67" s="1"/>
+      <c r="AY67" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="68" spans="35:57" x14ac:dyDescent="0.25">
+      <c r="AI68" s="1"/>
+      <c r="AY68" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="69" spans="35:57" x14ac:dyDescent="0.25">
+      <c r="AI69" s="1"/>
       <c r="AY69" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="70" spans="37:57" x14ac:dyDescent="0.25">
-      <c r="AK70" s="1"/>
-      <c r="BA70" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="71" spans="37:57" x14ac:dyDescent="0.25">
-      <c r="AK71" s="1"/>
-      <c r="BA71" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="72" spans="37:57" x14ac:dyDescent="0.25">
-      <c r="AK72" s="1"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="70" spans="35:57" x14ac:dyDescent="0.25">
+      <c r="AI70" s="1"/>
+      <c r="AY70" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="71" spans="35:57" x14ac:dyDescent="0.25">
+      <c r="AI71" s="1"/>
+      <c r="AY71" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="72" spans="35:57" x14ac:dyDescent="0.25">
       <c r="BA72" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="73" spans="37:57" x14ac:dyDescent="0.25">
-      <c r="AK73" s="1"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="73" spans="35:57" x14ac:dyDescent="0.25">
       <c r="BA73" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="74" spans="37:57" x14ac:dyDescent="0.25">
-      <c r="AK74" s="1"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="74" spans="35:57" x14ac:dyDescent="0.25">
       <c r="BA74" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="75" spans="37:57" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="75" spans="35:57" x14ac:dyDescent="0.25">
+      <c r="BA75" s="1"/>
       <c r="BC75" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="76" spans="37:57" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="76" spans="35:57" x14ac:dyDescent="0.25">
+      <c r="BA76" s="1"/>
       <c r="BC76" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="77" spans="37:57" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="77" spans="35:57" x14ac:dyDescent="0.25">
+      <c r="BA77" s="1"/>
       <c r="BC77" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="78" spans="37:57" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="78" spans="35:57" x14ac:dyDescent="0.25">
+      <c r="BA78" s="1"/>
       <c r="BC78" s="1"/>
       <c r="BE78" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="79" spans="37:57" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="79" spans="35:57" x14ac:dyDescent="0.25">
+      <c r="BA79" s="1"/>
       <c r="BC79" s="1"/>
       <c r="BE79" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="80" spans="37:57" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="80" spans="35:57" x14ac:dyDescent="0.25">
+      <c r="BA80" s="1"/>
       <c r="BC80" s="1"/>
       <c r="BE80" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="81" spans="55:63" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="81" spans="53:61" x14ac:dyDescent="0.25">
+      <c r="BA81" s="1"/>
       <c r="BC81" s="1"/>
-      <c r="BE81" s="1"/>
-      <c r="BG81" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="82" spans="55:63" x14ac:dyDescent="0.25">
+      <c r="BE81" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="82" spans="53:61" x14ac:dyDescent="0.25">
+      <c r="BA82" s="1"/>
       <c r="BC82" s="1"/>
-      <c r="BE82" s="1"/>
-      <c r="BG82" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="83" spans="55:63" x14ac:dyDescent="0.25">
+      <c r="BE82" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="83" spans="53:61" x14ac:dyDescent="0.25">
+      <c r="BA83" s="1"/>
       <c r="BC83" s="1"/>
-      <c r="BE83" s="1"/>
-      <c r="BG83" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="84" spans="55:63" x14ac:dyDescent="0.25">
+      <c r="BE83" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="84" spans="53:61" x14ac:dyDescent="0.25">
+      <c r="BA84" s="1"/>
       <c r="BC84" s="1"/>
-      <c r="BE84" s="1"/>
-      <c r="BG84" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="85" spans="55:63" x14ac:dyDescent="0.25">
+      <c r="BE84" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="85" spans="53:61" x14ac:dyDescent="0.25">
+      <c r="BA85" s="1"/>
       <c r="BC85" s="1"/>
-      <c r="BE85" s="1"/>
       <c r="BG85" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="86" spans="55:63" x14ac:dyDescent="0.25">
-      <c r="BC86" s="1"/>
-      <c r="BE86" s="1"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="86" spans="53:61" x14ac:dyDescent="0.25">
+      <c r="BA86" s="1"/>
       <c r="BG86" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="87" spans="55:63" x14ac:dyDescent="0.25">
-      <c r="BC87" s="1"/>
-      <c r="BE87" s="1"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="87" spans="53:61" x14ac:dyDescent="0.25">
+      <c r="BA87" s="1"/>
       <c r="BG87" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="88" spans="55:63" x14ac:dyDescent="0.25">
-      <c r="BC88" s="1"/>
-      <c r="BE88" s="1"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="88" spans="53:61" x14ac:dyDescent="0.25">
+      <c r="BA88" s="1"/>
       <c r="BI88" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="89" spans="55:63" x14ac:dyDescent="0.25">
-      <c r="BC89" s="1"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="89" spans="53:61" x14ac:dyDescent="0.25">
+      <c r="BA89" s="1"/>
       <c r="BI89" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="90" spans="55:63" x14ac:dyDescent="0.25">
-      <c r="BC90" s="1"/>
-      <c r="BI90" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="91" spans="55:63" x14ac:dyDescent="0.25">
-      <c r="BC91" s="1"/>
-      <c r="BK91" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="92" spans="55:63" x14ac:dyDescent="0.25">
-      <c r="BC92" s="1"/>
-      <c r="BK92" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="93" spans="55:63" x14ac:dyDescent="0.25">
-      <c r="BC93" s="1"/>
-    </row>
-    <row r="94" spans="55:63" x14ac:dyDescent="0.25">
-      <c r="BC94" s="1"/>
+    <row r="90" spans="53:61" x14ac:dyDescent="0.25">
+      <c r="BA90" s="1"/>
+    </row>
+    <row r="91" spans="53:61" x14ac:dyDescent="0.25">
+      <c r="BA91" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/_R.xlsx
+++ b/_R.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\RProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B5C83C-F7AC-496E-8AD9-81E92D87AACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB9BE1EA-3B3E-475F-9904-DE1998A478AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{88B916E1-658B-4CD8-9C7E-BE8A8C7A43A4}"/>
   </bookViews>

--- a/_R.xlsx
+++ b/_R.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\RProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB9BE1EA-3B3E-475F-9904-DE1998A478AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB1A4B3-2BC1-46CE-A3DC-121AC92E14D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{88B916E1-658B-4CD8-9C7E-BE8A8C7A43A4}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="97">
   <si>
     <t>Funções_matemáticas</t>
   </si>
@@ -1382,615 +1382,677 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{381B06C2-E016-41F1-927E-D485097BBEBD}">
-  <dimension ref="A1:BI91"/>
+  <dimension ref="A1:BG104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AW10" sqref="AW10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="94" width="2.7109375" customWidth="1"/>
+    <col min="1" max="86" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AW2" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AW3" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="C4" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="C2" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="C3" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="E4" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
       <c r="E5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AW5" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="E6" s="1"/>
+      <c r="G6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="E7" s="1"/>
+      <c r="I7" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="E8" s="1"/>
+      <c r="K8" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="E9" s="1"/>
+      <c r="M9" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="E10" s="1"/>
+      <c r="M10" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="E11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="O11" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="E6" s="1" t="s">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="E12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="O12" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="E13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="O13" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AO13" s="1"/>
+    </row>
+    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="E14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="O14" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO14" s="1"/>
+    </row>
+    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="Q15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="S16" t="s">
         <v>1</v>
       </c>
-      <c r="AW6" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="E7" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AW7" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="E8" s="1"/>
-      <c r="G8" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AW8" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="E9" s="1"/>
-      <c r="I9" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="E10" s="1"/>
-      <c r="I10" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="E11" s="1"/>
-      <c r="K11" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="E12" s="1"/>
-      <c r="K12" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="E13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="M13" t="s">
+    </row>
+    <row r="17" spans="21:25" x14ac:dyDescent="0.25">
+      <c r="U17" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="21:25" x14ac:dyDescent="0.25">
+      <c r="U18" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="21:25" x14ac:dyDescent="0.25">
+      <c r="U19" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="21:25" x14ac:dyDescent="0.25">
+      <c r="U20" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="21:25" x14ac:dyDescent="0.25">
+      <c r="U21" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="21:25" x14ac:dyDescent="0.25">
+      <c r="U22" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="21:25" x14ac:dyDescent="0.25">
+      <c r="U23" s="1"/>
+      <c r="W23" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="21:25" x14ac:dyDescent="0.25">
+      <c r="U24" s="1"/>
+      <c r="W24" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="21:25" x14ac:dyDescent="0.25">
+      <c r="U25" s="1"/>
+      <c r="W25" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="21:25" x14ac:dyDescent="0.25">
+      <c r="U26" s="1"/>
+      <c r="W26" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="21:25" x14ac:dyDescent="0.25">
+      <c r="U27" s="1"/>
+      <c r="W27" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="21:25" x14ac:dyDescent="0.25">
+      <c r="U28" s="1"/>
+      <c r="W28" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="21:25" x14ac:dyDescent="0.25">
+      <c r="U29" s="1"/>
+      <c r="W29" s="1"/>
+      <c r="Y29" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="21:25" x14ac:dyDescent="0.25">
+      <c r="U30" s="1"/>
+      <c r="W30" s="1"/>
+      <c r="Y30" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="21:25" x14ac:dyDescent="0.25">
+      <c r="U31" s="1"/>
+      <c r="W31" s="1"/>
+      <c r="Y31" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="21:25" x14ac:dyDescent="0.25">
+      <c r="U32" s="1"/>
+      <c r="W32" s="1"/>
+      <c r="Y32" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="U33" s="1"/>
+      <c r="W33" s="1"/>
+      <c r="Y33" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="U34" s="1"/>
+      <c r="AA34" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="U35" s="1"/>
+      <c r="AA35" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="U36" s="1"/>
+      <c r="AA36" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="AA37" s="1"/>
+      <c r="AC37" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="E14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="O14" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="E15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="Q15" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="E16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="S16" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="5:49" x14ac:dyDescent="0.25">
-      <c r="E17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="S17" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="5:49" x14ac:dyDescent="0.25">
-      <c r="E18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="S18" s="1"/>
-      <c r="U18" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AW18" s="1"/>
-    </row>
-    <row r="19" spans="5:49" x14ac:dyDescent="0.25">
-      <c r="E19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="S19" s="1"/>
-      <c r="U19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AW19" s="1"/>
-    </row>
-    <row r="20" spans="5:49" x14ac:dyDescent="0.25">
-      <c r="E20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="S20" s="1"/>
-      <c r="U20" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AW20" s="1"/>
-    </row>
-    <row r="21" spans="5:49" x14ac:dyDescent="0.25">
-      <c r="E21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="S21" s="1"/>
-      <c r="U21" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AW21" s="1"/>
-    </row>
-    <row r="22" spans="5:49" x14ac:dyDescent="0.25">
-      <c r="E22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="S22" s="1"/>
-      <c r="U22" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AW22" s="1"/>
-    </row>
-    <row r="23" spans="5:49" x14ac:dyDescent="0.25">
-      <c r="E23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="S23" s="1"/>
-      <c r="U23" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AW23" s="1"/>
-    </row>
-    <row r="24" spans="5:49" x14ac:dyDescent="0.25">
-      <c r="E24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="U24" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="25" spans="5:49" x14ac:dyDescent="0.25">
-      <c r="E25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="W25" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="5:49" x14ac:dyDescent="0.25">
-      <c r="E26" s="1"/>
-      <c r="Y26" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="5:49" x14ac:dyDescent="0.25">
-      <c r="AA27" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="5:49" x14ac:dyDescent="0.25">
-      <c r="AC28" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="5:49" x14ac:dyDescent="0.25">
-      <c r="AC29" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="5:49" x14ac:dyDescent="0.25">
-      <c r="AC30" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="5:49" x14ac:dyDescent="0.25">
-      <c r="AC31" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="5:49" x14ac:dyDescent="0.25">
-      <c r="AC32" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="29:37" x14ac:dyDescent="0.25">
-      <c r="AC33" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="29:37" x14ac:dyDescent="0.25">
-      <c r="AC34" s="1"/>
-      <c r="AE34" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="35" spans="29:37" x14ac:dyDescent="0.25">
-      <c r="AC35" s="1"/>
-      <c r="AE35" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="36" spans="29:37" x14ac:dyDescent="0.25">
-      <c r="AC36" s="1"/>
-      <c r="AE36" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="37" spans="29:37" x14ac:dyDescent="0.25">
-      <c r="AC37" s="1"/>
-      <c r="AE37" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="38" spans="29:37" x14ac:dyDescent="0.25">
+    <row r="38" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="AA38" s="1"/>
       <c r="AC38" s="1"/>
       <c r="AE38" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="39" spans="29:37" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="39" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="AA39" s="1"/>
       <c r="AC39" s="1"/>
       <c r="AE39" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="40" spans="29:37" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="40" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="AA40" s="1"/>
       <c r="AC40" s="1"/>
-      <c r="AE40" s="1"/>
-      <c r="AG40" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="41" spans="29:37" x14ac:dyDescent="0.25">
+      <c r="AE40" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="41" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="AA41" s="1"/>
       <c r="AC41" s="1"/>
-      <c r="AE41" s="1"/>
-      <c r="AG41" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="42" spans="29:37" x14ac:dyDescent="0.25">
+      <c r="AE41" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="42" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="AA42" s="1"/>
       <c r="AC42" s="1"/>
-      <c r="AE42" s="1"/>
       <c r="AG42" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="43" spans="29:37" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="AA43" s="1"/>
       <c r="AC43" s="1"/>
-      <c r="AE43" s="1"/>
       <c r="AG43" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="44" spans="29:37" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="AA44" s="1"/>
       <c r="AC44" s="1"/>
-      <c r="AE44" s="1"/>
       <c r="AG44" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="45" spans="29:37" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="AA45" s="1"/>
       <c r="AC45" s="1"/>
-      <c r="AI45" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="46" spans="29:37" x14ac:dyDescent="0.25">
+      <c r="AG45" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="46" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="AA46" s="1"/>
       <c r="AC46" s="1"/>
       <c r="AI46" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="47" spans="29:37" x14ac:dyDescent="0.25">
-      <c r="AC47" s="1"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="AA47" s="1"/>
       <c r="AI47" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="48" spans="29:37" x14ac:dyDescent="0.25">
-      <c r="AI48" s="1"/>
-      <c r="AK48" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="35:45" x14ac:dyDescent="0.25">
-      <c r="AI49" s="1"/>
-      <c r="AK49" s="1"/>
-      <c r="AM49" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="50" spans="35:45" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="AA48" s="1"/>
+      <c r="AI48" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="27:47" x14ac:dyDescent="0.25">
+      <c r="AA49" s="1"/>
+      <c r="AI49" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50" spans="27:47" x14ac:dyDescent="0.25">
+      <c r="AA50" s="1"/>
       <c r="AI50" s="1"/>
-      <c r="AK50" s="1"/>
-      <c r="AM50" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="51" spans="35:45" x14ac:dyDescent="0.25">
+      <c r="AK50" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="51" spans="27:47" x14ac:dyDescent="0.25">
+      <c r="AA51" s="1"/>
       <c r="AI51" s="1"/>
-      <c r="AK51" s="1"/>
-      <c r="AM51" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="52" spans="35:45" x14ac:dyDescent="0.25">
+      <c r="AK51" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="52" spans="27:47" x14ac:dyDescent="0.25">
+      <c r="AA52" s="1"/>
       <c r="AI52" s="1"/>
-      <c r="AK52" s="1"/>
-      <c r="AM52" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="53" spans="35:45" x14ac:dyDescent="0.25">
+      <c r="AK52" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="53" spans="27:47" x14ac:dyDescent="0.25">
+      <c r="AA53" s="1"/>
       <c r="AI53" s="1"/>
-      <c r="AK53" s="1"/>
-      <c r="AO53" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="54" spans="35:45" x14ac:dyDescent="0.25">
+      <c r="AK53" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="54" spans="27:47" x14ac:dyDescent="0.25">
+      <c r="AA54" s="1"/>
       <c r="AI54" s="1"/>
       <c r="AK54" s="1"/>
-      <c r="AO54" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="55" spans="35:45" x14ac:dyDescent="0.25">
+      <c r="AM54" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="55" spans="27:47" x14ac:dyDescent="0.25">
+      <c r="AA55" s="1"/>
       <c r="AI55" s="1"/>
       <c r="AK55" s="1"/>
       <c r="AO55" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="56" spans="35:45" x14ac:dyDescent="0.25">
-      <c r="AI56" s="1"/>
-      <c r="AK56" s="1"/>
-      <c r="AO56" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="57" spans="35:45" x14ac:dyDescent="0.25">
-      <c r="AI57" s="1"/>
-      <c r="AK57" s="1"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="56" spans="27:47" x14ac:dyDescent="0.25">
+      <c r="AA56" s="1"/>
+      <c r="AQ56" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="57" spans="27:47" x14ac:dyDescent="0.25">
+      <c r="AA57" s="1"/>
       <c r="AQ57" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="58" spans="35:45" x14ac:dyDescent="0.25">
-      <c r="AI58" s="1"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="58" spans="27:47" x14ac:dyDescent="0.25">
+      <c r="AA58" s="1"/>
       <c r="AQ58" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="59" spans="35:45" x14ac:dyDescent="0.25">
-      <c r="AI59" s="1"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="59" spans="27:47" x14ac:dyDescent="0.25">
+      <c r="AA59" s="1"/>
       <c r="AQ59" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="60" spans="35:45" x14ac:dyDescent="0.25">
-      <c r="AI60" s="1"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="60" spans="27:47" x14ac:dyDescent="0.25">
+      <c r="AA60" s="1"/>
       <c r="AQ60" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="61" spans="35:45" x14ac:dyDescent="0.25">
-      <c r="AI61" s="1"/>
-      <c r="AQ61" s="1"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="61" spans="27:47" x14ac:dyDescent="0.25">
       <c r="AS61" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="62" spans="35:45" x14ac:dyDescent="0.25">
-      <c r="AI62" s="1"/>
-      <c r="AQ62" s="1"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="62" spans="27:47" x14ac:dyDescent="0.25">
       <c r="AS62" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="63" spans="35:45" x14ac:dyDescent="0.25">
-      <c r="AI63" s="1"/>
-      <c r="AQ63" s="1"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="63" spans="27:47" x14ac:dyDescent="0.25">
       <c r="AS63" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="64" spans="35:45" x14ac:dyDescent="0.25">
-      <c r="AI64" s="1"/>
-      <c r="AQ64" s="1"/>
-      <c r="AS64" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="65" spans="35:57" x14ac:dyDescent="0.25">
-      <c r="AI65" s="1"/>
-      <c r="AQ65" s="1"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="64" spans="27:47" x14ac:dyDescent="0.25">
+      <c r="AS64" s="1"/>
+      <c r="AU64" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="65" spans="45:53" x14ac:dyDescent="0.25">
       <c r="AS65" s="1"/>
       <c r="AU65" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="66" spans="35:57" x14ac:dyDescent="0.25">
-      <c r="AI66" s="1"/>
-      <c r="AQ66" s="1"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="66" spans="45:53" x14ac:dyDescent="0.25">
       <c r="AS66" s="1"/>
-      <c r="AW66" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="67" spans="35:57" x14ac:dyDescent="0.25">
-      <c r="AI67" s="1"/>
-      <c r="AY67" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="68" spans="35:57" x14ac:dyDescent="0.25">
-      <c r="AI68" s="1"/>
-      <c r="AY68" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="69" spans="35:57" x14ac:dyDescent="0.25">
-      <c r="AI69" s="1"/>
-      <c r="AY69" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="70" spans="35:57" x14ac:dyDescent="0.25">
-      <c r="AI70" s="1"/>
-      <c r="AY70" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="71" spans="35:57" x14ac:dyDescent="0.25">
-      <c r="AI71" s="1"/>
-      <c r="AY71" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="72" spans="35:57" x14ac:dyDescent="0.25">
-      <c r="BA72" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="73" spans="35:57" x14ac:dyDescent="0.25">
-      <c r="BA73" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="74" spans="35:57" x14ac:dyDescent="0.25">
-      <c r="BA74" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="75" spans="35:57" x14ac:dyDescent="0.25">
-      <c r="BA75" s="1"/>
-      <c r="BC75" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="76" spans="35:57" x14ac:dyDescent="0.25">
-      <c r="BA76" s="1"/>
-      <c r="BC76" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="77" spans="35:57" x14ac:dyDescent="0.25">
-      <c r="BA77" s="1"/>
-      <c r="BC77" s="1" t="s">
+      <c r="AU66" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="78" spans="35:57" x14ac:dyDescent="0.25">
-      <c r="BA78" s="1"/>
-      <c r="BC78" s="1"/>
-      <c r="BE78" s="1" t="s">
+    <row r="67" spans="45:53" x14ac:dyDescent="0.25">
+      <c r="AS67" s="1"/>
+      <c r="AU67" s="1"/>
+      <c r="AW67" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="79" spans="35:57" x14ac:dyDescent="0.25">
-      <c r="BA79" s="1"/>
-      <c r="BC79" s="1"/>
-      <c r="BE79" s="1" t="s">
+    <row r="68" spans="45:53" x14ac:dyDescent="0.25">
+      <c r="AS68" s="1"/>
+      <c r="AU68" s="1"/>
+      <c r="AW68" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="80" spans="35:57" x14ac:dyDescent="0.25">
-      <c r="BA80" s="1"/>
-      <c r="BC80" s="1"/>
-      <c r="BE80" s="1" t="s">
+    <row r="69" spans="45:53" x14ac:dyDescent="0.25">
+      <c r="AS69" s="1"/>
+      <c r="AU69" s="1"/>
+      <c r="AW69" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="81" spans="53:61" x14ac:dyDescent="0.25">
-      <c r="BA81" s="1"/>
-      <c r="BC81" s="1"/>
-      <c r="BE81" s="1" t="s">
+    <row r="70" spans="45:53" x14ac:dyDescent="0.25">
+      <c r="AS70" s="1"/>
+      <c r="AU70" s="1"/>
+      <c r="AW70" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="82" spans="53:61" x14ac:dyDescent="0.25">
-      <c r="BA82" s="1"/>
-      <c r="BC82" s="1"/>
-      <c r="BE82" s="1" t="s">
+    <row r="71" spans="45:53" x14ac:dyDescent="0.25">
+      <c r="AS71" s="1"/>
+      <c r="AU71" s="1"/>
+      <c r="AW71" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="83" spans="53:61" x14ac:dyDescent="0.25">
-      <c r="BA83" s="1"/>
-      <c r="BC83" s="1"/>
-      <c r="BE83" s="1" t="s">
+    <row r="72" spans="45:53" x14ac:dyDescent="0.25">
+      <c r="AS72" s="1"/>
+      <c r="AU72" s="1"/>
+      <c r="AW72" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="84" spans="53:61" x14ac:dyDescent="0.25">
-      <c r="BA84" s="1"/>
-      <c r="BC84" s="1"/>
-      <c r="BE84" s="1" t="s">
+    <row r="73" spans="45:53" x14ac:dyDescent="0.25">
+      <c r="AS73" s="1"/>
+      <c r="AU73" s="1"/>
+      <c r="AW73" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="85" spans="53:61" x14ac:dyDescent="0.25">
+    <row r="74" spans="45:53" x14ac:dyDescent="0.25">
+      <c r="AS74" s="1"/>
+      <c r="AU74" s="1"/>
+      <c r="AW74" s="1"/>
+      <c r="AY74" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="45:53" x14ac:dyDescent="0.25">
+      <c r="AS75" s="1"/>
+      <c r="AU75" s="1"/>
+      <c r="AW75" s="1"/>
+      <c r="AY75" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="76" spans="45:53" x14ac:dyDescent="0.25">
+      <c r="AS76" s="1"/>
+      <c r="AU76" s="1"/>
+      <c r="AW76" s="1"/>
+      <c r="AY76" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="77" spans="45:53" x14ac:dyDescent="0.25">
+      <c r="AS77" s="1"/>
+      <c r="AU77" s="1"/>
+      <c r="AW77" s="1"/>
+      <c r="AY77" s="1"/>
+      <c r="BA77" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="78" spans="45:53" x14ac:dyDescent="0.25">
+      <c r="AS78" s="1"/>
+      <c r="AU78" s="1"/>
+      <c r="AW78" s="1"/>
+      <c r="AY78" s="1"/>
+      <c r="BA78" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="45:53" x14ac:dyDescent="0.25">
+      <c r="AS79" s="1"/>
+      <c r="AU79" s="1"/>
+      <c r="AW79" s="1"/>
+      <c r="AY79" s="1"/>
+      <c r="BA79" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="80" spans="45:53" x14ac:dyDescent="0.25">
+      <c r="AS80" s="1"/>
+      <c r="AU80" s="1"/>
+      <c r="AW80" s="1"/>
+      <c r="AY80" s="1"/>
+      <c r="BA80" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="81" spans="45:59" x14ac:dyDescent="0.25">
+      <c r="AS81" s="1"/>
+      <c r="AU81" s="1"/>
+      <c r="AW81" s="1"/>
+      <c r="AY81" s="1"/>
+      <c r="BA81" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="82" spans="45:59" x14ac:dyDescent="0.25">
+      <c r="AS82" s="1"/>
+      <c r="AU82" s="1"/>
+      <c r="AW82" s="1"/>
+      <c r="AY82" s="1"/>
+      <c r="BA82" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="83" spans="45:59" x14ac:dyDescent="0.25">
+      <c r="AS83" s="1"/>
+      <c r="AU83" s="1"/>
+      <c r="AW83" s="1"/>
+      <c r="AY83" s="1"/>
+      <c r="BA83" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="84" spans="45:59" x14ac:dyDescent="0.25">
+      <c r="AS84" s="1"/>
+      <c r="AU84" s="1"/>
+      <c r="AW84" s="1"/>
+      <c r="AY84" s="1"/>
+      <c r="BC84" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="85" spans="45:59" x14ac:dyDescent="0.25">
+      <c r="AS85" s="1"/>
+      <c r="AU85" s="1"/>
+      <c r="AW85" s="1"/>
+      <c r="AY85" s="1"/>
       <c r="BA85" s="1"/>
-      <c r="BC85" s="1"/>
-      <c r="BG85" s="1" t="s">
+      <c r="BE85" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="86" spans="53:61" x14ac:dyDescent="0.25">
+    <row r="86" spans="45:59" x14ac:dyDescent="0.25">
+      <c r="AS86" s="1"/>
+      <c r="AU86" s="1"/>
+      <c r="AW86" s="1"/>
+      <c r="AY86" s="1"/>
       <c r="BA86" s="1"/>
-      <c r="BG86" s="1" t="s">
+      <c r="BE86" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="87" spans="53:61" x14ac:dyDescent="0.25">
-      <c r="BA87" s="1"/>
-      <c r="BG87" s="1" t="s">
+    <row r="87" spans="45:59" x14ac:dyDescent="0.25">
+      <c r="AS87" s="1"/>
+      <c r="AU87" s="1"/>
+      <c r="AW87" s="1"/>
+      <c r="AY87" s="1"/>
+      <c r="BE87" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="88" spans="53:61" x14ac:dyDescent="0.25">
-      <c r="BA88" s="1"/>
-      <c r="BI88" s="1" t="s">
+    <row r="88" spans="45:59" x14ac:dyDescent="0.25">
+      <c r="AS88" s="1"/>
+      <c r="AU88" s="1"/>
+      <c r="AW88" s="1"/>
+      <c r="AY88" s="1"/>
+      <c r="BG88" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="89" spans="53:61" x14ac:dyDescent="0.25">
-      <c r="BA89" s="1"/>
-      <c r="BI89" s="1" t="s">
+    <row r="89" spans="45:59" x14ac:dyDescent="0.25">
+      <c r="AS89" s="1"/>
+      <c r="AU89" s="1"/>
+      <c r="AW89" s="1"/>
+      <c r="AY89" s="1"/>
+      <c r="BG89" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="90" spans="53:61" x14ac:dyDescent="0.25">
-      <c r="BA90" s="1"/>
-    </row>
-    <row r="91" spans="53:61" x14ac:dyDescent="0.25">
-      <c r="BA91" s="1"/>
+    <row r="90" spans="45:59" x14ac:dyDescent="0.25">
+      <c r="AS90" s="1"/>
+      <c r="AU90" s="1"/>
+      <c r="AW90" s="1"/>
+      <c r="AY90" s="1"/>
+    </row>
+    <row r="91" spans="45:59" x14ac:dyDescent="0.25">
+      <c r="AS91" s="1"/>
+      <c r="AU91" s="1"/>
+      <c r="AW91" s="1"/>
+    </row>
+    <row r="92" spans="45:59" x14ac:dyDescent="0.25">
+      <c r="AS92" s="1"/>
+      <c r="AU92" s="1"/>
+      <c r="AW92" s="1"/>
+    </row>
+    <row r="93" spans="45:59" x14ac:dyDescent="0.25">
+      <c r="AS93" s="1"/>
+      <c r="AU93" s="1"/>
+      <c r="AW93" s="1"/>
+    </row>
+    <row r="94" spans="45:59" x14ac:dyDescent="0.25">
+      <c r="AS94" s="1"/>
+      <c r="AU94" s="1"/>
+      <c r="AW94" s="1"/>
+    </row>
+    <row r="95" spans="45:59" x14ac:dyDescent="0.25">
+      <c r="AS95" s="1"/>
+      <c r="AU95" s="1"/>
+      <c r="AW95" s="1"/>
+    </row>
+    <row r="96" spans="45:59" x14ac:dyDescent="0.25">
+      <c r="AS96" s="1"/>
+      <c r="AU96" s="1"/>
+      <c r="AW96" s="1"/>
+    </row>
+    <row r="97" spans="45:49" x14ac:dyDescent="0.25">
+      <c r="AS97" s="1"/>
+      <c r="AU97" s="1"/>
+      <c r="AW97" s="1"/>
+    </row>
+    <row r="98" spans="45:49" x14ac:dyDescent="0.25">
+      <c r="AS98" s="1"/>
+      <c r="AU98" s="1"/>
+    </row>
+    <row r="99" spans="45:49" x14ac:dyDescent="0.25">
+      <c r="AS99" s="1"/>
+    </row>
+    <row r="100" spans="45:49" x14ac:dyDescent="0.25">
+      <c r="AS100" s="1"/>
+    </row>
+    <row r="101" spans="45:49" x14ac:dyDescent="0.25">
+      <c r="AS101" s="1"/>
+    </row>
+    <row r="102" spans="45:49" x14ac:dyDescent="0.25">
+      <c r="AS102" s="1"/>
+    </row>
+    <row r="103" spans="45:49" x14ac:dyDescent="0.25">
+      <c r="AS103" s="1"/>
+    </row>
+    <row r="104" spans="45:49" x14ac:dyDescent="0.25">
+      <c r="AS104" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/_R.xlsx
+++ b/_R.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\RProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB1A4B3-2BC1-46CE-A3DC-121AC92E14D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C11F2059-3EFB-4AF1-BFAF-8D0525F152B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{88B916E1-658B-4CD8-9C7E-BE8A8C7A43A4}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="97">
   <si>
     <t>Funções_matemáticas</t>
   </si>
@@ -1382,677 +1382,672 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{381B06C2-E016-41F1-927E-D485097BBEBD}">
-  <dimension ref="A1:BG104"/>
+  <dimension ref="A1:BE103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="86" width="2.7109375" customWidth="1"/>
+    <col min="1" max="84" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="C2" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="E4" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="E5" s="1" t="s">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="C4" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="E6" s="1"/>
-      <c r="G6" t="s">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="C5" s="1"/>
+      <c r="E5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="E7" s="1"/>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="C6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="C7" s="1"/>
       <c r="I7" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="E8" s="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="C8" s="1"/>
       <c r="K8" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="E9" s="1"/>
-      <c r="M9" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="E10" s="1"/>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="C9" s="1"/>
+      <c r="K9" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="C10" s="1"/>
+      <c r="K10" s="1"/>
       <c r="M10" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="E11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="O11" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="E12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="O12" s="1" t="s">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="C11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="M11" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="E13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="O13" s="1" t="s">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="C12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="M12" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="AO13" s="1"/>
-    </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="E14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="O14" s="1" t="s">
+      <c r="AM12" s="1"/>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="C13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="M13" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AO14" s="1"/>
-    </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AM13" s="1"/>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="O14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="Q15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="S16" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="21:25" x14ac:dyDescent="0.25">
-      <c r="U17" s="1" t="s">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="S16" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="21:25" x14ac:dyDescent="0.25">
-      <c r="U18" s="1" t="s">
+    <row r="17" spans="19:23" x14ac:dyDescent="0.25">
+      <c r="S17" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="21:25" x14ac:dyDescent="0.25">
-      <c r="U19" s="1" t="s">
+    <row r="18" spans="19:23" x14ac:dyDescent="0.25">
+      <c r="S18" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="21:25" x14ac:dyDescent="0.25">
-      <c r="U20" s="1" t="s">
+    <row r="19" spans="19:23" x14ac:dyDescent="0.25">
+      <c r="S19" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="21:25" x14ac:dyDescent="0.25">
-      <c r="U21" s="1" t="s">
+    <row r="20" spans="19:23" x14ac:dyDescent="0.25">
+      <c r="S20" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="21:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="19:23" x14ac:dyDescent="0.25">
+      <c r="S21" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="19:23" x14ac:dyDescent="0.25">
+      <c r="S22" s="1"/>
       <c r="U22" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="21:25" x14ac:dyDescent="0.25">
-      <c r="U23" s="1"/>
-      <c r="W23" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="21:25" x14ac:dyDescent="0.25">
-      <c r="U24" s="1"/>
-      <c r="W24" s="1" t="s">
+    <row r="23" spans="19:23" x14ac:dyDescent="0.25">
+      <c r="S23" s="1"/>
+      <c r="U23" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="21:25" x14ac:dyDescent="0.25">
-      <c r="U25" s="1"/>
-      <c r="W25" s="1" t="s">
+    <row r="24" spans="19:23" x14ac:dyDescent="0.25">
+      <c r="S24" s="1"/>
+      <c r="U24" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="21:25" x14ac:dyDescent="0.25">
-      <c r="U26" s="1"/>
-      <c r="W26" s="1" t="s">
+    <row r="25" spans="19:23" x14ac:dyDescent="0.25">
+      <c r="S25" s="1"/>
+      <c r="U25" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="21:25" x14ac:dyDescent="0.25">
-      <c r="U27" s="1"/>
-      <c r="W27" s="1" t="s">
+    <row r="26" spans="19:23" x14ac:dyDescent="0.25">
+      <c r="S26" s="1"/>
+      <c r="U26" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="21:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="19:23" x14ac:dyDescent="0.25">
+      <c r="S27" s="1"/>
+      <c r="U27" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="19:23" x14ac:dyDescent="0.25">
+      <c r="S28" s="1"/>
       <c r="U28" s="1"/>
       <c r="W28" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="29" spans="21:25" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="19:23" x14ac:dyDescent="0.25">
+      <c r="S29" s="1"/>
       <c r="U29" s="1"/>
-      <c r="W29" s="1"/>
-      <c r="Y29" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30" spans="21:25" x14ac:dyDescent="0.25">
+      <c r="W29" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="19:23" x14ac:dyDescent="0.25">
+      <c r="S30" s="1"/>
       <c r="U30" s="1"/>
-      <c r="W30" s="1"/>
-      <c r="Y30" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="31" spans="21:25" x14ac:dyDescent="0.25">
+      <c r="W30" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="19:23" x14ac:dyDescent="0.25">
+      <c r="S31" s="1"/>
       <c r="U31" s="1"/>
-      <c r="W31" s="1"/>
-      <c r="Y31" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="32" spans="21:25" x14ac:dyDescent="0.25">
+      <c r="W31" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="19:23" x14ac:dyDescent="0.25">
+      <c r="S32" s="1"/>
       <c r="U32" s="1"/>
-      <c r="W32" s="1"/>
-      <c r="Y32" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="33" spans="21:35" x14ac:dyDescent="0.25">
-      <c r="U33" s="1"/>
-      <c r="W33" s="1"/>
+      <c r="W32" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="19:33" x14ac:dyDescent="0.25">
+      <c r="S33" s="1"/>
       <c r="Y33" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="34" spans="21:35" x14ac:dyDescent="0.25">
-      <c r="U34" s="1"/>
-      <c r="AA34" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="21:35" x14ac:dyDescent="0.25">
-      <c r="U35" s="1"/>
-      <c r="AA35" s="1" t="s">
+    <row r="34" spans="19:33" x14ac:dyDescent="0.25">
+      <c r="S34" s="1"/>
+      <c r="Y34" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="21:35" x14ac:dyDescent="0.25">
-      <c r="U36" s="1"/>
+    <row r="35" spans="19:33" x14ac:dyDescent="0.25">
+      <c r="S35" s="1"/>
+      <c r="Y35" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="19:33" x14ac:dyDescent="0.25">
+      <c r="Y36" s="1"/>
       <c r="AA36" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="37" spans="21:35" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="19:33" x14ac:dyDescent="0.25">
+      <c r="Y37" s="1"/>
       <c r="AA37" s="1"/>
       <c r="AC37" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="21:35" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="38" spans="19:33" x14ac:dyDescent="0.25">
+      <c r="Y38" s="1"/>
       <c r="AA38" s="1"/>
-      <c r="AC38" s="1"/>
-      <c r="AE38" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="39" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="AC38" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="39" spans="19:33" x14ac:dyDescent="0.25">
+      <c r="Y39" s="1"/>
       <c r="AA39" s="1"/>
-      <c r="AC39" s="1"/>
-      <c r="AE39" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="40" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="AC39" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="40" spans="19:33" x14ac:dyDescent="0.25">
+      <c r="Y40" s="1"/>
       <c r="AA40" s="1"/>
-      <c r="AC40" s="1"/>
-      <c r="AE40" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="41" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="AC40" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="41" spans="19:33" x14ac:dyDescent="0.25">
+      <c r="Y41" s="1"/>
       <c r="AA41" s="1"/>
-      <c r="AC41" s="1"/>
       <c r="AE41" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="42" spans="21:35" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="19:33" x14ac:dyDescent="0.25">
+      <c r="Y42" s="1"/>
       <c r="AA42" s="1"/>
-      <c r="AC42" s="1"/>
-      <c r="AG42" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="43" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="AE42" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="19:33" x14ac:dyDescent="0.25">
+      <c r="Y43" s="1"/>
       <c r="AA43" s="1"/>
-      <c r="AC43" s="1"/>
-      <c r="AG43" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="44" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="AE43" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="19:33" x14ac:dyDescent="0.25">
+      <c r="Y44" s="1"/>
       <c r="AA44" s="1"/>
-      <c r="AC44" s="1"/>
-      <c r="AG44" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="45" spans="21:35" x14ac:dyDescent="0.25">
+      <c r="AE44" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" spans="19:33" x14ac:dyDescent="0.25">
+      <c r="Y45" s="1"/>
       <c r="AA45" s="1"/>
-      <c r="AC45" s="1"/>
       <c r="AG45" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="46" spans="21:35" x14ac:dyDescent="0.25">
-      <c r="AA46" s="1"/>
-      <c r="AC46" s="1"/>
-      <c r="AI46" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="21:35" x14ac:dyDescent="0.25">
-      <c r="AA47" s="1"/>
-      <c r="AI47" s="1" t="s">
+    <row r="46" spans="19:33" x14ac:dyDescent="0.25">
+      <c r="Y46" s="1"/>
+      <c r="AG46" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="21:35" x14ac:dyDescent="0.25">
-      <c r="AA48" s="1"/>
-      <c r="AI48" s="1" t="s">
+    <row r="47" spans="19:33" x14ac:dyDescent="0.25">
+      <c r="Y47" s="1"/>
+      <c r="AG47" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="27:47" x14ac:dyDescent="0.25">
-      <c r="AA49" s="1"/>
+    <row r="48" spans="19:33" x14ac:dyDescent="0.25">
+      <c r="Y48" s="1"/>
+      <c r="AG48" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="49" spans="25:45" x14ac:dyDescent="0.25">
+      <c r="Y49" s="1"/>
+      <c r="AG49" s="1"/>
       <c r="AI49" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="50" spans="27:47" x14ac:dyDescent="0.25">
-      <c r="AA50" s="1"/>
-      <c r="AI50" s="1"/>
-      <c r="AK50" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="51" spans="27:47" x14ac:dyDescent="0.25">
-      <c r="AA51" s="1"/>
-      <c r="AI51" s="1"/>
-      <c r="AK51" s="1" t="s">
+    <row r="50" spans="25:45" x14ac:dyDescent="0.25">
+      <c r="Y50" s="1"/>
+      <c r="AG50" s="1"/>
+      <c r="AI50" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="52" spans="27:47" x14ac:dyDescent="0.25">
-      <c r="AA52" s="1"/>
-      <c r="AI52" s="1"/>
-      <c r="AK52" s="1" t="s">
+    <row r="51" spans="25:45" x14ac:dyDescent="0.25">
+      <c r="Y51" s="1"/>
+      <c r="AG51" s="1"/>
+      <c r="AI51" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="53" spans="27:47" x14ac:dyDescent="0.25">
-      <c r="AA53" s="1"/>
+    <row r="52" spans="25:45" x14ac:dyDescent="0.25">
+      <c r="Y52" s="1"/>
+      <c r="AG52" s="1"/>
+      <c r="AI52" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="53" spans="25:45" x14ac:dyDescent="0.25">
+      <c r="Y53" s="1"/>
+      <c r="AG53" s="1"/>
       <c r="AI53" s="1"/>
       <c r="AK53" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="54" spans="27:47" x14ac:dyDescent="0.25">
-      <c r="AA54" s="1"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="54" spans="25:45" x14ac:dyDescent="0.25">
+      <c r="Y54" s="1"/>
+      <c r="AG54" s="1"/>
       <c r="AI54" s="1"/>
-      <c r="AK54" s="1"/>
       <c r="AM54" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="55" spans="27:47" x14ac:dyDescent="0.25">
-      <c r="AA55" s="1"/>
-      <c r="AI55" s="1"/>
-      <c r="AK55" s="1"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="55" spans="25:45" x14ac:dyDescent="0.25">
+      <c r="Y55" s="1"/>
       <c r="AO55" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="56" spans="27:47" x14ac:dyDescent="0.25">
-      <c r="AA56" s="1"/>
-      <c r="AQ56" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="57" spans="27:47" x14ac:dyDescent="0.25">
-      <c r="AA57" s="1"/>
-      <c r="AQ57" s="1" t="s">
+    <row r="56" spans="25:45" x14ac:dyDescent="0.25">
+      <c r="Y56" s="1"/>
+      <c r="AO56" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="58" spans="27:47" x14ac:dyDescent="0.25">
-      <c r="AA58" s="1"/>
-      <c r="AQ58" s="1" t="s">
+    <row r="57" spans="25:45" x14ac:dyDescent="0.25">
+      <c r="Y57" s="1"/>
+      <c r="AO57" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="59" spans="27:47" x14ac:dyDescent="0.25">
-      <c r="AA59" s="1"/>
-      <c r="AQ59" s="1" t="s">
+    <row r="58" spans="25:45" x14ac:dyDescent="0.25">
+      <c r="Y58" s="1"/>
+      <c r="AO58" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="60" spans="27:47" x14ac:dyDescent="0.25">
-      <c r="AA60" s="1"/>
+    <row r="59" spans="25:45" x14ac:dyDescent="0.25">
+      <c r="Y59" s="1"/>
+      <c r="AO59" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="60" spans="25:45" x14ac:dyDescent="0.25">
       <c r="AQ60" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="61" spans="27:47" x14ac:dyDescent="0.25">
-      <c r="AS61" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="62" spans="27:47" x14ac:dyDescent="0.25">
-      <c r="AS62" s="1" t="s">
+    <row r="61" spans="25:45" x14ac:dyDescent="0.25">
+      <c r="AQ61" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="63" spans="27:47" x14ac:dyDescent="0.25">
+    <row r="62" spans="25:45" x14ac:dyDescent="0.25">
+      <c r="AQ62" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="63" spans="25:45" x14ac:dyDescent="0.25">
+      <c r="AQ63" s="1"/>
       <c r="AS63" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="64" spans="27:47" x14ac:dyDescent="0.25">
-      <c r="AS64" s="1"/>
-      <c r="AU64" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="65" spans="45:53" x14ac:dyDescent="0.25">
-      <c r="AS65" s="1"/>
-      <c r="AU65" s="1" t="s">
+    <row r="64" spans="25:45" x14ac:dyDescent="0.25">
+      <c r="AQ64" s="1"/>
+      <c r="AS64" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="66" spans="45:53" x14ac:dyDescent="0.25">
+    <row r="65" spans="43:51" x14ac:dyDescent="0.25">
+      <c r="AQ65" s="1"/>
+      <c r="AS65" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="66" spans="43:51" x14ac:dyDescent="0.25">
+      <c r="AQ66" s="1"/>
       <c r="AS66" s="1"/>
       <c r="AU66" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="67" spans="45:53" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="67" spans="43:51" x14ac:dyDescent="0.25">
+      <c r="AQ67" s="1"/>
       <c r="AS67" s="1"/>
-      <c r="AU67" s="1"/>
-      <c r="AW67" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="68" spans="45:53" x14ac:dyDescent="0.25">
+      <c r="AU67" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="68" spans="43:51" x14ac:dyDescent="0.25">
+      <c r="AQ68" s="1"/>
       <c r="AS68" s="1"/>
-      <c r="AU68" s="1"/>
-      <c r="AW68" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="69" spans="45:53" x14ac:dyDescent="0.25">
+      <c r="AU68" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="69" spans="43:51" x14ac:dyDescent="0.25">
+      <c r="AQ69" s="1"/>
       <c r="AS69" s="1"/>
-      <c r="AU69" s="1"/>
-      <c r="AW69" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="70" spans="45:53" x14ac:dyDescent="0.25">
+      <c r="AU69" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="70" spans="43:51" x14ac:dyDescent="0.25">
+      <c r="AQ70" s="1"/>
       <c r="AS70" s="1"/>
-      <c r="AU70" s="1"/>
-      <c r="AW70" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="71" spans="45:53" x14ac:dyDescent="0.25">
+      <c r="AU70" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="71" spans="43:51" x14ac:dyDescent="0.25">
+      <c r="AQ71" s="1"/>
       <c r="AS71" s="1"/>
-      <c r="AU71" s="1"/>
-      <c r="AW71" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="72" spans="45:53" x14ac:dyDescent="0.25">
+      <c r="AU71" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="72" spans="43:51" x14ac:dyDescent="0.25">
+      <c r="AQ72" s="1"/>
       <c r="AS72" s="1"/>
-      <c r="AU72" s="1"/>
-      <c r="AW72" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="73" spans="45:53" x14ac:dyDescent="0.25">
+      <c r="AU72" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="73" spans="43:51" x14ac:dyDescent="0.25">
+      <c r="AQ73" s="1"/>
       <c r="AS73" s="1"/>
       <c r="AU73" s="1"/>
       <c r="AW73" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="74" spans="45:53" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="43:51" x14ac:dyDescent="0.25">
+      <c r="AQ74" s="1"/>
       <c r="AS74" s="1"/>
       <c r="AU74" s="1"/>
-      <c r="AW74" s="1"/>
-      <c r="AY74" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="75" spans="45:53" x14ac:dyDescent="0.25">
+      <c r="AW74" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="75" spans="43:51" x14ac:dyDescent="0.25">
+      <c r="AQ75" s="1"/>
       <c r="AS75" s="1"/>
       <c r="AU75" s="1"/>
-      <c r="AW75" s="1"/>
-      <c r="AY75" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="76" spans="45:53" x14ac:dyDescent="0.25">
+      <c r="AW75" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="76" spans="43:51" x14ac:dyDescent="0.25">
+      <c r="AQ76" s="1"/>
       <c r="AS76" s="1"/>
       <c r="AU76" s="1"/>
       <c r="AW76" s="1"/>
       <c r="AY76" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="77" spans="45:53" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="77" spans="43:51" x14ac:dyDescent="0.25">
+      <c r="AQ77" s="1"/>
       <c r="AS77" s="1"/>
       <c r="AU77" s="1"/>
       <c r="AW77" s="1"/>
-      <c r="AY77" s="1"/>
-      <c r="BA77" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="78" spans="45:53" x14ac:dyDescent="0.25">
+      <c r="AY77" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="43:51" x14ac:dyDescent="0.25">
+      <c r="AQ78" s="1"/>
       <c r="AS78" s="1"/>
       <c r="AU78" s="1"/>
       <c r="AW78" s="1"/>
-      <c r="AY78" s="1"/>
-      <c r="BA78" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="79" spans="45:53" x14ac:dyDescent="0.25">
+      <c r="AY78" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="79" spans="43:51" x14ac:dyDescent="0.25">
+      <c r="AQ79" s="1"/>
       <c r="AS79" s="1"/>
       <c r="AU79" s="1"/>
       <c r="AW79" s="1"/>
-      <c r="AY79" s="1"/>
-      <c r="BA79" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="80" spans="45:53" x14ac:dyDescent="0.25">
+      <c r="AY79" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="80" spans="43:51" x14ac:dyDescent="0.25">
+      <c r="AQ80" s="1"/>
       <c r="AS80" s="1"/>
       <c r="AU80" s="1"/>
       <c r="AW80" s="1"/>
-      <c r="AY80" s="1"/>
-      <c r="BA80" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="81" spans="45:59" x14ac:dyDescent="0.25">
+      <c r="AY80" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="81" spans="43:57" x14ac:dyDescent="0.25">
+      <c r="AQ81" s="1"/>
       <c r="AS81" s="1"/>
       <c r="AU81" s="1"/>
       <c r="AW81" s="1"/>
-      <c r="AY81" s="1"/>
-      <c r="BA81" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="82" spans="45:59" x14ac:dyDescent="0.25">
+      <c r="AY81" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="82" spans="43:57" x14ac:dyDescent="0.25">
+      <c r="AQ82" s="1"/>
       <c r="AS82" s="1"/>
       <c r="AU82" s="1"/>
       <c r="AW82" s="1"/>
-      <c r="AY82" s="1"/>
-      <c r="BA82" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="83" spans="45:59" x14ac:dyDescent="0.25">
+      <c r="AY82" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="83" spans="43:57" x14ac:dyDescent="0.25">
+      <c r="AQ83" s="1"/>
       <c r="AS83" s="1"/>
       <c r="AU83" s="1"/>
       <c r="AW83" s="1"/>
-      <c r="AY83" s="1"/>
       <c r="BA83" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="84" spans="45:59" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="84" spans="43:57" x14ac:dyDescent="0.25">
+      <c r="AQ84" s="1"/>
       <c r="AS84" s="1"/>
       <c r="AU84" s="1"/>
       <c r="AW84" s="1"/>
       <c r="AY84" s="1"/>
       <c r="BC84" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="85" spans="45:59" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="85" spans="43:57" x14ac:dyDescent="0.25">
+      <c r="AQ85" s="1"/>
       <c r="AS85" s="1"/>
       <c r="AU85" s="1"/>
       <c r="AW85" s="1"/>
       <c r="AY85" s="1"/>
-      <c r="BA85" s="1"/>
-      <c r="BE85" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="86" spans="45:59" x14ac:dyDescent="0.25">
+      <c r="BC85" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="86" spans="43:57" x14ac:dyDescent="0.25">
+      <c r="AQ86" s="1"/>
       <c r="AS86" s="1"/>
       <c r="AU86" s="1"/>
       <c r="AW86" s="1"/>
-      <c r="AY86" s="1"/>
-      <c r="BA86" s="1"/>
-      <c r="BE86" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="87" spans="45:59" x14ac:dyDescent="0.25">
+      <c r="BC86" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="87" spans="43:57" x14ac:dyDescent="0.25">
+      <c r="AQ87" s="1"/>
       <c r="AS87" s="1"/>
       <c r="AU87" s="1"/>
       <c r="AW87" s="1"/>
-      <c r="AY87" s="1"/>
       <c r="BE87" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="88" spans="45:59" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="88" spans="43:57" x14ac:dyDescent="0.25">
+      <c r="AQ88" s="1"/>
       <c r="AS88" s="1"/>
       <c r="AU88" s="1"/>
       <c r="AW88" s="1"/>
-      <c r="AY88" s="1"/>
-      <c r="BG88" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="89" spans="45:59" x14ac:dyDescent="0.25">
+      <c r="BE88" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="89" spans="43:57" x14ac:dyDescent="0.25">
+      <c r="AQ89" s="1"/>
       <c r="AS89" s="1"/>
       <c r="AU89" s="1"/>
       <c r="AW89" s="1"/>
-      <c r="AY89" s="1"/>
-      <c r="BG89" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="90" spans="45:59" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="43:57" x14ac:dyDescent="0.25">
+      <c r="AQ90" s="1"/>
       <c r="AS90" s="1"/>
       <c r="AU90" s="1"/>
-      <c r="AW90" s="1"/>
-      <c r="AY90" s="1"/>
-    </row>
-    <row r="91" spans="45:59" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="43:57" x14ac:dyDescent="0.25">
+      <c r="AQ91" s="1"/>
       <c r="AS91" s="1"/>
       <c r="AU91" s="1"/>
-      <c r="AW91" s="1"/>
-    </row>
-    <row r="92" spans="45:59" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="43:57" x14ac:dyDescent="0.25">
+      <c r="AQ92" s="1"/>
       <c r="AS92" s="1"/>
       <c r="AU92" s="1"/>
-      <c r="AW92" s="1"/>
-    </row>
-    <row r="93" spans="45:59" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="43:57" x14ac:dyDescent="0.25">
+      <c r="AQ93" s="1"/>
       <c r="AS93" s="1"/>
       <c r="AU93" s="1"/>
-      <c r="AW93" s="1"/>
-    </row>
-    <row r="94" spans="45:59" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="43:57" x14ac:dyDescent="0.25">
+      <c r="AQ94" s="1"/>
       <c r="AS94" s="1"/>
       <c r="AU94" s="1"/>
-      <c r="AW94" s="1"/>
-    </row>
-    <row r="95" spans="45:59" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="43:57" x14ac:dyDescent="0.25">
+      <c r="AQ95" s="1"/>
       <c r="AS95" s="1"/>
       <c r="AU95" s="1"/>
-      <c r="AW95" s="1"/>
-    </row>
-    <row r="96" spans="45:59" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="43:57" x14ac:dyDescent="0.25">
+      <c r="AQ96" s="1"/>
       <c r="AS96" s="1"/>
       <c r="AU96" s="1"/>
-      <c r="AW96" s="1"/>
-    </row>
-    <row r="97" spans="45:49" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="43:45" x14ac:dyDescent="0.25">
+      <c r="AQ97" s="1"/>
       <c r="AS97" s="1"/>
-      <c r="AU97" s="1"/>
-      <c r="AW97" s="1"/>
-    </row>
-    <row r="98" spans="45:49" x14ac:dyDescent="0.25">
-      <c r="AS98" s="1"/>
-      <c r="AU98" s="1"/>
-    </row>
-    <row r="99" spans="45:49" x14ac:dyDescent="0.25">
-      <c r="AS99" s="1"/>
-    </row>
-    <row r="100" spans="45:49" x14ac:dyDescent="0.25">
-      <c r="AS100" s="1"/>
-    </row>
-    <row r="101" spans="45:49" x14ac:dyDescent="0.25">
-      <c r="AS101" s="1"/>
-    </row>
-    <row r="102" spans="45:49" x14ac:dyDescent="0.25">
-      <c r="AS102" s="1"/>
-    </row>
-    <row r="103" spans="45:49" x14ac:dyDescent="0.25">
-      <c r="AS103" s="1"/>
-    </row>
-    <row r="104" spans="45:49" x14ac:dyDescent="0.25">
-      <c r="AS104" s="1"/>
+    </row>
+    <row r="98" spans="43:45" x14ac:dyDescent="0.25">
+      <c r="AQ98" s="1"/>
+    </row>
+    <row r="99" spans="43:45" x14ac:dyDescent="0.25">
+      <c r="AQ99" s="1"/>
+    </row>
+    <row r="100" spans="43:45" x14ac:dyDescent="0.25">
+      <c r="AQ100" s="1"/>
+    </row>
+    <row r="101" spans="43:45" x14ac:dyDescent="0.25">
+      <c r="AQ101" s="1"/>
+    </row>
+    <row r="102" spans="43:45" x14ac:dyDescent="0.25">
+      <c r="AQ102" s="1"/>
+    </row>
+    <row r="103" spans="43:45" x14ac:dyDescent="0.25">
+      <c r="AQ103" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/_R.xlsx
+++ b/_R.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\RProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C11F2059-3EFB-4AF1-BFAF-8D0525F152B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92914122-E589-4CB5-A9D4-83DBA7B984B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{88B916E1-658B-4CD8-9C7E-BE8A8C7A43A4}"/>
   </bookViews>

--- a/_R.xlsx
+++ b/_R.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\RProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92914122-E589-4CB5-A9D4-83DBA7B984B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C034F810-CA4D-47E9-BF62-F7612F56E356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{88B916E1-658B-4CD8-9C7E-BE8A8C7A43A4}"/>
   </bookViews>

--- a/_R.xlsx
+++ b/_R.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\RProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C034F810-CA4D-47E9-BF62-F7612F56E356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F66C54-E100-4C1F-8717-112E213CF740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{88B916E1-658B-4CD8-9C7E-BE8A8C7A43A4}"/>
   </bookViews>

--- a/_R.xlsx
+++ b/_R.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\RProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F66C54-E100-4C1F-8717-112E213CF740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85758946-8717-4F8E-AA96-A2445AD54B7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{88B916E1-658B-4CD8-9C7E-BE8A8C7A43A4}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="97">
   <si>
     <t>Funções_matemáticas</t>
   </si>
@@ -1382,672 +1382,634 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{381B06C2-E016-41F1-927E-D485097BBEBD}">
-  <dimension ref="A1:BE103"/>
+  <dimension ref="A1:AU97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="84" width="2.7109375" customWidth="1"/>
+    <col min="1" max="59" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C5" s="1"/>
-      <c r="E5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="E5" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C7" s="1"/>
-      <c r="I7" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="G7" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C8" s="1"/>
-      <c r="K8" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="G8" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC8" s="1"/>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C9" s="1"/>
-      <c r="K9" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="C10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="M10" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="C11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="M11" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="C12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="M12" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AM12" s="1"/>
-    </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="C13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="M13" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AM13" s="1"/>
-    </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="O14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="Q15" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="S16" s="1" t="s">
+      <c r="AC9" s="1"/>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="I10" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="19:23" x14ac:dyDescent="0.25">
-      <c r="S17" s="1" t="s">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="I11" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="19:23" x14ac:dyDescent="0.25">
-      <c r="S18" s="1" t="s">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="I12" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="19:23" x14ac:dyDescent="0.25">
-      <c r="S19" s="1" t="s">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="I13" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="19:23" x14ac:dyDescent="0.25">
-      <c r="S20" s="1" t="s">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="I14" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="19:23" x14ac:dyDescent="0.25">
-      <c r="S21" s="1" t="s">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="I15" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="19:23" x14ac:dyDescent="0.25">
-      <c r="S22" s="1"/>
-      <c r="U22" s="1" t="s">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="I16" s="1"/>
+      <c r="K16" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="19:23" x14ac:dyDescent="0.25">
-      <c r="S23" s="1"/>
-      <c r="U23" s="1" t="s">
+    <row r="17" spans="9:19" x14ac:dyDescent="0.25">
+      <c r="I17" s="1"/>
+      <c r="K17" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="19:23" x14ac:dyDescent="0.25">
-      <c r="S24" s="1"/>
-      <c r="U24" s="1" t="s">
+    <row r="18" spans="9:19" x14ac:dyDescent="0.25">
+      <c r="I18" s="1"/>
+      <c r="K18" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="19:23" x14ac:dyDescent="0.25">
-      <c r="S25" s="1"/>
-      <c r="U25" s="1" t="s">
+    <row r="19" spans="9:19" x14ac:dyDescent="0.25">
+      <c r="I19" s="1"/>
+      <c r="K19" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="19:23" x14ac:dyDescent="0.25">
-      <c r="S26" s="1"/>
-      <c r="U26" s="1" t="s">
+    <row r="20" spans="9:19" x14ac:dyDescent="0.25">
+      <c r="I20" s="1"/>
+      <c r="K20" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="27" spans="19:23" x14ac:dyDescent="0.25">
-      <c r="S27" s="1"/>
-      <c r="U27" s="1" t="s">
+    <row r="21" spans="9:19" x14ac:dyDescent="0.25">
+      <c r="I21" s="1"/>
+      <c r="K21" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="19:23" x14ac:dyDescent="0.25">
-      <c r="S28" s="1"/>
-      <c r="U28" s="1"/>
-      <c r="W28" s="1" t="s">
+    <row r="22" spans="9:19" x14ac:dyDescent="0.25">
+      <c r="I22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="M22" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="19:23" x14ac:dyDescent="0.25">
-      <c r="S29" s="1"/>
-      <c r="U29" s="1"/>
-      <c r="W29" s="1" t="s">
+    <row r="23" spans="9:19" x14ac:dyDescent="0.25">
+      <c r="I23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="M23" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="19:23" x14ac:dyDescent="0.25">
-      <c r="S30" s="1"/>
-      <c r="U30" s="1"/>
-      <c r="W30" s="1" t="s">
+    <row r="24" spans="9:19" x14ac:dyDescent="0.25">
+      <c r="I24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="M24" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="31" spans="19:23" x14ac:dyDescent="0.25">
-      <c r="S31" s="1"/>
-      <c r="U31" s="1"/>
-      <c r="W31" s="1" t="s">
+    <row r="25" spans="9:19" x14ac:dyDescent="0.25">
+      <c r="I25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="M25" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="19:23" x14ac:dyDescent="0.25">
-      <c r="S32" s="1"/>
-      <c r="U32" s="1"/>
-      <c r="W32" s="1" t="s">
+    <row r="26" spans="9:19" x14ac:dyDescent="0.25">
+      <c r="I26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="M26" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="19:33" x14ac:dyDescent="0.25">
-      <c r="S33" s="1"/>
-      <c r="Y33" s="1" t="s">
+    <row r="27" spans="9:19" x14ac:dyDescent="0.25">
+      <c r="I27" s="1"/>
+      <c r="O27" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="19:33" x14ac:dyDescent="0.25">
-      <c r="S34" s="1"/>
-      <c r="Y34" s="1" t="s">
+    <row r="28" spans="9:19" x14ac:dyDescent="0.25">
+      <c r="I28" s="1"/>
+      <c r="O28" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="19:33" x14ac:dyDescent="0.25">
-      <c r="S35" s="1"/>
-      <c r="Y35" s="1" t="s">
+    <row r="29" spans="9:19" x14ac:dyDescent="0.25">
+      <c r="I29" s="1"/>
+      <c r="O29" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="19:33" x14ac:dyDescent="0.25">
-      <c r="Y36" s="1"/>
-      <c r="AA36" s="1" t="s">
+    <row r="30" spans="9:19" x14ac:dyDescent="0.25">
+      <c r="O30" s="1"/>
+      <c r="Q30" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="19:33" x14ac:dyDescent="0.25">
-      <c r="Y37" s="1"/>
-      <c r="AA37" s="1"/>
-      <c r="AC37" s="1" t="s">
+    <row r="31" spans="9:19" x14ac:dyDescent="0.25">
+      <c r="O31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="S31" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="38" spans="19:33" x14ac:dyDescent="0.25">
-      <c r="Y38" s="1"/>
-      <c r="AA38" s="1"/>
-      <c r="AC38" s="1" t="s">
+    <row r="32" spans="9:19" x14ac:dyDescent="0.25">
+      <c r="O32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="S32" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="39" spans="19:33" x14ac:dyDescent="0.25">
-      <c r="Y39" s="1"/>
-      <c r="AA39" s="1"/>
-      <c r="AC39" s="1" t="s">
+    <row r="33" spans="15:29" x14ac:dyDescent="0.25">
+      <c r="O33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="S33" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="40" spans="19:33" x14ac:dyDescent="0.25">
-      <c r="Y40" s="1"/>
-      <c r="AA40" s="1"/>
-      <c r="AC40" s="1" t="s">
+    <row r="34" spans="15:29" x14ac:dyDescent="0.25">
+      <c r="O34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="S34" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="41" spans="19:33" x14ac:dyDescent="0.25">
-      <c r="Y41" s="1"/>
-      <c r="AA41" s="1"/>
-      <c r="AE41" s="1" t="s">
+    <row r="35" spans="15:29" x14ac:dyDescent="0.25">
+      <c r="O35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="U35" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="42" spans="19:33" x14ac:dyDescent="0.25">
-      <c r="Y42" s="1"/>
-      <c r="AA42" s="1"/>
-      <c r="AE42" s="1" t="s">
+    <row r="36" spans="15:29" x14ac:dyDescent="0.25">
+      <c r="O36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="U36" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="43" spans="19:33" x14ac:dyDescent="0.25">
-      <c r="Y43" s="1"/>
-      <c r="AA43" s="1"/>
-      <c r="AE43" s="1" t="s">
+    <row r="37" spans="15:29" x14ac:dyDescent="0.25">
+      <c r="O37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="U37" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="19:33" x14ac:dyDescent="0.25">
-      <c r="Y44" s="1"/>
-      <c r="AA44" s="1"/>
-      <c r="AE44" s="1" t="s">
+    <row r="38" spans="15:29" x14ac:dyDescent="0.25">
+      <c r="O38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="U38" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="45" spans="19:33" x14ac:dyDescent="0.25">
-      <c r="Y45" s="1"/>
-      <c r="AA45" s="1"/>
-      <c r="AG45" s="1" t="s">
+    <row r="39" spans="15:29" x14ac:dyDescent="0.25">
+      <c r="O39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="W39" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="19:33" x14ac:dyDescent="0.25">
-      <c r="Y46" s="1"/>
-      <c r="AG46" s="1" t="s">
+    <row r="40" spans="15:29" x14ac:dyDescent="0.25">
+      <c r="O40" s="1"/>
+      <c r="W40" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="47" spans="19:33" x14ac:dyDescent="0.25">
+    <row r="41" spans="15:29" x14ac:dyDescent="0.25">
+      <c r="O41" s="1"/>
+      <c r="W41" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="15:29" x14ac:dyDescent="0.25">
+      <c r="O42" s="1"/>
+      <c r="W42" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="15:29" x14ac:dyDescent="0.25">
+      <c r="O43" s="1"/>
+      <c r="W43" s="1"/>
+      <c r="Y43" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="15:29" x14ac:dyDescent="0.25">
+      <c r="O44" s="1"/>
+      <c r="W44" s="1"/>
+      <c r="Y44" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="45" spans="15:29" x14ac:dyDescent="0.25">
+      <c r="O45" s="1"/>
+      <c r="W45" s="1"/>
+      <c r="Y45" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" spans="15:29" x14ac:dyDescent="0.25">
+      <c r="O46" s="1"/>
+      <c r="W46" s="1"/>
+      <c r="Y46" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="47" spans="15:29" x14ac:dyDescent="0.25">
+      <c r="O47" s="1"/>
+      <c r="W47" s="1"/>
       <c r="Y47" s="1"/>
-      <c r="AG47" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="48" spans="19:33" x14ac:dyDescent="0.25">
+      <c r="AA47" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="48" spans="15:29" x14ac:dyDescent="0.25">
+      <c r="O48" s="1"/>
+      <c r="W48" s="1"/>
       <c r="Y48" s="1"/>
-      <c r="AG48" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="49" spans="25:45" x14ac:dyDescent="0.25">
-      <c r="Y49" s="1"/>
-      <c r="AG49" s="1"/>
-      <c r="AI49" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="50" spans="25:45" x14ac:dyDescent="0.25">
-      <c r="Y50" s="1"/>
-      <c r="AG50" s="1"/>
-      <c r="AI50" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="51" spans="25:45" x14ac:dyDescent="0.25">
-      <c r="Y51" s="1"/>
-      <c r="AG51" s="1"/>
-      <c r="AI51" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="52" spans="25:45" x14ac:dyDescent="0.25">
-      <c r="Y52" s="1"/>
-      <c r="AG52" s="1"/>
-      <c r="AI52" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="53" spans="25:45" x14ac:dyDescent="0.25">
-      <c r="Y53" s="1"/>
-      <c r="AG53" s="1"/>
-      <c r="AI53" s="1"/>
-      <c r="AK53" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="54" spans="25:45" x14ac:dyDescent="0.25">
-      <c r="Y54" s="1"/>
-      <c r="AG54" s="1"/>
-      <c r="AI54" s="1"/>
-      <c r="AM54" s="1" t="s">
+      <c r="AC48" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="55" spans="25:45" x14ac:dyDescent="0.25">
-      <c r="Y55" s="1"/>
-      <c r="AO55" s="1" t="s">
+    <row r="49" spans="15:37" x14ac:dyDescent="0.25">
+      <c r="O49" s="1"/>
+      <c r="AE49" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="56" spans="25:45" x14ac:dyDescent="0.25">
-      <c r="Y56" s="1"/>
-      <c r="AO56" s="1" t="s">
+    <row r="50" spans="15:37" x14ac:dyDescent="0.25">
+      <c r="O50" s="1"/>
+      <c r="AE50" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="57" spans="25:45" x14ac:dyDescent="0.25">
-      <c r="Y57" s="1"/>
-      <c r="AO57" s="1" t="s">
+    <row r="51" spans="15:37" x14ac:dyDescent="0.25">
+      <c r="O51" s="1"/>
+      <c r="AE51" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="58" spans="25:45" x14ac:dyDescent="0.25">
-      <c r="Y58" s="1"/>
-      <c r="AO58" s="1" t="s">
+    <row r="52" spans="15:37" x14ac:dyDescent="0.25">
+      <c r="O52" s="1"/>
+      <c r="AE52" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="59" spans="25:45" x14ac:dyDescent="0.25">
-      <c r="Y59" s="1"/>
-      <c r="AO59" s="1" t="s">
+    <row r="53" spans="15:37" x14ac:dyDescent="0.25">
+      <c r="O53" s="1"/>
+      <c r="AE53" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="60" spans="25:45" x14ac:dyDescent="0.25">
-      <c r="AQ60" s="1" t="s">
+    <row r="54" spans="15:37" x14ac:dyDescent="0.25">
+      <c r="AG54" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="61" spans="25:45" x14ac:dyDescent="0.25">
-      <c r="AQ61" s="1" t="s">
+    <row r="55" spans="15:37" x14ac:dyDescent="0.25">
+      <c r="AG55" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="62" spans="25:45" x14ac:dyDescent="0.25">
-      <c r="AQ62" s="1" t="s">
+    <row r="56" spans="15:37" x14ac:dyDescent="0.25">
+      <c r="AG56" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="63" spans="25:45" x14ac:dyDescent="0.25">
-      <c r="AQ63" s="1"/>
-      <c r="AS63" s="1" t="s">
+    <row r="57" spans="15:37" x14ac:dyDescent="0.25">
+      <c r="AG57" s="1"/>
+      <c r="AI57" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="64" spans="25:45" x14ac:dyDescent="0.25">
-      <c r="AQ64" s="1"/>
-      <c r="AS64" s="1" t="s">
+    <row r="58" spans="15:37" x14ac:dyDescent="0.25">
+      <c r="AG58" s="1"/>
+      <c r="AI58" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="65" spans="43:51" x14ac:dyDescent="0.25">
-      <c r="AQ65" s="1"/>
-      <c r="AS65" s="1" t="s">
+    <row r="59" spans="15:37" x14ac:dyDescent="0.25">
+      <c r="AG59" s="1"/>
+      <c r="AI59" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="66" spans="43:51" x14ac:dyDescent="0.25">
-      <c r="AQ66" s="1"/>
-      <c r="AS66" s="1"/>
-      <c r="AU66" s="1" t="s">
+    <row r="60" spans="15:37" x14ac:dyDescent="0.25">
+      <c r="AG60" s="1"/>
+      <c r="AI60" s="1"/>
+      <c r="AK60" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="67" spans="43:51" x14ac:dyDescent="0.25">
-      <c r="AQ67" s="1"/>
-      <c r="AS67" s="1"/>
-      <c r="AU67" s="1" t="s">
+    <row r="61" spans="15:37" x14ac:dyDescent="0.25">
+      <c r="AG61" s="1"/>
+      <c r="AI61" s="1"/>
+      <c r="AK61" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="68" spans="43:51" x14ac:dyDescent="0.25">
-      <c r="AQ68" s="1"/>
-      <c r="AS68" s="1"/>
-      <c r="AU68" s="1" t="s">
+    <row r="62" spans="15:37" x14ac:dyDescent="0.25">
+      <c r="AG62" s="1"/>
+      <c r="AI62" s="1"/>
+      <c r="AK62" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="69" spans="43:51" x14ac:dyDescent="0.25">
-      <c r="AQ69" s="1"/>
-      <c r="AS69" s="1"/>
-      <c r="AU69" s="1" t="s">
+    <row r="63" spans="15:37" x14ac:dyDescent="0.25">
+      <c r="AG63" s="1"/>
+      <c r="AI63" s="1"/>
+      <c r="AK63" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="70" spans="43:51" x14ac:dyDescent="0.25">
-      <c r="AQ70" s="1"/>
-      <c r="AS70" s="1"/>
-      <c r="AU70" s="1" t="s">
+    <row r="64" spans="15:37" x14ac:dyDescent="0.25">
+      <c r="AG64" s="1"/>
+      <c r="AI64" s="1"/>
+      <c r="AK64" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="71" spans="43:51" x14ac:dyDescent="0.25">
-      <c r="AQ71" s="1"/>
-      <c r="AS71" s="1"/>
-      <c r="AU71" s="1" t="s">
+    <row r="65" spans="33:45" x14ac:dyDescent="0.25">
+      <c r="AG65" s="1"/>
+      <c r="AI65" s="1"/>
+      <c r="AK65" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="72" spans="43:51" x14ac:dyDescent="0.25">
-      <c r="AQ72" s="1"/>
-      <c r="AS72" s="1"/>
-      <c r="AU72" s="1" t="s">
+    <row r="66" spans="33:45" x14ac:dyDescent="0.25">
+      <c r="AG66" s="1"/>
+      <c r="AI66" s="1"/>
+      <c r="AK66" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="73" spans="43:51" x14ac:dyDescent="0.25">
-      <c r="AQ73" s="1"/>
-      <c r="AS73" s="1"/>
-      <c r="AU73" s="1"/>
-      <c r="AW73" s="1" t="s">
+    <row r="67" spans="33:45" x14ac:dyDescent="0.25">
+      <c r="AG67" s="1"/>
+      <c r="AI67" s="1"/>
+      <c r="AK67" s="1"/>
+      <c r="AM67" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="43:51" x14ac:dyDescent="0.25">
-      <c r="AQ74" s="1"/>
-      <c r="AS74" s="1"/>
-      <c r="AU74" s="1"/>
-      <c r="AW74" s="1" t="s">
+    <row r="68" spans="33:45" x14ac:dyDescent="0.25">
+      <c r="AG68" s="1"/>
+      <c r="AI68" s="1"/>
+      <c r="AK68" s="1"/>
+      <c r="AM68" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="75" spans="43:51" x14ac:dyDescent="0.25">
-      <c r="AQ75" s="1"/>
-      <c r="AS75" s="1"/>
-      <c r="AU75" s="1"/>
-      <c r="AW75" s="1" t="s">
+    <row r="69" spans="33:45" x14ac:dyDescent="0.25">
+      <c r="AG69" s="1"/>
+      <c r="AI69" s="1"/>
+      <c r="AK69" s="1"/>
+      <c r="AM69" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="76" spans="43:51" x14ac:dyDescent="0.25">
-      <c r="AQ76" s="1"/>
-      <c r="AS76" s="1"/>
-      <c r="AU76" s="1"/>
-      <c r="AW76" s="1"/>
-      <c r="AY76" s="1" t="s">
+    <row r="70" spans="33:45" x14ac:dyDescent="0.25">
+      <c r="AG70" s="1"/>
+      <c r="AI70" s="1"/>
+      <c r="AK70" s="1"/>
+      <c r="AM70" s="1"/>
+      <c r="AO70" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="77" spans="43:51" x14ac:dyDescent="0.25">
-      <c r="AQ77" s="1"/>
-      <c r="AS77" s="1"/>
-      <c r="AU77" s="1"/>
-      <c r="AW77" s="1"/>
-      <c r="AY77" s="1" t="s">
+    <row r="71" spans="33:45" x14ac:dyDescent="0.25">
+      <c r="AG71" s="1"/>
+      <c r="AI71" s="1"/>
+      <c r="AK71" s="1"/>
+      <c r="AM71" s="1"/>
+      <c r="AO71" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="43:51" x14ac:dyDescent="0.25">
-      <c r="AQ78" s="1"/>
-      <c r="AS78" s="1"/>
-      <c r="AU78" s="1"/>
-      <c r="AW78" s="1"/>
-      <c r="AY78" s="1" t="s">
+    <row r="72" spans="33:45" x14ac:dyDescent="0.25">
+      <c r="AG72" s="1"/>
+      <c r="AI72" s="1"/>
+      <c r="AK72" s="1"/>
+      <c r="AM72" s="1"/>
+      <c r="AO72" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="79" spans="43:51" x14ac:dyDescent="0.25">
-      <c r="AQ79" s="1"/>
-      <c r="AS79" s="1"/>
-      <c r="AU79" s="1"/>
-      <c r="AW79" s="1"/>
-      <c r="AY79" s="1" t="s">
+    <row r="73" spans="33:45" x14ac:dyDescent="0.25">
+      <c r="AG73" s="1"/>
+      <c r="AI73" s="1"/>
+      <c r="AK73" s="1"/>
+      <c r="AM73" s="1"/>
+      <c r="AO73" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="80" spans="43:51" x14ac:dyDescent="0.25">
-      <c r="AQ80" s="1"/>
-      <c r="AS80" s="1"/>
-      <c r="AU80" s="1"/>
-      <c r="AW80" s="1"/>
-      <c r="AY80" s="1" t="s">
+    <row r="74" spans="33:45" x14ac:dyDescent="0.25">
+      <c r="AG74" s="1"/>
+      <c r="AI74" s="1"/>
+      <c r="AK74" s="1"/>
+      <c r="AM74" s="1"/>
+      <c r="AO74" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="81" spans="43:57" x14ac:dyDescent="0.25">
-      <c r="AQ81" s="1"/>
-      <c r="AS81" s="1"/>
-      <c r="AU81" s="1"/>
-      <c r="AW81" s="1"/>
-      <c r="AY81" s="1" t="s">
+    <row r="75" spans="33:45" x14ac:dyDescent="0.25">
+      <c r="AG75" s="1"/>
+      <c r="AI75" s="1"/>
+      <c r="AK75" s="1"/>
+      <c r="AM75" s="1"/>
+      <c r="AO75" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="82" spans="43:57" x14ac:dyDescent="0.25">
-      <c r="AQ82" s="1"/>
-      <c r="AS82" s="1"/>
-      <c r="AU82" s="1"/>
-      <c r="AW82" s="1"/>
-      <c r="AY82" s="1" t="s">
+    <row r="76" spans="33:45" x14ac:dyDescent="0.25">
+      <c r="AG76" s="1"/>
+      <c r="AI76" s="1"/>
+      <c r="AK76" s="1"/>
+      <c r="AM76" s="1"/>
+      <c r="AO76" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="83" spans="43:57" x14ac:dyDescent="0.25">
-      <c r="AQ83" s="1"/>
-      <c r="AS83" s="1"/>
-      <c r="AU83" s="1"/>
-      <c r="AW83" s="1"/>
-      <c r="BA83" s="1" t="s">
+    <row r="77" spans="33:45" x14ac:dyDescent="0.25">
+      <c r="AG77" s="1"/>
+      <c r="AI77" s="1"/>
+      <c r="AK77" s="1"/>
+      <c r="AM77" s="1"/>
+      <c r="AQ77" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="84" spans="43:57" x14ac:dyDescent="0.25">
-      <c r="AQ84" s="1"/>
-      <c r="AS84" s="1"/>
-      <c r="AU84" s="1"/>
-      <c r="AW84" s="1"/>
-      <c r="AY84" s="1"/>
-      <c r="BC84" s="1" t="s">
+    <row r="78" spans="33:45" x14ac:dyDescent="0.25">
+      <c r="AG78" s="1"/>
+      <c r="AI78" s="1"/>
+      <c r="AK78" s="1"/>
+      <c r="AM78" s="1"/>
+      <c r="AO78" s="1"/>
+      <c r="AS78" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="85" spans="43:57" x14ac:dyDescent="0.25">
-      <c r="AQ85" s="1"/>
-      <c r="AS85" s="1"/>
-      <c r="AU85" s="1"/>
-      <c r="AW85" s="1"/>
-      <c r="AY85" s="1"/>
-      <c r="BC85" s="1" t="s">
+    <row r="79" spans="33:45" x14ac:dyDescent="0.25">
+      <c r="AG79" s="1"/>
+      <c r="AI79" s="1"/>
+      <c r="AK79" s="1"/>
+      <c r="AM79" s="1"/>
+      <c r="AO79" s="1"/>
+      <c r="AS79" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="86" spans="43:57" x14ac:dyDescent="0.25">
-      <c r="AQ86" s="1"/>
-      <c r="AS86" s="1"/>
-      <c r="AU86" s="1"/>
-      <c r="AW86" s="1"/>
-      <c r="BC86" s="1" t="s">
+    <row r="80" spans="33:45" x14ac:dyDescent="0.25">
+      <c r="AG80" s="1"/>
+      <c r="AI80" s="1"/>
+      <c r="AK80" s="1"/>
+      <c r="AM80" s="1"/>
+      <c r="AS80" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="87" spans="43:57" x14ac:dyDescent="0.25">
-      <c r="AQ87" s="1"/>
-      <c r="AS87" s="1"/>
-      <c r="AU87" s="1"/>
-      <c r="AW87" s="1"/>
-      <c r="BE87" s="1" t="s">
+    <row r="81" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG81" s="1"/>
+      <c r="AI81" s="1"/>
+      <c r="AK81" s="1"/>
+      <c r="AM81" s="1"/>
+      <c r="AU81" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="88" spans="43:57" x14ac:dyDescent="0.25">
-      <c r="AQ88" s="1"/>
-      <c r="AS88" s="1"/>
-      <c r="AU88" s="1"/>
-      <c r="AW88" s="1"/>
-      <c r="BE88" s="1" t="s">
+    <row r="82" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG82" s="1"/>
+      <c r="AI82" s="1"/>
+      <c r="AK82" s="1"/>
+      <c r="AM82" s="1"/>
+      <c r="AU82" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="89" spans="43:57" x14ac:dyDescent="0.25">
-      <c r="AQ89" s="1"/>
-      <c r="AS89" s="1"/>
-      <c r="AU89" s="1"/>
-      <c r="AW89" s="1"/>
-    </row>
-    <row r="90" spans="43:57" x14ac:dyDescent="0.25">
-      <c r="AQ90" s="1"/>
-      <c r="AS90" s="1"/>
-      <c r="AU90" s="1"/>
-    </row>
-    <row r="91" spans="43:57" x14ac:dyDescent="0.25">
-      <c r="AQ91" s="1"/>
-      <c r="AS91" s="1"/>
-      <c r="AU91" s="1"/>
-    </row>
-    <row r="92" spans="43:57" x14ac:dyDescent="0.25">
-      <c r="AQ92" s="1"/>
-      <c r="AS92" s="1"/>
-      <c r="AU92" s="1"/>
-    </row>
-    <row r="93" spans="43:57" x14ac:dyDescent="0.25">
-      <c r="AQ93" s="1"/>
-      <c r="AS93" s="1"/>
-      <c r="AU93" s="1"/>
-    </row>
-    <row r="94" spans="43:57" x14ac:dyDescent="0.25">
-      <c r="AQ94" s="1"/>
-      <c r="AS94" s="1"/>
-      <c r="AU94" s="1"/>
-    </row>
-    <row r="95" spans="43:57" x14ac:dyDescent="0.25">
-      <c r="AQ95" s="1"/>
-      <c r="AS95" s="1"/>
-      <c r="AU95" s="1"/>
-    </row>
-    <row r="96" spans="43:57" x14ac:dyDescent="0.25">
-      <c r="AQ96" s="1"/>
-      <c r="AS96" s="1"/>
-      <c r="AU96" s="1"/>
-    </row>
-    <row r="97" spans="43:45" x14ac:dyDescent="0.25">
-      <c r="AQ97" s="1"/>
-      <c r="AS97" s="1"/>
-    </row>
-    <row r="98" spans="43:45" x14ac:dyDescent="0.25">
-      <c r="AQ98" s="1"/>
-    </row>
-    <row r="99" spans="43:45" x14ac:dyDescent="0.25">
-      <c r="AQ99" s="1"/>
-    </row>
-    <row r="100" spans="43:45" x14ac:dyDescent="0.25">
-      <c r="AQ100" s="1"/>
-    </row>
-    <row r="101" spans="43:45" x14ac:dyDescent="0.25">
-      <c r="AQ101" s="1"/>
-    </row>
-    <row r="102" spans="43:45" x14ac:dyDescent="0.25">
-      <c r="AQ102" s="1"/>
-    </row>
-    <row r="103" spans="43:45" x14ac:dyDescent="0.25">
-      <c r="AQ103" s="1"/>
+    <row r="83" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG83" s="1"/>
+      <c r="AI83" s="1"/>
+      <c r="AK83" s="1"/>
+      <c r="AM83" s="1"/>
+    </row>
+    <row r="84" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG84" s="1"/>
+      <c r="AI84" s="1"/>
+      <c r="AK84" s="1"/>
+    </row>
+    <row r="85" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG85" s="1"/>
+      <c r="AI85" s="1"/>
+      <c r="AK85" s="1"/>
+    </row>
+    <row r="86" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG86" s="1"/>
+      <c r="AI86" s="1"/>
+      <c r="AK86" s="1"/>
+    </row>
+    <row r="87" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG87" s="1"/>
+      <c r="AI87" s="1"/>
+      <c r="AK87" s="1"/>
+    </row>
+    <row r="88" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG88" s="1"/>
+      <c r="AI88" s="1"/>
+      <c r="AK88" s="1"/>
+    </row>
+    <row r="89" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG89" s="1"/>
+      <c r="AI89" s="1"/>
+      <c r="AK89" s="1"/>
+    </row>
+    <row r="90" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG90" s="1"/>
+      <c r="AI90" s="1"/>
+      <c r="AK90" s="1"/>
+    </row>
+    <row r="91" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG91" s="1"/>
+      <c r="AI91" s="1"/>
+    </row>
+    <row r="92" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG92" s="1"/>
+    </row>
+    <row r="93" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG93" s="1"/>
+    </row>
+    <row r="94" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG94" s="1"/>
+    </row>
+    <row r="95" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG95" s="1"/>
+    </row>
+    <row r="96" spans="33:47" x14ac:dyDescent="0.25">
+      <c r="AG96" s="1"/>
+    </row>
+    <row r="97" spans="33:33" x14ac:dyDescent="0.25">
+      <c r="AG97" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/_R.xlsx
+++ b/_R.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\RProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85758946-8717-4F8E-AA96-A2445AD54B7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B6CB8D6-FEA8-4530-90DA-7D90D44F730E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{88B916E1-658B-4CD8-9C7E-BE8A8C7A43A4}"/>
   </bookViews>

--- a/_R.xlsx
+++ b/_R.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\RProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B6CB8D6-FEA8-4530-90DA-7D90D44F730E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2539C88F-7574-47A5-95E6-3792450F0701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{88B916E1-658B-4CD8-9C7E-BE8A8C7A43A4}"/>
   </bookViews>
